--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87566F27-038C-4B76-8321-AFD08DFCA467}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A01B40-A9A4-4280-9CD0-830ECC8223AA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="361">
   <si>
     <t>Arrays</t>
   </si>
@@ -1146,12 +1146,36 @@
   <si>
     <t>LEETCODE CODING SHEET</t>
   </si>
+  <si>
+    <t>BINARY TREES</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-preorder-traversal/</t>
+  </si>
+  <si>
+    <t>DO IT IN ITERATIVE WAY (Morris Traversal)</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-preorder-and-inorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-binary-tree-from-inorder-and-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-complete-tree-nodes/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1225,13 +1249,56 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1243,10 +1310,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1271,8 +1339,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1489,10 +1565,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:C429"/>
+  <dimension ref="B1:C441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="B444" sqref="B444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1723,7 +1799,7 @@
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="14" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2461,7 +2537,7 @@
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="15" t="s">
         <v>176</v>
       </c>
     </row>
@@ -2942,7 +3018,7 @@
       </c>
     </row>
     <row r="319" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="20" t="s">
         <v>260</v>
       </c>
       <c r="C319" s="8" t="s">
@@ -3446,6 +3522,68 @@
     <row r="429" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B429" s="5" t="s">
         <v>351</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B433" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C433" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="434" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B434" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C434" s="18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="435" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="C435" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="436" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C436" s="16"/>
+    </row>
+    <row r="437" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="438" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="439" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="440" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="441" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="5" t="s">
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3773,8 +3911,10 @@
     <hyperlink ref="B424" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
     <hyperlink ref="B427" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
     <hyperlink ref="B429" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B433" r:id="rId324" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B435" r:id="rId325" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId324"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId326"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97A01B40-A9A4-4280-9CD0-830ECC8223AA}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1783FD76-E9BB-4E18-ADF0-4FB8C412EB45}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="362">
   <si>
     <t>Arrays</t>
   </si>
@@ -1147,9 +1147,6 @@
     <t>LEETCODE CODING SHEET</t>
   </si>
   <si>
-    <t>BINARY TREES</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/binary-tree-preorder-traversal/</t>
   </si>
   <si>
@@ -1169,6 +1166,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/count-complete-tree-nodes/</t>
+  </si>
+  <si>
+    <t>heap problem-solved with using the static int from the previous func by pass by address.</t>
+  </si>
+  <si>
+    <t>We need to do it using stack but change the implementations at few points.</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1278,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1300,6 +1303,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1314,7 +1323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,6 +1355,9 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1565,10 +1577,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:C441"/>
+  <dimension ref="B1:D446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="B444" sqref="B444"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="B452" sqref="B452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1577,273 +1589,273 @@
     <col min="3" max="3" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B58" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B59" s="6" t="s">
         <v>50</v>
       </c>
@@ -1851,1740 +1863,1765 @@
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B60" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B62" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B63" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B64" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B65" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B66" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B67" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B70" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B71" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B72" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B75" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B76" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B83" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B84" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B112" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B117" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B118" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B119" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B127" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B130" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B134" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B142" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B143" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B167" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B169" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B170" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B172" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B174" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B181" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B184" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B186" s="5" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B187" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B188" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B189" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B199" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="6" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="6" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B210" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B213" s="4" t="s">
+    <row r="212" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B212" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C213" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B214" s="17" t="s">
+        <v>356</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D215" s="16"/>
+    </row>
+    <row r="216" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B218" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B214" s="5" t="s">
+    <row r="219" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B215" s="6" t="s">
+    <row r="220" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B216" s="6" t="s">
+    <row r="221" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B221" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B217" s="6" t="s">
+    <row r="222" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B222" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B218" s="6" t="s">
+    <row r="223" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B223" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B219" s="6" t="s">
+    <row r="224" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B220" s="6" t="s">
+    <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B221" s="6" t="s">
+    <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B226" s="22" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B222" s="6" t="s">
+    <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B223" s="6" t="s">
+    <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="s">
+    <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B229" s="6" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B225" s="6" t="s">
+    <row r="230" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B230" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B226" s="6" t="s">
+    <row r="231" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B231" s="6" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B227" s="6" t="s">
+    <row r="232" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B232" s="6" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B228" s="6" t="s">
+    <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B233" s="6" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B229" s="6" t="s">
+    <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B234" s="6" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B230" s="6" t="s">
+    <row r="235" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B235" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B231" s="6" t="s">
+    <row r="236" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B236" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B233" s="4" t="s">
+    <row r="237" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B237" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B238" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B239" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B240" s="17" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B242" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B234" s="6" t="s">
+    <row r="243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B243" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B235" s="6" t="s">
+    <row r="244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B244" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B236" s="5" t="s">
+    <row r="245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B245" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B237" s="6" t="s">
+    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B246" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B238" s="6" t="s">
+    <row r="247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B247" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B239" s="6" t="s">
+    <row r="248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B248" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B240" s="6" t="s">
+    <row r="249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B249" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B242" s="3" t="s">
+    <row r="250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B251" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B243" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B244" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B245" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B246" s="9"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B247" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B248" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B249" s="6" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B251" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B253" s="5" t="s">
+    <row r="253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B253" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B254" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B255" s="9"/>
+    </row>
+    <row r="256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B256" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B257" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B258" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B260" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B261" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B254" s="6" t="s">
+    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B263" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B255" s="6" t="s">
+    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B264" s="6" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B256" s="6" t="s">
+    <row r="265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B265" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B258" s="4" t="s">
+    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B267" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B259" s="6" t="s">
+    <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B268" s="6" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B260" s="6" t="s">
+    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B269" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B261" s="6" t="s">
+    <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B270" s="6" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B262" s="6" t="s">
+    <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B271" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B263" s="6" t="s">
+    <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B272" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B264" s="6" t="s">
+    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B265" s="6" t="s">
+    <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B274" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B266" s="6" t="s">
+    <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B275" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B267" s="6" t="s">
+    <row r="276" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B276" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B269" s="4" t="s">
+    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B278" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B270" s="6" t="s">
+    <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B279" s="6" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B271" s="6" t="s">
+    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B272" s="6" t="s">
+    <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B281" s="6" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B273" s="6" t="s">
+    <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B282" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B274" s="6" t="s">
+    <row r="283" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B283" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B276" s="3" t="s">
+    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B277" s="4" t="s">
+    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B286" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B278" s="6" t="s">
+    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B287" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B279" s="6" t="s">
+    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B288" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B280" s="6" t="s">
+    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B289" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B281" s="6" t="s">
+    <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B290" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B282" s="5" t="s">
+    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B291" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B284" s="4" t="s">
+    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B285" s="6" t="s">
+    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B286" s="6" t="s">
+    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B295" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B287" s="6" t="s">
+    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B288" s="6" t="s">
+    <row r="297" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B297" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B290" s="3" t="s">
+    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B299" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B291" s="4" t="s">
+    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B292" s="6" t="s">
+    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B293" s="6" t="s">
+    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B294" s="6" t="s">
+    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B303" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B295" s="6" t="s">
+    <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B304" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B296" s="6" t="s">
+    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B305" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B298" s="3" t="s">
+    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B307" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B299" s="4" t="s">
+    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B308" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B300" s="6" t="s">
+    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B301" s="6" t="s">
+    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B302" s="6" t="s">
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B303" s="6" t="s">
+    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B312" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B304" s="6" t="s">
+    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B313" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B305" s="6" t="s">
+    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B314" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B307" s="4" t="s">
+    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B316" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B308" s="5" t="s">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B309" s="6" t="s">
+    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B318" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B310" s="6" t="s">
+    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B319" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B311" s="6" t="s">
+    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B320" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B313" s="3" t="s">
+    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B322" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B314" s="4" t="s">
+    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B323" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B315" s="6" t="s">
+    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B324" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B316" s="6" t="s">
+    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B325" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C316" s="5" t="s">
+      <c r="C325" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B317" s="6" t="s">
+    <row r="326" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B318" s="5" t="s">
+    <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B327" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B319" s="20" t="s">
+    <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B328" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C319" s="8" t="s">
+      <c r="C328" s="8" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B320" s="5" t="s">
+    <row r="329" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B329" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B322" s="4" t="s">
+    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B331" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B323" s="5" t="s">
+    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B332" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B324" s="6" t="s">
+    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B333" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B325" s="6" t="s">
+    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B334" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B326" s="6" t="s">
+    <row r="335" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="6" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B327" s="5" t="s">
+    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="5" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B328" s="6" t="s">
+    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B337" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C337" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B329" s="5" t="s">
+    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B338" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B331" s="3" t="s">
+    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B332" s="4" t="s">
+    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B341" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B333" s="5" t="s">
+    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B342" s="5" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B334" s="6" t="s">
+    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B335" s="6" t="s">
+    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B344" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B336" s="6" t="s">
+    <row r="345" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B337" s="6" t="s">
+    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B346" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B338" s="5" t="s">
+    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B339" s="6" t="s">
+    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B348" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B341" s="3" t="s">
+    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B350" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B342" s="4" t="s">
+    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B343" s="5" t="s">
+    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B344" s="6" t="s">
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B353" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B345" s="10"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B346" s="4" t="s">
+    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B354" s="10"/>
+    </row>
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B347" s="6" t="s">
+    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B348" s="6" t="s">
+    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B357" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B349" s="6" t="s">
+    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B358" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B350" s="6" t="s">
+    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B359" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B351" s="6" t="s">
+    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B360" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B352" s="6" t="s">
+    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B361" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B353" s="6" t="s">
+    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B362" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B354" s="6" t="s">
+    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B363" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B355" s="6" t="s">
+    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B364" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B356" s="6" t="s">
+    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B365" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B357" s="6" t="s">
+    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B366" s="6" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B358" s="5" t="s">
+    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B367" s="5" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B359" s="6" t="s">
+    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B368" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B360" s="6" t="s">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="6" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B362" s="3" t="s">
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B371" s="3" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B363" s="6" t="s">
+    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B372" s="6" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B365" s="3" t="s">
+    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B374" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B366" s="11" t="s">
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B375" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B367" s="6" t="s">
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B376" s="6" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B368" s="6" t="s">
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B377" s="6" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B369" s="6" t="s">
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B378" s="6" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B370" s="6" t="s">
+    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B379" s="6" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B371" s="6" t="s">
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B380" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B372" s="6" t="s">
+    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B381" s="6" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B373" s="6" t="s">
+    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B382" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B374" s="6" t="s">
+    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B383" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B375" s="6" t="s">
+    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B384" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B376" s="6" t="s">
+    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B385" s="6" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B378" s="4" t="s">
+    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B387" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B379" s="6" t="s">
+    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B388" s="6" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B380" s="6" t="s">
+    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B389" s="6" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B381" s="6" t="s">
+    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B390" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B382" s="6" t="s">
+    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B391" s="6" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B383" s="5" t="s">
+    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B392" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B384" s="5" t="s">
+    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B393" s="5" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B385" s="6" t="s">
+    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B394" s="6" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B386" s="5" t="s">
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B395" s="5" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B387" s="6" t="s">
+    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B396" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B388" s="6" t="s">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="6" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B389" s="6" t="s">
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B398" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B390" s="6" t="s">
+    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B399" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B391" s="6" t="s">
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B400" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B393" s="4" t="s">
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B402" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B394" s="5" t="s">
+    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B403" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B395" s="6" t="s">
+    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B404" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B397" s="3" t="s">
+    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B406" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B398" s="4" t="s">
+    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B407" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B399" s="6" t="s">
+    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B408" s="6" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B400" s="6" t="s">
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B409" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B401" s="6" t="s">
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B410" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B402" s="6" t="s">
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B411" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B403" s="6" t="s">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B404" s="6" t="s">
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B413" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B405" s="6" t="s">
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B414" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B406" s="6" t="s">
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B415" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B408" s="4" t="s">
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B417" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B409" s="6" t="s">
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B418" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B410" s="6" t="s">
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B419" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B411" s="6" t="s">
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B420" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B412" s="6" t="s">
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B421" s="6" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B413" s="5" t="s">
+    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B422" s="5" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B414" s="6" t="s">
+    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B415" s="6" t="s">
+    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B424" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B416" s="6" t="s">
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B425" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B417" s="6" t="s">
+    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B426" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B419" s="3" t="s">
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B428" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B420" s="4" t="s">
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B429" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B421" s="6" t="s">
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B430" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B422" s="6" t="s">
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B431" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B423" s="6" t="s">
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B432" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B424" s="12" t="s">
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B433" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B425" s="4"/>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B426" s="3" t="s">
+    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B434" s="4"/>
+    </row>
+    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B435" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B427" s="5" t="s">
+    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B436" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B428" s="3" t="s">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B429" s="5" t="s">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B431" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B432" s="19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="433" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B433" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C433" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="434" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B434" s="17" t="s">
-        <v>356</v>
-      </c>
-      <c r="C434" s="18" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="435" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B435" s="17" t="s">
-        <v>357</v>
-      </c>
-      <c r="C435" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="436" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C436" s="16"/>
-    </row>
-    <row r="437" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="438" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B438" s="5" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="439" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="440" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="441" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="5" t="s">
-        <v>360</v>
-      </c>
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="3"/>
+    </row>
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="19"/>
+    </row>
+    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3752,169 +3789,173 @@
     <hyperlink ref="B208" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
     <hyperlink ref="B209" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
     <hyperlink ref="B210" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B211" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B214" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B215" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B216" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B217" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B218" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B219" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B220" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B221" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B222" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B223" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B224" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B225" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B226" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B227" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B228" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B229" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B230" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B231" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B234" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B235" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B236" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B237" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B238" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B239" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B240" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B244" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B245" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B248" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B249" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B253" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B254" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B255" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B256" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B259" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B260" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B261" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B262" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B263" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B264" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B265" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B266" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B267" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B270" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B271" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B272" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B273" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B274" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B278" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B279" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B280" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B281" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B282" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B285" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B286" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B287" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B288" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B292" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B293" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B294" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B295" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B296" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B300" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B301" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B302" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B303" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B304" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B305" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B308" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B309" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B310" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B311" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B315" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B316" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C316" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B317" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B318" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C319" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B320" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B323" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B324" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B325" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B326" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B327" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B328" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C328" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B329" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B333" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B334" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B335" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B336" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B337" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B338" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B339" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B343" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B344" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B347" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B348" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B349" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B350" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B351" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B352" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B353" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B354" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B355" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B356" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B357" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B358" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B359" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B360" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B363" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B367" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B368" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B369" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B370" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B371" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B372" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B373" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B374" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B375" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B376" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B379" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B380" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B381" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B382" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B383" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B384" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B385" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B386" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B387" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B388" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B389" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B390" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B391" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B394" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B395" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B399" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B400" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B401" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B402" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B403" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B404" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B405" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B406" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B409" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B410" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B411" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B412" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B413" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B414" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B415" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B416" r:id="rId316" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B417" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B421" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B422" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B423" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B424" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B427" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B429" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B433" r:id="rId324" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B435" r:id="rId325" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B221" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B222" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B223" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B224" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B225" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B226" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B227" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B228" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B229" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B230" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B231" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B232" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B233" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B234" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B235" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B236" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B243" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B244" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B245" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B246" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B247" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B248" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B249" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B253" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B254" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B257" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B258" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B262" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B263" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B264" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B265" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B268" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B269" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B270" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B271" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B272" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B273" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B274" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B275" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B276" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B279" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B280" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B281" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B282" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B283" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B287" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B288" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B289" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B290" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B291" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B294" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B295" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B296" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B297" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B301" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B302" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B303" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B304" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B305" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B309" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B310" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B311" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B312" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B313" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B314" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B317" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B318" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B319" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B320" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B324" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B325" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C325" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B326" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B327" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C328" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B329" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B332" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B333" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B334" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B335" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B336" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B337" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C337" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B338" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B342" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B343" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B344" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B345" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B346" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B347" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B348" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B352" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B353" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B356" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B357" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B358" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B359" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B360" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B361" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B362" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B363" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B364" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B365" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B366" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B367" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B368" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B369" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B372" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B376" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B377" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B378" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B379" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B380" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B381" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B382" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B383" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B384" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B385" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B388" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B389" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B390" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B391" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B392" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B393" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B394" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B395" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B396" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B397" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B398" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B399" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B400" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B403" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B404" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B408" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B409" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B410" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B411" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B412" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B413" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B414" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B415" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B418" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B419" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B420" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B421" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B422" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B423" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B424" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B425" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B426" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B430" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B431" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B432" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B433" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B436" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B438" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B212" r:id="rId321" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B214" r:id="rId322" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B237" r:id="rId323" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B238" r:id="rId324" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B239" r:id="rId325" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B240" r:id="rId326" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B211" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B219" r:id="rId328" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B220" r:id="rId329" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId326"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId330"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1783FD76-E9BB-4E18-ADF0-4FB8C412EB45}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D1D36F-7AD3-4A73-ABBA-2C62F3006391}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="369">
   <si>
     <t>Arrays</t>
   </si>
@@ -1171,14 +1171,35 @@
     <t>heap problem-solved with using the static int from the previous func by pass by address.</t>
   </si>
   <si>
-    <t>We need to do it using stack but change the implementations at few points.</t>
+    <t>https://leetcode.com/problems/maximum-level-sum-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t>lil tricky as null is an edge case here</t>
+  </si>
+  <si>
+    <t>New question for me but easy</t>
+  </si>
+  <si>
+    <t>I did it using level order and my implementation</t>
+  </si>
+  <si>
+    <t>We need to do it using queue but change the implementations at few points.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-bottom-left-tree-value/</t>
+  </si>
+  <si>
+    <t>Solved all by myself, we have to cal depth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1277,6 +1298,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1323,7 +1350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1358,6 +1385,8 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1577,10 +1606,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:D446"/>
+  <dimension ref="B1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="B452" sqref="B452"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="C243" sqref="C243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2463,1165 +2492,1192 @@
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="6" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B199" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B203" s="5" t="s">
+    <row r="203" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B203" s="14" t="s">
+        <v>362</v>
+      </c>
+      <c r="C203" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B204" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B204" s="6" t="s">
+    <row r="205" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B205" s="6" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="5" t="s">
+    <row r="206" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B206" s="6" t="s">
+    <row r="207" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B207" s="6" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B207" s="6" t="s">
+    <row r="208" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B208" s="14" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B208" s="5" t="s">
+      <c r="C208" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="6" t="s">
+    <row r="210" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B210" s="6" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="210" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="211" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="15" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B212" s="15" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="17" t="s">
+    <row r="213" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B213" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="C212" s="16" t="s">
+      <c r="C213" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B213" s="17" t="s">
+    <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B214" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C213" s="18" t="s">
+      <c r="C214" s="18" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="214" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="17" t="s">
+    <row r="215" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B215" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="C214" s="16" t="s">
+      <c r="C215" s="16" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D215" s="16"/>
-    </row>
-    <row r="216" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D216" s="16"/>
+    </row>
     <row r="217" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B218" s="4" t="s">
+    <row r="218" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B219" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="5" t="s">
+    <row r="220" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="221" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="220" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="221" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="222" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B222" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="223" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="6" t="s">
-        <v>181</v>
+      <c r="B223" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C223" s="25" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="224" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B225" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="22" t="s">
-        <v>184</v>
+      <c r="B226" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="6" t="s">
-        <v>186</v>
+      <c r="B228" s="22" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="230" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="231" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="232" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B233" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B234" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="235" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="236" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B237" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B238" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="237" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="21" t="s">
+    <row r="239" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C237" s="16" t="s">
+      <c r="C239" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="21" t="s">
+    <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B240" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="C238" s="16" t="s">
+      <c r="C240" s="16" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="239" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="23" t="s">
+    <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B241" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C239" s="16" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="17" t="s">
+      <c r="C241" s="16" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B242" s="17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="241" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="4" t="s">
+    <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B243" s="17" t="s">
+        <v>367</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B245" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="243" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="6" t="s">
+    <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B246" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="244" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B244" s="6" t="s">
+    <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B247" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="245" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="5" t="s">
+    <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B248" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="246" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B246" s="6" t="s">
+    <row r="249" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B249" s="6" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="247" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B247" s="6" t="s">
+    <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B250" s="6" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="248" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="6" t="s">
+    <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B251" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="249" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B249" s="6" t="s">
+    <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B252" s="6" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="250" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="3" t="s">
+    <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B254" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="252" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B252" s="4" t="s">
+    <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B255" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="6" t="s">
+    <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B256" s="6" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="254" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="255" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B255" s="9"/>
-    </row>
-    <row r="256" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B258" s="9"/>
+    </row>
+    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B259" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B260" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="258" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B258" s="6" t="s">
+    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B261" s="6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="3" t="s">
+    <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B263" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B261" s="4" t="s">
+    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B264" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="5" t="s">
+    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="6" t="s">
+    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B266" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B264" s="6" t="s">
+    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B267" s="6" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B267" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="6" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B269" s="6" t="s">
-        <v>213</v>
-      </c>
-    </row>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="6" t="s">
-        <v>214</v>
+      <c r="B270" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B272" s="6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="273" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B277" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B278" s="6" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="6" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="6" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="6" t="s">
-        <v>223</v>
+      <c r="B281" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="6" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="6" t="s">
+    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B286" s="6" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="3" t="s">
+    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B288" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="4" t="s">
+    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B289" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="288" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B291" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="6" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="5" t="s">
+    <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B294" s="5" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="4" t="s">
+    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="6" t="s">
+    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="6" t="s">
+    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B298" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="6" t="s">
+    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B299" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="297" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="6" t="s">
+    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="6" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="3" t="s">
+    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B302" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="4" t="s">
+    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B303" s="4" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="302" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="6" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B306" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B307" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="6" t="s">
+    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B308" s="6" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="3" t="s">
+    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="4" t="s">
+    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B311" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B314" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B315" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B316" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="6" t="s">
+    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B317" s="6" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="4" t="s">
+    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B319" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="5" t="s">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="5" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="6" t="s">
+    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B321" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="6" t="s">
+    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B322" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B320" s="6" t="s">
+    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B323" s="6" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B322" s="3" t="s">
+    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B325" s="3" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="4" t="s">
+    <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B326" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B324" s="6" t="s">
+    <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B327" s="6" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="6" t="s">
+    <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B328" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="C325" s="5" t="s">
+      <c r="C328" s="5" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="326" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="6" t="s">
+    <row r="329" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="6" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B327" s="5" t="s">
+    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B330" s="5" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B328" s="20" t="s">
+    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B331" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="C328" s="8" t="s">
+      <c r="C331" s="8" t="s">
         <v>261</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B329" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B331" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B334" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B335" s="5" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B333" s="6" t="s">
+    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="6" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="6" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="5" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B338" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B339" s="5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C337" s="6" t="s">
+      <c r="C340" s="6" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B338" s="5" t="s">
+    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B341" s="5" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="3" t="s">
+    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="3" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B341" s="4" t="s">
+    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B344" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="5" t="s">
+    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B345" s="5" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B344" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="345" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B349" s="6" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="5" t="s">
+    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B350" s="5" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B348" s="6" t="s">
+    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="6" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="3" t="s">
+    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B353" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="4" t="s">
+    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B354" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="5" t="s">
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="5" t="s">
         <v>281</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B353" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B354" s="10"/>
-    </row>
-    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="6" t="s">
-        <v>284</v>
-      </c>
+      <c r="B357" s="10"/>
     </row>
     <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B358" s="6" t="s">
-        <v>285</v>
+      <c r="B358" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B359" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B360" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B364" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="5" t="s">
-        <v>294</v>
+      <c r="B367" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="6" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B370" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B371" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="6" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B371" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B372" s="6" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B375" s="6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B377" s="3" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="11" t="s">
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B378" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="6" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="6" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B386" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B387" s="6" t="s">
         <v>308</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B385" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B387" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B389" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B390" s="6" t="s">
-        <v>312</v>
+      <c r="B390" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B392" s="5" t="s">
-        <v>314</v>
+      <c r="B392" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B393" s="5" t="s">
-        <v>315</v>
+      <c r="B393" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B396" s="5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B397" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B398" s="5" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B400" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B401" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B402" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="6" t="s">
+    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B403" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="4" t="s">
+    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B405" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B403" s="5" t="s">
+    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B406" s="5" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B404" s="6" t="s">
+    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B407" s="6" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B406" s="3" t="s">
+    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B409" s="3" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B407" s="4" t="s">
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B410" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B408" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B415" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B416" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B417" s="6" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B415" s="6" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="6" t="s">
-        <v>335</v>
+      <c r="B420" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="6" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B422" s="5" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B425" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B427" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B425" s="6" t="s">
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B428" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B426" s="6" t="s">
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B429" s="6" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B428" s="3" t="s">
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B431" s="3" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B429" s="4" t="s">
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B432" s="4" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="6" t="s">
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B433" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="6" t="s">
+    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B434" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="6" t="s">
+    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B435" s="6" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B433" s="12" t="s">
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B436" s="12" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B434" s="4"/>
-    </row>
-    <row r="435" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B435" s="3" t="s">
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B437" s="4"/>
+    </row>
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="3" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B436" s="5" t="s">
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B439" s="5" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="3" t="s">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="3" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B438" s="5" t="s">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="5" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="3"/>
-    </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="19"/>
-    </row>
-    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B446" s="19"/>
+    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B443" s="3"/>
+    </row>
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="19"/>
+    </row>
+    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B449" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3781,179 +3837,179 @@
     <hyperlink ref="B200" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
     <hyperlink ref="B201" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
     <hyperlink ref="B202" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B203" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B204" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B205" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B206" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B207" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B208" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B209" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B210" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B221" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B222" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B223" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B224" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B225" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B226" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B227" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B228" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B229" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B230" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B231" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B232" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B233" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B234" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B235" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B236" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B243" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B244" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B245" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B246" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B247" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B248" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B249" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B253" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B254" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B257" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B258" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B262" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B263" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B264" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B265" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B268" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B269" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B270" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B271" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B272" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B273" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B274" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B275" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B276" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B279" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B280" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B281" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B282" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B283" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B287" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B288" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B289" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B290" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B291" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B294" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B295" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B296" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B297" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B301" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B302" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B303" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B304" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B305" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B309" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B310" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B311" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B312" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B313" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B314" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B317" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B318" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B319" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B320" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B324" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B325" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C325" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B326" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B327" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C328" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B329" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B332" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B333" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B334" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B335" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B336" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B337" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C337" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B338" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B342" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B343" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B344" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B345" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B346" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B347" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B348" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B352" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B353" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B356" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B357" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B358" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B359" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B360" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B361" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B362" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B363" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B364" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B365" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B366" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B367" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B368" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B369" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B372" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B376" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B377" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B378" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B379" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B380" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B381" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B382" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B383" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B384" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B385" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B388" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B389" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B390" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B391" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B392" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B393" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B394" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B395" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B396" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B397" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B398" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B399" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B400" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B403" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B404" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B408" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B409" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B410" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B411" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B412" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B413" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B414" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B415" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B418" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B419" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B420" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B421" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B422" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B423" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B424" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B425" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B426" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B430" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B431" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B432" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B433" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B436" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B438" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B212" r:id="rId321" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B214" r:id="rId322" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B237" r:id="rId323" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B238" r:id="rId324" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B239" r:id="rId325" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B240" r:id="rId326" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B211" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B219" r:id="rId328" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B220" r:id="rId329" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B204" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B205" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B206" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B207" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="B208" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B209" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B210" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B211" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B223" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B224" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B225" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B226" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B227" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B228" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B229" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B230" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B231" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B232" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B233" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B234" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B235" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B236" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B237" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B238" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B246" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B247" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B248" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B249" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B250" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B251" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B252" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B256" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B257" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B260" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B261" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B265" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B266" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B267" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B268" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B271" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B272" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B273" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B274" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B275" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B276" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B277" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B278" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B279" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B282" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B283" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B284" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B285" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B286" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B290" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B291" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B292" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B293" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B294" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B297" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B298" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B299" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B300" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B304" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B305" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B306" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B307" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B308" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B312" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B313" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B314" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B315" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B316" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B317" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B320" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B321" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B322" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B323" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B327" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B328" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C328" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B329" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B330" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C331" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B332" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B335" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B336" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B337" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B338" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B339" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B340" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C340" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B341" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B345" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B346" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B347" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B348" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B349" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B350" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B351" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B355" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B356" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B359" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B360" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B361" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B362" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B363" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B364" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B365" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B366" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B367" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B368" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B369" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B370" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B371" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B372" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B375" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B379" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B380" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B381" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B382" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B383" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B384" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B385" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B386" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B387" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B388" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B391" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B392" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B393" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B394" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B395" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B396" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B397" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B398" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B399" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B400" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B401" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B402" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B403" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B406" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B407" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B411" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B412" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B413" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B414" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B415" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B416" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B417" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B418" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B421" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B422" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B423" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B424" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B425" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B426" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B427" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B428" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B429" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B433" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B434" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B435" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B436" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B439" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B441" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B213" r:id="rId321" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B215" r:id="rId322" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B239" r:id="rId323" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B240" r:id="rId324" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B241" r:id="rId325" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B242" r:id="rId326" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B212" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B221" r:id="rId328" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B222" r:id="rId329" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId330"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16D1D36F-7AD3-4A73-ABBA-2C62F3006391}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C6879A4-FEE8-49F3-A7BA-D871FC5D8344}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="371">
   <si>
     <t>Arrays</t>
   </si>
@@ -549,9 +549,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/same-tree/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/path-sum/</t>
@@ -1194,12 +1191,21 @@
   <si>
     <t>Solved all by myself, we have to cal depth</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-search-tree/</t>
+  </si>
+  <si>
+    <t>construct the function in such a way that you can pass and track the data</t>
+  </si>
+  <si>
+    <t>easy pesy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1304,6 +1310,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1350,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1387,6 +1400,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1608,8 +1622,8 @@
   </sheetPr>
   <dimension ref="B1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
-      <selection activeCell="C243" sqref="C243"/>
+    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1623,7 +1637,7 @@
     </row>
     <row r="2" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -2503,7 +2517,7 @@
       </c>
     </row>
     <row r="196" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="22" t="s">
         <v>161</v>
       </c>
     </row>
@@ -2539,10 +2553,10 @@
     </row>
     <row r="203" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C203" t="s">
         <v>362</v>
-      </c>
-      <c r="C203" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2551,8 +2565,11 @@
       </c>
     </row>
     <row r="205" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="6" t="s">
+      <c r="B205" s="22" t="s">
         <v>169</v>
+      </c>
+      <c r="C205" s="25" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2561,60 +2578,60 @@
       </c>
     </row>
     <row r="207" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B207" s="6" t="s">
-        <v>171</v>
+      <c r="B207" s="17" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C208" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="209" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B210" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B211" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="212" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B212" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="213" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B213" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="C213" s="16" t="s">
         <v>353</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B214" s="17" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C214" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="215" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C215" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="216" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
@@ -2629,137 +2646,140 @@
     </row>
     <row r="220" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B220" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="221" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B221" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="222" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B222" s="22" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="222" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="6" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="223" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B223" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C223" s="25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="224" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B224" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B225" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B226" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B227" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B228" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="230" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="231" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="232" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B233" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B234" s="26" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="6" t="s">
-        <v>190</v>
+      <c r="C234" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="235" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="236" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="237" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B237" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B238" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="239" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B239" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C239" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B240" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C240" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C241" s="16" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="17" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C243" s="16" t="s">
         <v>367</v>
-      </c>
-      <c r="C243" s="16" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -2770,43 +2790,43 @@
     </row>
     <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="249" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B249" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2816,12 +2836,12 @@
     </row>
     <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2834,18 +2854,18 @@
     </row>
     <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -2855,22 +2875,22 @@
     </row>
     <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B265" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -2881,47 +2901,47 @@
     </row>
     <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B272" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B276" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B277" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -2932,33 +2952,33 @@
     </row>
     <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B283" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B284" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B285" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B286" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -2968,27 +2988,27 @@
     </row>
     <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B293" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B294" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -2999,64 +3019,64 @@
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B300" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B302" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B303" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B305" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B306" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B307" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B308" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -3066,32 +3086,32 @@
     </row>
     <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B315" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B316" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B317" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -3102,28 +3122,28 @@
     </row>
     <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B325" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -3133,38 +3153,38 @@
     </row>
     <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C328" s="5" t="s">
         <v>256</v>
-      </c>
-      <c r="C328" s="5" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="329" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C331" s="8" t="s">
         <v>260</v>
-      </c>
-      <c r="C331" s="8" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -3175,92 +3195,92 @@
     </row>
     <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B335" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B336" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="338" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B340" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C340" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B343" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B347" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="348" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B348" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B350" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B351" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B353" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -3270,12 +3290,12 @@
     </row>
     <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B355" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -3288,89 +3308,89 @@
     </row>
     <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B359" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B360" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B364" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B369" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B370" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B372" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -3380,52 +3400,52 @@
     </row>
     <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B385" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -3436,67 +3456,67 @@
     </row>
     <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B400" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -3506,18 +3526,18 @@
     </row>
     <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -3527,42 +3547,42 @@
     </row>
     <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B415" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
@@ -3573,78 +3593,78 @@
     </row>
     <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
@@ -3652,22 +3672,22 @@
     </row>
     <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B438" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B440" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B441" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3840,176 +3860,176 @@
     <hyperlink ref="B204" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
     <hyperlink ref="B205" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
     <hyperlink ref="B206" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B207" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
-    <hyperlink ref="B208" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B209" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B210" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B211" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B223" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B224" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B225" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B226" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B227" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B228" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B229" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B230" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B231" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B232" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B233" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B234" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B235" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B236" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B237" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B238" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B246" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B247" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B248" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B249" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B250" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B251" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B252" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B256" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B257" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B260" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B261" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B265" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B266" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B267" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B268" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B271" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B272" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B273" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B274" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B275" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B276" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B277" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B278" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B279" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B282" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B283" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B284" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B285" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B286" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B290" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B291" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B292" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B293" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B294" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B297" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B298" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B299" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B300" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B304" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B305" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B306" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B307" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B308" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B312" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B313" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B314" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B315" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B316" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B317" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B320" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B321" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B322" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B323" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B327" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B328" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C328" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B329" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B330" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C331" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B332" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B335" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B336" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B337" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B338" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B339" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B340" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C340" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B341" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B345" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B346" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B347" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B348" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B349" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B350" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B351" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B355" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B356" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B359" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B360" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B361" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B362" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B363" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B364" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B365" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B366" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B367" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B368" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B369" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B370" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B371" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B372" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B375" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B379" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B380" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B381" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B382" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B383" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B384" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B385" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B386" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B387" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B388" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B391" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B392" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B393" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B394" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B395" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B396" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B397" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B398" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B399" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B400" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B401" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B402" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B403" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B406" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B407" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B411" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B412" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B413" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B414" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B415" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B416" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B417" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B418" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B421" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B422" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B423" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B424" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B425" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B426" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B427" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B428" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B429" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B433" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B434" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B435" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B436" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B439" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B441" r:id="rId320" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B213" r:id="rId321" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B215" r:id="rId322" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B239" r:id="rId323" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B240" r:id="rId324" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B241" r:id="rId325" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B242" r:id="rId326" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B212" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B221" r:id="rId328" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B222" r:id="rId329" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B208" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B209" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B210" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B211" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B223" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B224" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B225" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B226" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B227" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B228" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B229" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B230" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B231" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B232" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B233" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B234" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B235" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B236" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B237" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B238" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B246" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B247" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B248" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B249" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B250" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B251" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B252" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B256" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B257" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B260" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B261" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B265" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B266" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B267" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B268" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B271" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B272" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B273" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B274" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="B275" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B276" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B277" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B278" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B279" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B282" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B283" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B284" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B285" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B286" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B290" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B291" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B292" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B293" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B294" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B297" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B298" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B299" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B300" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B304" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B305" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B306" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B307" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B308" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B312" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B313" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B314" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B315" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B316" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B317" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B320" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B321" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B322" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B323" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B327" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B328" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C328" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B329" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B330" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C331" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B332" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B335" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B336" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B337" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B338" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B339" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B340" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C340" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B341" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B345" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B346" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B347" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B348" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B349" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B350" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B351" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B355" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B356" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B359" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B360" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B361" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B362" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B363" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B364" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B365" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B366" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B367" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B368" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B369" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B370" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B371" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B372" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B375" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B379" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B380" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B381" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B382" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B383" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B384" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B385" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B386" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B387" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B388" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B391" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B392" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B393" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B394" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B395" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B396" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B397" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B398" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B399" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B400" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B401" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B402" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B403" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B406" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B407" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B411" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B412" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B413" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B414" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B415" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B416" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B417" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B418" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B421" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B422" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B423" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B424" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B425" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B426" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B427" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B428" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B429" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B433" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B434" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B435" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B436" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B439" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B441" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B213" r:id="rId320" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B215" r:id="rId321" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B239" r:id="rId322" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B240" r:id="rId323" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B241" r:id="rId324" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B242" r:id="rId325" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B212" r:id="rId326" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B221" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B222" r:id="rId328" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B207" r:id="rId329" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId330"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C6879A4-FEE8-49F3-A7BA-D871FC5D8344}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2312B033-161E-4749-8F78-DD8B061AF450}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="376">
   <si>
     <t>Arrays</t>
   </si>
@@ -1200,12 +1200,27 @@
   <si>
     <t>easy pesy</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array-ii/</t>
+  </si>
+  <si>
+    <t>this is kinda difficult try finding single line ans. No need of finding the pivoted point Need different cases and boom its as simple as the min finding or pivot finding technique.</t>
+  </si>
+  <si>
+    <t>to do v.v.imp</t>
+  </si>
+  <si>
+    <t>can do but we need a little bit of understanding of mountains</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1317,6 +1332,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1363,7 +1385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1401,6 +1423,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1620,10 +1644,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:D449"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A206" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D288" sqref="D288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2839,865 +2863,894 @@
         <v>202</v>
       </c>
     </row>
-    <row r="257" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B258" s="9"/>
     </row>
-    <row r="259" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B259" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="260" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="261" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="262" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="264" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="5" t="s">
+    <row r="265" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="6" t="s">
+    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B266" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="267" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="6" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="268" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B268" s="6" t="s">
+    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B268" s="28" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="269" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="4" t="s">
+      <c r="C268" s="25" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B270" s="6"/>
+    </row>
+    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B271" s="6"/>
+    </row>
+    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B273" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="271" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="6" t="s">
+    <row r="274" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B274" s="6" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="272" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="6" t="s">
+    <row r="275" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>374</v>
+      </c>
+      <c r="B275" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C275" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B276" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="273" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="6" t="s">
+    <row r="277" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B277" s="6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="274" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="6" t="s">
+    <row r="278" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B278" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="275" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B275" s="6" t="s">
+    <row r="279" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B279" s="6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="6" t="s">
+    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="6" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="277" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="6" t="s">
+    <row r="281" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B281" s="6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="278" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="6" t="s">
+    <row r="282" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B282" s="6" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="279" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="6" t="s">
+    <row r="283" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B283" s="6" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="280" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="4" t="s">
+    <row r="284" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="6"/>
+    </row>
+    <row r="286" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B287" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="282" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="6" t="s">
+    <row r="288" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B288" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="283" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="6" t="s">
+    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="6" t="s">
         <v>221</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="6" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="287" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="289" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="291" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B291" s="6" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="6" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B294" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B295" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="4" t="s">
-        <v>41</v>
+      <c r="B296" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="6" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="6" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="6" t="s">
-        <v>234</v>
+      <c r="B300" s="5" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="303" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="4" t="s">
-        <v>236</v>
+      <c r="B302" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B305" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B306" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B308" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
     <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="4" t="s">
-        <v>14</v>
+      <c r="B310" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B312" s="6" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B313" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B314" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B316" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B317" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B318" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B319" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="6" t="s">
+    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B320" s="6" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="6" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="5" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="6" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B326" s="4" t="s">
-        <v>1</v>
+      <c r="B325" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B329" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B331" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B332" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B333" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B334" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C328" s="5" t="s">
+      <c r="C334" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="329" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="6" t="s">
+    <row r="335" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B330" s="5" t="s">
+    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B331" s="20" t="s">
+    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B337" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C331" s="8" t="s">
+      <c r="C337" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="5" t="s">
+    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B338" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="4" t="s">
+    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B335" s="5" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B339" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C340" s="6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B342" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="3" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B344" s="4" t="s">
-        <v>271</v>
+      <c r="B343" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="6" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="5" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C346" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B349" s="3" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B350" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="6" t="s">
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B353" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B348" s="6" t="s">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B349" s="6" t="s">
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="5" t="s">
+    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="6" t="s">
+    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B357" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B353" s="3" t="s">
+    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B359" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B354" s="4" t="s">
+    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B360" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="5" t="s">
+    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B361" s="5" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="10"/>
-    </row>
-    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B358" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B361" s="6" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="6" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B363" s="6" t="s">
-        <v>286</v>
-      </c>
+      <c r="B363" s="10"/>
     </row>
     <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="6" t="s">
-        <v>287</v>
+      <c r="B364" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B366" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B369" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="5" t="s">
-        <v>293</v>
+      <c r="B370" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B372" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B373" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B374" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B375" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B376" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B377" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="6" t="s">
+    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B378" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B374" s="3" t="s">
+    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B380" s="3" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B383" s="6" t="s">
-        <v>303</v>
+      <c r="B383" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B384" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B389" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
     <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B390" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B390" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="6" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="6" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="5" t="s">
-        <v>313</v>
-      </c>
-    </row>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="5" t="s">
-        <v>314</v>
+      <c r="B396" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="6" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
     </row>
     <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="5" t="s">
-        <v>316</v>
+      <c r="B398" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B401" s="6" t="s">
-        <v>319</v>
+      <c r="B401" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="6" t="s">
-        <v>320</v>
+      <c r="B402" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B404" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B405" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B406" s="5" t="s">
-        <v>322</v>
+      <c r="B405" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B406" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B408" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
     <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="4" t="s">
-        <v>14</v>
+      <c r="B409" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B411" s="6" t="s">
-        <v>325</v>
+      <c r="B411" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="6" t="s">
-        <v>326</v>
+      <c r="B412" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B414" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="6" t="s">
-        <v>329</v>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B415" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="6" t="s">
-        <v>330</v>
+      <c r="B416" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="6" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>326</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B419" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
     <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B420" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B421" s="6" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B425" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B426" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="6" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
     </row>
     <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="6" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>334</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B430" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
     <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="4" t="s">
-        <v>342</v>
+      <c r="B431" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B432" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B437" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B438" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B439" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B440" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B441" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B436" s="12" t="s">
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B442" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="4"/>
-    </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B438" s="3" t="s">
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B443" s="4"/>
+    </row>
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="5" t="s">
+    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B445" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="3" t="s">
+    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B446" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="5" t="s">
+    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B443" s="3"/>
-    </row>
-    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B444" s="19"/>
-    </row>
     <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B449" s="19"/>
+      <c r="B449" s="3"/>
+    </row>
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="19"/>
+    </row>
+    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B455" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3895,143 +3948,144 @@
     <hyperlink ref="B266" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
     <hyperlink ref="B267" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
     <hyperlink ref="B268" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B271" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B272" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B273" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B274" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
-    <hyperlink ref="B275" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B276" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B277" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B278" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B279" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B282" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B283" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B284" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B285" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B286" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B290" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B291" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B292" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B293" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B294" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B297" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B298" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B299" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B300" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B304" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B305" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B306" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B307" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B308" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B312" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B313" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B314" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B315" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B316" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B317" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B320" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B321" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B322" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B323" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B327" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B328" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C328" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B329" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B330" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C331" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B332" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B335" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B336" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B337" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B338" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B339" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B340" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C340" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B341" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B345" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B346" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B347" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B348" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B349" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B350" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B351" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B355" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B356" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B359" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B360" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B361" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B362" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B363" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B364" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B365" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B366" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B367" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B368" r:id="rId266" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B369" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B370" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B371" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B372" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B375" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B379" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B380" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B381" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B382" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B383" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B384" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B385" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B386" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B387" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B388" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B391" r:id="rId282" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B392" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B393" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B394" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B395" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B396" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B397" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B398" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B399" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B400" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B401" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B402" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B403" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B406" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B407" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B411" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B412" r:id="rId298" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B413" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B414" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B415" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B416" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B417" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B418" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B421" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B422" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B423" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B424" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B425" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B426" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B427" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B428" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B429" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B433" r:id="rId314" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B434" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B435" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B436" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B439" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B441" r:id="rId319" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B213" r:id="rId320" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B215" r:id="rId321" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B239" r:id="rId322" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B240" r:id="rId323" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B241" r:id="rId324" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B242" r:id="rId325" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B212" r:id="rId326" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B221" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B222" r:id="rId328" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B207" r:id="rId329" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
+    <hyperlink ref="B274" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B276" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B277" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B279" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B280" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B281" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B282" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B283" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B288" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B289" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B290" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B291" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B292" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B296" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B297" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B298" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B299" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B300" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B303" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B304" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B305" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B306" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B310" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B311" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B312" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B313" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B314" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B318" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B319" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B320" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B321" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B322" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B323" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B326" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B327" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B328" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B329" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B333" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B334" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C334" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B335" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B336" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C337" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B338" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B341" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B342" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B343" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B344" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B345" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B346" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C346" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B347" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B351" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B352" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B353" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B354" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B355" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B356" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B357" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B361" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B362" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B365" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B366" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B367" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B368" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B369" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B370" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B371" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B372" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B373" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B374" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B375" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B376" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B377" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B378" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B381" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B385" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B386" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B387" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B388" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B389" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B390" r:id="rId276" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B391" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B392" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B393" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B394" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B397" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B398" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B399" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B400" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B401" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B402" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B403" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B404" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B405" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B406" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B407" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B408" r:id="rId292" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B409" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B412" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B413" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B417" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B418" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B419" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B420" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B421" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B422" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B423" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B424" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B427" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B428" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B429" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B430" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B431" r:id="rId308" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B432" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B433" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B434" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B435" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B439" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B440" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B441" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B442" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B445" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B447" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B213" r:id="rId319" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B215" r:id="rId320" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B239" r:id="rId321" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B240" r:id="rId322" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B241" r:id="rId323" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B242" r:id="rId324" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B212" r:id="rId325" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B221" r:id="rId326" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B222" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B207" r:id="rId328" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
+    <hyperlink ref="B278" r:id="rId329" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
+    <hyperlink ref="B275" r:id="rId330" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId330"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId331"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2312B033-161E-4749-8F78-DD8B061AF450}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97BA890B-712B-4509-8AEF-44A5AF94AE3E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="381">
   <si>
     <t>Arrays</t>
   </si>
@@ -1214,6 +1214,21 @@
   </si>
   <si>
     <t>can do but we need a little bit of understanding of mountains</t>
+  </si>
+  <si>
+    <t>take care of the edge cases</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-element-in-a-sorted-array/</t>
+  </si>
+  <si>
+    <t>a very good question on limits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-insert-position/</t>
+  </si>
+  <si>
+    <t>I used recursion here, how to implement binary search</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1439,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1646,8 +1661,8 @@
   </sheetPr>
   <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D288" sqref="D288"/>
+    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C279" sqref="C279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2920,7 +2935,11 @@
         <v>375</v>
       </c>
     </row>
-    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B269" s="22" t="s">
+        <v>379</v>
+      </c>
+    </row>
     <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B270" s="6"/>
     </row>
@@ -2955,8 +2974,11 @@
       </c>
     </row>
     <row r="277" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="6" t="s">
+      <c r="B277" s="14" t="s">
         <v>213</v>
+      </c>
+      <c r="C277" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="278" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2965,8 +2987,11 @@
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="6" t="s">
+      <c r="B279" s="22" t="s">
         <v>215</v>
+      </c>
+      <c r="C279" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2990,12 +3015,17 @@
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="14" t="s">
+      <c r="B284" s="17" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="6"/>
+      <c r="B285" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="C285" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="286" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="287" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4084,8 +4114,10 @@
     <hyperlink ref="B207" r:id="rId328" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
     <hyperlink ref="B278" r:id="rId329" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
     <hyperlink ref="B275" r:id="rId330" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
+    <hyperlink ref="B284" r:id="rId331" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
+    <hyperlink ref="B285" r:id="rId332" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId331"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId333"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97BA890B-712B-4509-8AEF-44A5AF94AE3E}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC530647-9E92-4A3F-9E9D-AA8BB235B5A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="382">
   <si>
     <t>Arrays</t>
   </si>
@@ -1230,12 +1230,15 @@
   <si>
     <t>I used recursion here, how to implement binary search</t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1354,6 +1357,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1400,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1440,6 +1450,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1661,8 +1672,8 @@
   </sheetPr>
   <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A258" zoomScale="94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C279" sqref="C279"/>
+    <sheetView tabSelected="1" topLeftCell="B258" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2941,7 +2952,9 @@
       </c>
     </row>
     <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="6"/>
+      <c r="B270" s="29" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="6"/>
@@ -3020,7 +3033,7 @@
       </c>
     </row>
     <row r="285" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="21" t="s">
+      <c r="B285" s="17" t="s">
         <v>377</v>
       </c>
       <c r="C285" t="s">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC530647-9E92-4A3F-9E9D-AA8BB235B5A4}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40C2EAD7-48E5-4C5F-B8D1-216DADFF7DC5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="387">
   <si>
     <t>Arrays</t>
   </si>
@@ -1233,12 +1233,27 @@
   <si>
     <t>https://leetcode.com/problems/find-smallest-letter-greater-than-target/</t>
   </si>
+  <si>
+    <t>tricky question yet easy</t>
+  </si>
+  <si>
+    <t>don’t know which type of sum is this. To use - sliding window with deque or not</t>
+  </si>
+  <si>
+    <t>beautiful, watched the sol and solved it by myself very beautiful using bs, take in mind the number of operations for each number. And you are done</t>
+  </si>
+  <si>
+    <t>we implement binary search tree</t>
+  </si>
+  <si>
+    <t>I will have to try this again this question is awesome</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1364,6 +1379,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1410,7 +1445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1449,8 +1484,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1672,8 +1709,8 @@
   </sheetPr>
   <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B258" zoomScale="105" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C286" sqref="C286"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B275" sqref="B275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2934,12 +2971,15 @@
       </c>
     </row>
     <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B267" s="6" t="s">
+      <c r="B267" s="26" t="s">
         <v>209</v>
       </c>
+      <c r="C267" s="25" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B268" s="28" t="s">
+      <c r="B268" s="26" t="s">
         <v>210</v>
       </c>
       <c r="C268" s="25" t="s">
@@ -2952,7 +2992,7 @@
       </c>
     </row>
     <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="29" t="s">
+      <c r="B270" s="28" t="s">
         <v>381</v>
       </c>
     </row>
@@ -3008,7 +3048,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="6" t="s">
+      <c r="B280" s="29" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3018,13 +3058,16 @@
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="6" t="s">
+      <c r="B282" s="22" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="283" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="6" t="s">
+      <c r="B283" s="14" t="s">
         <v>219</v>
+      </c>
+      <c r="C283" s="25" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="284" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -3047,78 +3090,87 @@
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="6" t="s">
+      <c r="B288" s="14" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="289" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="6" t="s">
+      <c r="C288" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B289" s="31" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="290" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C289" s="25" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="291" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="6" t="s">
+    <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B291" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="292" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="6" t="s">
+    <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="30" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="293" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C292" s="25" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B294" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="295" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B295" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B296" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="297" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B297" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="298" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="299" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="300" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B300" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="301" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B302" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B303" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="304" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="6" t="s">
         <v>232</v>
       </c>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40C2EAD7-48E5-4C5F-B8D1-216DADFF7DC5}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82562003-64E1-4580-8ACD-F728DF3D6E99}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="390">
   <si>
     <t>Arrays</t>
   </si>
@@ -1248,12 +1248,21 @@
   <si>
     <t>I will have to try this again this question is awesome</t>
   </si>
+  <si>
+    <t>using hasmap of string vector pair</t>
+  </si>
+  <si>
+    <t>nice one with bs</t>
+  </si>
+  <si>
+    <t>dp is required</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1389,12 +1398,6 @@
     <font>
       <u/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
       <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1486,8 +1489,8 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1709,8 +1712,8 @@
   </sheetPr>
   <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B275" sqref="B275"/>
+    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C291" sqref="C291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3006,8 +3009,11 @@
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="6" t="s">
+      <c r="B274" s="22" t="s">
         <v>211</v>
+      </c>
+      <c r="C274" s="25" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -3053,8 +3059,11 @@
       </c>
     </row>
     <row r="281" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="6" t="s">
+      <c r="B281" s="14" t="s">
         <v>217</v>
+      </c>
+      <c r="C281" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="282" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -3090,7 +3099,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="14" t="s">
+      <c r="B288" s="22" t="s">
         <v>220</v>
       </c>
       <c r="C288" t="s">
@@ -3108,6 +3117,9 @@
     <row r="290" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B290" s="6" t="s">
         <v>222</v>
+      </c>
+      <c r="C290" s="25" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82562003-64E1-4580-8ACD-F728DF3D6E99}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22373B79-4433-4C89-BCE9-77733830D567}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="397">
   <si>
     <t>Arrays</t>
   </si>
@@ -1256,6 +1256,27 @@
   </si>
   <si>
     <t>dp is required</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kadane's rule </t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-equal-subset-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-to-k-equal-sum-subsets/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-array-for-maximum-sum/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum/</t>
+  </si>
+  <si>
+    <t>this is continous so no dp.</t>
+  </si>
+  <si>
+    <t>this is fully dp</t>
   </si>
 </sst>
 </file>
@@ -1448,7 +1469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1491,6 +1512,7 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1710,10 +1732,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D455"/>
+  <dimension ref="A1:D460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A267" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C291" sqref="C291"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1979,8 +2001,11 @@
       </c>
     </row>
     <row r="57" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="24" t="s">
         <v>48</v>
+      </c>
+      <c r="C57" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -1997,1867 +2022,1897 @@
       </c>
     </row>
     <row r="60" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="6" t="s">
+    <row r="64" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="C64" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B65" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="C65" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B66" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="6" t="s">
+    <row r="69" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="6" t="s">
+    <row r="70" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B70" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="6" t="s">
+    <row r="71" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B71" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="6" t="s">
+    <row r="72" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B72" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="6" t="s">
+    <row r="73" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B73" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="6" t="s">
+    <row r="74" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B74" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
+    <row r="75" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B75" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
+    <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
+    <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B77" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
+    <row r="78" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="74" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
+    <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B79" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
+    <row r="80" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B80" s="6" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
-        <v>72</v>
+      <c r="B84" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B93" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="3" t="s">
-        <v>83</v>
+      <c r="B96" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B97" s="4" t="s">
-        <v>1</v>
+      <c r="B97" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B101" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B102" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B104" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
-        <v>93</v>
+      <c r="B109" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B110" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B111" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B112" s="5" t="s">
-        <v>96</v>
+      <c r="B112" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B117" s="4" t="s">
-        <v>41</v>
+      <c r="B117" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B118" s="5" t="s">
-        <v>100</v>
+      <c r="B118" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B119" s="5" t="s">
-        <v>101</v>
+      <c r="B119" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B123" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B124" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B121" s="6" t="s">
+    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B122" s="6" t="s">
+    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
+    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="5" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="5" t="s">
-        <v>111</v>
+      <c r="B131" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B132" s="5" t="s">
-        <v>112</v>
+      <c r="B132" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B134" s="5" t="s">
-        <v>114</v>
+      <c r="B134" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B138" s="4" t="s">
-        <v>14</v>
+      <c r="B138" s="5" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B142" s="5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="5" t="s">
-        <v>121</v>
+      <c r="B143" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B147" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B148" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B149" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B150" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B147" s="4" t="s">
+    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B152" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B148" s="6" t="s">
+    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B153" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B149" s="6" t="s">
+    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B154" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B150" s="6" t="s">
+    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B151" s="6" t="s">
+    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B156" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="3" t="s">
+    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B158" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="4" t="s">
+    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B159" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="7" t="s">
+    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B160" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B157" s="4" t="s">
+    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B158" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B159" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B160" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B161" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B162" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="5" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B165" s="6" t="s">
-        <v>138</v>
+      <c r="B165" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="4" t="s">
-        <v>41</v>
+      <c r="B167" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B170" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B169" s="6" t="s">
+    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B176" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="5" t="s">
-        <v>146</v>
+      <c r="B177" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="5" t="s">
-        <v>147</v>
+      <c r="B178" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B181" s="8" t="s">
-        <v>150</v>
+      <c r="B181" s="5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="5" t="s">
-        <v>151</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B184" s="4" t="s">
-        <v>41</v>
+      <c r="B184" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B186" s="5" t="s">
-        <v>153</v>
+      <c r="B186" s="8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B187" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B188" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B189" s="5" t="s">
-        <v>156</v>
+      <c r="B189" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B194" s="3" t="s">
+    <row r="199" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B199" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B195" s="4" t="s">
+    <row r="200" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B200" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="22" t="s">
+    <row r="201" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B201" s="22" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="197" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B197" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="198" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="199" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="200" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B200" s="5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="201" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B201" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="202" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="203" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B203" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C203" t="s">
-        <v>362</v>
+      <c r="B203" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="204" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B204" s="15" t="s">
-        <v>168</v>
+      <c r="B204" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="205" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="C205" s="25" t="s">
-        <v>369</v>
+      <c r="B205" s="5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="206" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="207" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B207" s="17" t="s">
-        <v>368</v>
+      <c r="B207" s="6" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="208" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C208" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B209" s="15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B210" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C210" s="25" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B212" s="17" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B213" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C213" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="5" t="s">
+    <row r="214" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="6" t="s">
+    <row r="215" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B215" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B211" s="15" t="s">
+    <row r="216" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B216" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="15" t="s">
+    <row r="217" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B217" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="17" t="s">
+    <row r="218" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B218" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C213" s="16" t="s">
+      <c r="C218" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="214" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="17" t="s">
+    <row r="219" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B219" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C214" s="18" t="s">
+      <c r="C219" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B215" s="17" t="s">
+    <row r="220" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C215" s="16" t="s">
+      <c r="C220" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="216" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D216" s="16"/>
-    </row>
-    <row r="217" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="4" t="s">
+    <row r="221" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D221" s="16"/>
+    </row>
+    <row r="222" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B224" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="24" t="s">
+    <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B225" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="221" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="5" t="s">
+    <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="222" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="22" t="s">
+    <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="223" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="14" t="s">
+    <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B228" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C223" s="25" t="s">
+      <c r="C228" s="25" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="224" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="22" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="230" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="231" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B231" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="232" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B232" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="6" t="s">
-        <v>188</v>
+      <c r="B233" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C234" s="25" t="s">
-        <v>370</v>
+      <c r="B234" s="6" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="235" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B235" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="236" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B236" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="237" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B237" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B238" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B239" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C239" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B240" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B241" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B242" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B243" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="239" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="21" t="s">
+    <row r="244" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C239" s="16" t="s">
+      <c r="C244" s="16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="21" t="s">
+    <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B245" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C240" s="16" t="s">
+      <c r="C245" s="16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="23" t="s">
+    <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B246" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C241" s="16" t="s">
+      <c r="C246" s="16" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="17" t="s">
+    <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B247" s="17" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="17" t="s">
+    <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B248" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C243" s="16" t="s">
+      <c r="C248" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="4" t="s">
+    <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B250" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B246" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B247" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B249" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B250" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B253" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="4" t="s">
-        <v>1</v>
+      <c r="B255" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="6" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="9"/>
-    </row>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="4" t="s">
-        <v>14</v>
+      <c r="B259" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="6" t="s">
-        <v>204</v>
+      <c r="B260" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="3" t="s">
-        <v>206</v>
-      </c>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B262" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="9"/>
     </row>
     <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B265" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B266" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B268" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B269" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="15" t="s">
+    <row r="270" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B270" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="22" t="s">
+    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B271" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B267" s="26" t="s">
+    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B272" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C267" s="25" t="s">
+      <c r="C272" s="25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B268" s="26" t="s">
+    <row r="273" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B273" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C268" s="25" t="s">
+      <c r="C273" s="25" t="s">
         <v>375</v>
-      </c>
-    </row>
-    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B269" s="22" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="6"/>
-    </row>
-    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="274" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C274" s="25" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
     </row>
     <row r="275" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>374</v>
-      </c>
-      <c r="B275" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C275" s="25" t="s">
-        <v>373</v>
+      <c r="B275" s="28" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="276" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="277" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="C277" t="s">
-        <v>380</v>
-      </c>
-    </row>
+      <c r="B276" s="6"/>
+    </row>
+    <row r="277" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="278" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="17" t="s">
-        <v>214</v>
+      <c r="B278" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C279" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>374</v>
+      </c>
+      <c r="B280" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C280" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B281" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B282" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="C282" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B283" s="17" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C284" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="29" t="s">
+    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="14" t="s">
+    <row r="286" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B286" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C286" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="22" t="s">
+    <row r="287" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B287" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="14" t="s">
+    <row r="288" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B288" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C283" s="25" t="s">
+      <c r="C288" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="17" t="s">
+    <row r="289" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B289" s="17" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="17" t="s">
+    <row r="290" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B290" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C290" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="4" t="s">
+    <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="22" t="s">
+    <row r="293" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C293" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="289" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="31" t="s">
+    <row r="294" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C289" s="25" t="s">
+      <c r="C294" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="290" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="6" t="s">
+    <row r="295" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B295" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C290" s="25" t="s">
+      <c r="C295" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="22" t="s">
+    <row r="296" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="30" t="s">
+    <row r="297" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B297" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C292" s="25" t="s">
+      <c r="C297" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="293" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="3" t="s">
+    <row r="298" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B299" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="295" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="4" t="s">
+    <row r="300" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="296" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="6" t="s">
+    <row r="301" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="297" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="6" t="s">
+    <row r="302" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="298" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="6" t="s">
+    <row r="303" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B303" s="6" t="s">
         <v>228</v>
-      </c>
-    </row>
-    <row r="299" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="6" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="300" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="301" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="304" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B305" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B307" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="6" t="s">
         <v>232</v>
-      </c>
-    </row>
-    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="6" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="4" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B311" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B313" s="3" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B314" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B315" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="6" t="s">
+    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="6" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B312" s="6" t="s">
+    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B317" s="6" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B318" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B319" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B321" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B322" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B323" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B324" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B320" s="6" t="s">
+    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B325" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B321" s="6" t="s">
+    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B326" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B322" s="6" t="s">
+    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B327" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="6" t="s">
+    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B328" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="4" t="s">
+    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B330" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="326" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="5" t="s">
+    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B331" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B327" s="6" t="s">
+    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B332" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B328" s="6" t="s">
+    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B333" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="329" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B329" s="6" t="s">
+    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B334" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B331" s="3" t="s">
+    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="4" t="s">
+    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B337" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B333" s="6" t="s">
+    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B338" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="6" t="s">
+    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B339" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C334" s="5" t="s">
+      <c r="C339" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="335" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="6" t="s">
+    <row r="340" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C337" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B338" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B341" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B342" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C342" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B345" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B346" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="6" t="s">
+    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="6" t="s">
+    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B348" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="344" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="6" t="s">
+    <row r="349" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B349" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B345" s="5" t="s">
+    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B350" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B346" s="6" t="s">
+    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C346" s="6" t="s">
+      <c r="C351" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="5" t="s">
+    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B349" s="3" t="s">
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B354" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="4" t="s">
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="4" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B353" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B354" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="6" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B356" s="5" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B357" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="3" t="s">
-        <v>279</v>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B358" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="4" t="s">
-        <v>1</v>
+      <c r="B360" s="6" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B362" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B363" s="10"/>
-    </row>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="4" t="s">
-        <v>14</v>
+      <c r="B364" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="6" t="s">
-        <v>282</v>
+      <c r="B365" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="6" t="s">
-        <v>283</v>
+      <c r="B366" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="6" t="s">
-        <v>285</v>
-      </c>
+      <c r="B368" s="10"/>
     </row>
     <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="6" t="s">
-        <v>286</v>
+      <c r="B369" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B370" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="6" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="6" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="5" t="s">
-        <v>293</v>
+      <c r="B376" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B378" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B379" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B380" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B381" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B382" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="378" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B378" s="6" t="s">
+    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="3" t="s">
+    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B385" s="3" t="s">
         <v>296</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B383" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B384" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B385" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B387" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B388" s="6" t="s">
-        <v>302</v>
+      <c r="B388" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B389" s="6" t="s">
-        <v>303</v>
+      <c r="B389" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="4" t="s">
-        <v>14</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B395" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B401" s="5" t="s">
-        <v>313</v>
+      <c r="B401" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="5" t="s">
-        <v>314</v>
+      <c r="B402" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B404" s="5" t="s">
-        <v>316</v>
+      <c r="B404" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B406" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B407" s="6" t="s">
-        <v>319</v>
+      <c r="B407" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="6" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="6" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B411" s="4" t="s">
-        <v>41</v>
+      <c r="B409" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B410" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="5" t="s">
-        <v>322</v>
+      <c r="B412" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B415" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B414" s="6" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="4" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="6" t="s">
-        <v>325</v>
+      <c r="B417" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" s="6" t="s">
-        <v>329</v>
+      <c r="B420" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B421" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B426" s="4" t="s">
-        <v>41</v>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B425" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B426" s="6" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="6" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
     </row>
     <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="6" t="s">
-        <v>335</v>
-      </c>
-    </row>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="432" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="6" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="3" t="s">
-        <v>341</v>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B436" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="6" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B438" s="4" t="s">
-        <v>342</v>
+      <c r="B438" s="6" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="6" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B442" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B443" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B444" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B445" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B441" s="6" t="s">
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B446" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B442" s="12" t="s">
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B447" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="4"/>
-    </row>
-    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B444" s="3" t="s">
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B448" s="4"/>
+    </row>
+    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B449" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="445" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B445" s="5" t="s">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B446" s="3" t="s">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B447" s="5" t="s">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B452" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B449" s="3"/>
-    </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="19"/>
+    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="3"/>
     </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B455" s="19"/>
+    </row>
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3908,293 +3963,295 @@
     <hyperlink ref="B58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B59" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="C59" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B60" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B63" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B64" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B65" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B66" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B67" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B68" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B69" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B70" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B71" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B72" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B73" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B74" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B75" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B76" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B77" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B80" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B81" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B82" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B83" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B84" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B85" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B86" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B87" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B88" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B89" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B90" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B91" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B92" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B93" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B94" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B98" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B99" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B100" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B101" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B102" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B105" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B106" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B107" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B108" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B109" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B110" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B111" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B112" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B113" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B114" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B115" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B118" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B119" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B120" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B121" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B122" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B123" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B124" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B128" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B129" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B130" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B131" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B132" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B133" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B134" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B135" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B136" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B139" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B140" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B141" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B142" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B143" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B144" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B145" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B148" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B149" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B150" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B151" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B158" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B159" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B160" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B161" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B162" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B163" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B164" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B165" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B168" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B169" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B170" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B174" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B175" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B176" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B177" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B178" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B179" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B180" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B181" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B182" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B185" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B186" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B187" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B188" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B189" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B190" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B191" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B192" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B196" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B197" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B198" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B199" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B200" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B201" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B202" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B204" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B205" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B206" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B208" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B209" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B210" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B211" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B223" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B224" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B225" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B226" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B227" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B228" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B229" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B230" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B231" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B232" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B233" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B234" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B235" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B236" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B237" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B238" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B246" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B247" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B248" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B249" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B250" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B251" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B252" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B256" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B257" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B260" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B261" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B265" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B266" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B267" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B268" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B274" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B276" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B277" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B279" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B280" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B281" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B282" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B283" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B288" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B289" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B290" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B291" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B292" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B296" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B297" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B298" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B299" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B300" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B303" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B304" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B305" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B306" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B310" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B311" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B312" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B313" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B314" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B318" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B319" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B320" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B321" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B322" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B323" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B326" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B327" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B328" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B329" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B333" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B334" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C334" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B335" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B336" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C337" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B338" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B341" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B342" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B343" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B344" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B345" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B346" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C346" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B347" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B351" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B352" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B353" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B354" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B355" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B356" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B357" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B361" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B362" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B365" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B366" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B367" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B368" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B369" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B370" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B371" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B372" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B373" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B374" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B375" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B376" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B377" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B378" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B381" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B385" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B386" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B387" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B388" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B389" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B390" r:id="rId276" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B391" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B392" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B393" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B394" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B397" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B398" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B399" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B400" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B401" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B402" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B403" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B404" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B405" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B406" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B407" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B408" r:id="rId292" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B409" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B412" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B413" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B417" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B418" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B419" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B420" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B421" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B422" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B423" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B424" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B427" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B428" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B429" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B430" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B431" r:id="rId308" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B432" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B433" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B434" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B435" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B439" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B440" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B441" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B442" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B445" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B447" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B213" r:id="rId319" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B215" r:id="rId320" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B239" r:id="rId321" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B240" r:id="rId322" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B241" r:id="rId323" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B242" r:id="rId324" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B212" r:id="rId325" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B221" r:id="rId326" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B222" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B207" r:id="rId328" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
-    <hyperlink ref="B278" r:id="rId329" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
-    <hyperlink ref="B275" r:id="rId330" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
-    <hyperlink ref="B284" r:id="rId331" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
-    <hyperlink ref="B285" r:id="rId332" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
+    <hyperlink ref="B61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="B68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B71" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B72" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B73" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B74" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B75" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B76" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B80" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B81" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B87" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B94" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B95" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B98" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B99" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B104" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B110" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B111" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B112" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B113" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B114" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B115" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B116" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B117" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B118" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B119" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B120" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B123" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B124" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B125" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B126" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B129" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B133" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B134" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B135" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B136" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B137" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B138" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B139" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B140" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B141" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B144" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B145" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B146" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B147" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B148" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B149" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B150" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B153" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B154" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B155" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B156" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B163" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B164" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B165" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B166" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B167" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B168" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B169" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B170" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B173" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B174" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B175" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B179" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B180" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B181" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B182" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B183" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B184" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B185" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B186" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B187" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B190" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B191" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B192" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B193" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B194" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B195" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B196" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B197" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B201" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B202" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B203" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B204" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B205" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B206" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B207" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B209" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B210" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B211" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B213" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B214" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B215" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B216" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B228" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B229" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B230" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B231" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B232" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B233" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B234" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B235" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B236" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B237" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B238" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B239" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B240" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B241" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B242" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B243" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B251" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B252" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B253" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B254" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B255" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B256" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B257" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B261" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B262" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B265" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B266" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B270" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B271" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B272" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B273" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B279" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B281" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B282" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B284" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B285" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B286" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B287" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B288" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B293" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B294" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B295" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B296" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B297" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B301" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B302" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B303" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B304" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B305" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B308" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B309" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B310" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B311" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B315" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B316" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B317" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B318" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B319" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B323" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B324" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B325" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B326" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B327" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B328" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B331" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B332" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B333" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B334" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B338" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B339" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C339" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B340" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B341" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C342" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B343" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B346" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B347" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B348" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B349" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B350" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B351" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C351" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B352" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B356" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B357" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B358" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B359" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B360" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B361" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B362" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B366" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B367" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B370" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B371" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B372" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B373" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B374" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B375" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B376" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B377" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B378" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B379" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B380" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B381" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B382" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B383" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B386" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B390" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B391" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B392" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B393" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B394" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B395" r:id="rId276" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B396" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B397" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B398" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B399" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B402" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B403" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B404" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B405" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B406" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B407" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B408" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B409" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B410" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B411" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B412" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B413" r:id="rId292" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B414" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B417" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B418" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B422" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B423" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B424" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B425" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B426" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B427" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B428" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B429" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B432" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B433" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B434" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B435" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B436" r:id="rId308" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B437" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B438" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B439" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B440" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B444" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B445" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B446" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B447" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B450" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B452" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B218" r:id="rId319" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B220" r:id="rId320" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B244" r:id="rId321" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B245" r:id="rId322" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B246" r:id="rId323" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B247" r:id="rId324" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B217" r:id="rId325" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B226" r:id="rId326" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B227" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B212" r:id="rId328" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
+    <hyperlink ref="B283" r:id="rId329" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
+    <hyperlink ref="B280" r:id="rId330" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
+    <hyperlink ref="B289" r:id="rId331" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
+    <hyperlink ref="B290" r:id="rId332" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
+    <hyperlink ref="B64" r:id="rId333" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
+    <hyperlink ref="B66" r:id="rId334" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId333"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId335"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22373B79-4433-4C89-BCE9-77733830D567}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62FD74B4-E770-49D2-8BC0-EB688A4E01D0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="398">
   <si>
     <t>Arrays</t>
   </si>
@@ -1277,6 +1277,9 @@
   </si>
   <si>
     <t>this is fully dp</t>
+  </si>
+  <si>
+    <t>use single array to store the initial problem</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1737,8 @@
   </sheetPr>
   <dimension ref="A1:D460"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2028,8 +2031,11 @@
       <c r="C60" s="5"/>
     </row>
     <row r="61" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="15" t="s">
         <v>52</v>
+      </c>
+      <c r="C61" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62FD74B4-E770-49D2-8BC0-EB688A4E01D0}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015F8586-D3E6-4BA0-B29B-532DD7F7C959}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="400">
   <si>
     <t>Arrays</t>
   </si>
@@ -1273,13 +1273,19 @@
     <t>https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum/</t>
   </si>
   <si>
-    <t>this is continous so no dp.</t>
-  </si>
-  <si>
     <t>this is fully dp</t>
   </si>
   <si>
     <t>use single array to store the initial problem</t>
+  </si>
+  <si>
+    <t>use back tracking</t>
+  </si>
+  <si>
+    <t>use prefix sum technique</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition/</t>
   </si>
 </sst>
 </file>
@@ -1472,7 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1516,6 +1522,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1738,7 +1745,7 @@
   <dimension ref="A1:D460"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2004,7 +2011,7 @@
       </c>
     </row>
     <row r="57" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="26" t="s">
         <v>48</v>
       </c>
       <c r="C57" t="s">
@@ -2025,17 +2032,19 @@
       </c>
     </row>
     <row r="60" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C60" s="5"/>
+      <c r="C60" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="61" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B61" s="15" t="s">
         <v>52</v>
       </c>
       <c r="C61" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2048,15 +2057,15 @@
         <v>391</v>
       </c>
       <c r="C64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="33" t="s">
         <v>392</v>
       </c>
-      <c r="C65" t="s">
-        <v>395</v>
+      <c r="C65" s="25" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2064,9 +2073,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-    </row>
+    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="68" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>53</v>
@@ -3153,7 +3160,11 @@
         <v>378</v>
       </c>
     </row>
-    <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B291" s="6" t="s">
+        <v>399</v>
+      </c>
+    </row>
     <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="4" t="s">
         <v>41</v>
@@ -4256,8 +4267,10 @@
     <hyperlink ref="B290" r:id="rId332" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
     <hyperlink ref="B64" r:id="rId333" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
     <hyperlink ref="B66" r:id="rId334" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
+    <hyperlink ref="B65" r:id="rId335" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
+    <hyperlink ref="B60" r:id="rId336" xr:uid="{D1C5FD50-B888-454C-A7C2-CD17B99EF072}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId335"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId337"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adris\OneDrive\Desktop\myDSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="11_3A057C0BE92A3E6736330E251CF58AC5C01E7902" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{015F8586-D3E6-4BA0-B29B-532DD7F7C959}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="401">
   <si>
     <t>Arrays</t>
   </si>
@@ -1286,6 +1286,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-k-closest-elements/</t>
   </si>
 </sst>
 </file>
@@ -1478,7 +1481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1523,6 +1526,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1742,10 +1746,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D460"/>
+  <dimension ref="A1:D461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3049,7 +3053,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B273" s="26" t="s">
         <v>210</v>
       </c>
@@ -3057,26 +3061,27 @@
         <v>375</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B276" s="6"/>
-    </row>
-    <row r="277" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D276" s="34"/>
+    </row>
+    <row r="277" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B279" s="22" t="s">
         <v>211</v>
       </c>
@@ -3084,7 +3089,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>374</v>
       </c>
@@ -3095,12 +3100,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B281" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="14" t="s">
         <v>213</v>
       </c>
@@ -3108,12 +3113,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B283" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B284" s="22" t="s">
         <v>215</v>
       </c>
@@ -3121,12 +3126,12 @@
         <v>376</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B286" s="14" t="s">
         <v>217</v>
       </c>
@@ -3134,12 +3139,12 @@
         <v>388</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B287" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="14" t="s">
         <v>219</v>
       </c>
@@ -3161,775 +3166,780 @@
       </c>
     </row>
     <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="6" t="s">
+      <c r="B291" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="6" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="4" t="s">
+    <row r="293" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="293" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="22" t="s">
+    <row r="294" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B294" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C294" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="294" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="31" t="s">
+    <row r="295" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C294" s="25" t="s">
+      <c r="C295" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="295" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="6" t="s">
+    <row r="296" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C295" s="25" t="s">
+      <c r="C296" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="296" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="22" t="s">
+    <row r="297" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B297" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="297" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="30" t="s">
+    <row r="298" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B298" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C297" s="25" t="s">
+      <c r="C298" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="298" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="3" t="s">
+    <row r="299" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="300" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="4" t="s">
+    <row r="301" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="301" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="6" t="s">
+    <row r="302" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B302" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="302" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="6" t="s">
+    <row r="303" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B303" s="6" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="303" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="304" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B304" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B305" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="5" t="s">
+    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B306" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="4" t="s">
+    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B308" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="308" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="6" t="s">
+    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="6" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="309" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B310" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B311" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B312" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="3" t="s">
+    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B314" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="4" t="s">
+    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B315" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="6" t="s">
+    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B316" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="316" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="6" t="s">
+    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B317" s="6" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B318" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B319" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B320" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B321" s="3" t="s">
+    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B322" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B322" s="4" t="s">
+    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B323" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B324" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B325" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B325" s="6" t="s">
+    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B326" s="6" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B326" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B329" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B330" s="4" t="s">
+    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B331" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="331" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B331" s="5" t="s">
+    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B332" s="5" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B335" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="3" t="s">
+    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B337" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="4" t="s">
+    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B338" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B338" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C339" s="5" t="s">
+      <c r="C340" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="340" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B340" s="6" t="s">
+    <row r="341" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B341" s="5" t="s">
+    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B342" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="20" t="s">
+    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C342" s="8" t="s">
+      <c r="C343" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="5" t="s">
+    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B344" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B345" s="4" t="s">
+    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B346" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B346" s="5" t="s">
+    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="5" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B348" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B349" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="349" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B349" s="6" t="s">
+    <row r="350" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B350" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="5" t="s">
+    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="6" t="s">
+    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C352" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="5" t="s">
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B353" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B354" s="3" t="s">
+    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="4" t="s">
+    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="5" t="s">
+    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B357" s="5" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B358" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B359" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="359" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="6" t="s">
+    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="6" t="s">
+    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B361" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B361" s="5" t="s">
+    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B362" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B362" s="6" t="s">
+    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B363" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="3" t="s">
+    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B365" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="4" t="s">
+    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B366" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="5" t="s">
+    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B367" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="6" t="s">
+    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B368" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="10"/>
-    </row>
     <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="4" t="s">
+      <c r="B369" s="10"/>
+    </row>
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B370" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B374" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B375" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B376" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B380" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="380" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B380" s="6" t="s">
+    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B381" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="5" t="s">
+    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B382" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="6" t="s">
+    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B383" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="383" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="6" t="s">
+    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B384" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B385" s="3" t="s">
+    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B386" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B386" s="6" t="s">
+    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B387" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B388" s="3" t="s">
+    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B389" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B389" s="11" t="s">
+    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B390" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B390" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B393" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B396" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="6" t="s">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="6" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B397" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B398" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B400" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B401" s="4" t="s">
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B402" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B406" s="6" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B406" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B408" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B408" s="6" t="s">
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B409" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="5" t="s">
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B410" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="6" t="s">
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B411" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="6" t="s">
+    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B412" s="6" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B415" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="4" t="s">
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B417" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="5" t="s">
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B418" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B418" s="6" t="s">
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B419" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="3" t="s">
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B421" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B421" s="4" t="s">
+    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B422" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B422" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B426" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="6" t="s">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="6" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B427" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B430" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="4" t="s">
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B432" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B436" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B436" s="5" t="s">
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B437" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B437" s="6" t="s">
+    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B438" s="6" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B438" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B441" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B442" s="3" t="s">
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B443" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="4" t="s">
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B444" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B447" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="12" t="s">
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B448" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B448" s="4"/>
-    </row>
-    <row r="449" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B449" s="3" t="s">
+    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B449" s="4"/>
+    </row>
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="5" t="s">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B451" s="3" t="s">
+    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B452" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B452" s="5" t="s">
+    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B453" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B454" s="3"/>
-    </row>
     <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="19"/>
-    </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B460" s="19"/>
+      <c r="B455" s="3"/>
+    </row>
+    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B456" s="19"/>
+    </row>
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4135,122 +4145,122 @@
     <hyperlink ref="B286" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
     <hyperlink ref="B287" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
     <hyperlink ref="B288" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B293" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B294" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B295" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B296" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B297" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B301" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B302" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B303" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B304" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B305" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B308" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B309" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B310" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B311" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B315" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B316" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B317" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B318" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B319" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B323" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B324" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B325" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B326" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B327" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B328" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B331" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B332" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B333" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B334" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B338" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B339" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C339" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B340" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B341" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C342" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B343" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B346" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B347" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B348" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B349" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B350" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B351" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C351" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B352" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B356" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B357" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B358" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B359" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B360" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B361" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B362" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B366" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B367" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B370" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B371" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B372" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B373" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B374" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B375" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B376" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B377" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B378" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B379" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B380" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B381" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B382" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B383" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B386" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B390" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B391" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B392" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B393" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B394" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B395" r:id="rId276" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B396" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B397" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B398" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B399" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B402" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B403" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B404" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B405" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B406" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B407" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B408" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B409" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B410" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B411" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B412" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B413" r:id="rId292" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B414" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B417" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B418" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B422" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B423" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B424" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B425" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B426" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B427" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B428" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B429" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B432" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B433" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B434" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B435" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B436" r:id="rId308" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B437" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B438" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B439" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B440" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B444" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B445" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B446" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B447" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B450" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B452" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B294" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B295" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B296" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B297" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B298" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B302" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B303" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B304" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B305" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B306" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B309" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B310" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B311" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B312" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B316" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B317" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B318" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B319" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B320" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B324" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B325" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B326" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B327" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B328" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B329" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B332" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B333" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B334" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B335" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B339" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B340" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C340" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B341" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B342" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C343" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B344" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B347" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B348" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B349" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B350" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B351" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B352" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C352" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B353" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B357" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B358" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B359" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B360" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B361" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B362" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B363" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B367" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B368" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B371" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B372" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B373" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B374" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B375" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B376" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B377" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B378" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B379" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B380" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B381" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B382" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B383" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B384" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B387" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B391" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B392" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B393" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B394" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B395" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B396" r:id="rId276" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B397" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B398" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B399" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B400" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B403" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B404" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B405" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B406" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B407" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B408" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B409" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B410" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B411" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B412" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B413" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B414" r:id="rId292" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B415" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B418" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B419" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B423" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B424" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B425" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B426" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B427" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B428" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B429" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B430" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B433" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B434" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B435" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B436" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B437" r:id="rId308" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B438" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B439" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B440" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B441" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B445" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B446" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B447" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B448" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B451" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B453" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
     <hyperlink ref="B218" r:id="rId319" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
     <hyperlink ref="B220" r:id="rId320" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
     <hyperlink ref="B244" r:id="rId321" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adris\OneDrive\Desktop\myDSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD3AD55-46F7-40CC-AC29-6A3CF1F22269}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="402">
   <si>
     <t>Arrays</t>
   </si>
@@ -1289,6 +1289,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-k-closest-elements/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/target-sum/</t>
   </si>
 </sst>
 </file>
@@ -1748,8 +1751,8 @@
   </sheetPr>
   <dimension ref="A1:D461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A269" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A285" sqref="A285"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2080,11 @@
         <v>393</v>
       </c>
     </row>
-    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B67" s="17" t="s">
+        <v>401</v>
+      </c>
+    </row>
     <row r="68" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>53</v>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD3AD55-46F7-40CC-AC29-6A3CF1F22269}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCA899C-5B61-4461-9F20-07717895A474}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="409">
   <si>
     <t>Arrays</t>
   </si>
@@ -1273,15 +1273,9 @@
     <t>https://leetcode.com/problems/partition-array-into-three-parts-with-equal-sum/</t>
   </si>
   <si>
-    <t>this is fully dp</t>
-  </si>
-  <si>
     <t>use single array to store the initial problem</t>
   </si>
   <si>
-    <t>use back tracking</t>
-  </si>
-  <si>
     <t>use prefix sum technique</t>
   </si>
   <si>
@@ -1292,13 +1286,40 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/target-sum/</t>
+  </si>
+  <si>
+    <t>Count number of subset with given difference - Same as Target Sum</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/0-1-knapsack-problem-dp-10/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/subset-sum-problem-dp-25/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/partition-problem-dp-18/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/count-of-subsets-with-sum-equal-to-x/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/partition-a-set-into-two-subsets-such-that-the-difference-of-subset-sums-is-minimum/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/unbounded-knapsack-repetition-items-allowed/</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/cutting-a-rod-dp-13/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/count-vowels-permutation/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1438,6 +1459,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1484,7 +1511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1528,8 +1555,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1749,10 +1778,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D461"/>
+  <dimension ref="A1:D470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B300" sqref="B300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1982,1059 +2011,1060 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B49" s="14" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B50" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="51" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B51" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B52" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B53" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="55" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="56" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B56" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B57" s="26" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B58" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B59" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B60" s="26" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B62" s="15" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="26" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B64" s="17" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B65" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C65" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="58" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B58" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+    <row r="66" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B66" s="21" t="s">
         <v>394</v>
       </c>
-      <c r="C60" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="61" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="15" t="s">
+      <c r="C66" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B67" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C61" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="17" t="s">
-        <v>391</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="C67" t="s">
         <v>395</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="C65" s="25" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="32" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="17" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B69" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="6" t="s">
-        <v>56</v>
+      <c r="B70" s="36" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="6" t="s">
-        <v>57</v>
+      <c r="B72" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="6" t="s">
-        <v>58</v>
+      <c r="B73" s="17" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="B74" s="17" t="s">
+        <v>399</v>
+      </c>
+      <c r="C74" s="25"/>
     </row>
     <row r="75" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="6" t="s">
-        <v>60</v>
+      <c r="B75" s="32" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="6" t="s">
-        <v>61</v>
+      <c r="B76" s="34" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B77" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
-        <v>63</v>
+      <c r="B78" s="32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B79" s="6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B81" s="6" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B82" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="4" t="s">
-        <v>41</v>
+      <c r="B84" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B85" s="6" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B86" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B87" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B88" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B93" s="6" t="s">
-        <v>76</v>
+      <c r="B93" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B94" s="6" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B95" s="6" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>82</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="3" t="s">
-        <v>83</v>
+      <c r="B101" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="4" t="s">
-        <v>1</v>
+      <c r="B102" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B109" s="4" t="s">
-        <v>14</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
-        <v>89</v>
+      <c r="B110" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>90</v>
+      <c r="B111" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B112" s="6" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B117" s="5" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B118" s="6" t="s">
-        <v>97</v>
+      <c r="B118" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B119" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>99</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B121" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B122" s="4" t="s">
-        <v>41</v>
+      <c r="B122" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B123" s="5" t="s">
-        <v>100</v>
+      <c r="B123" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="5" t="s">
-        <v>101</v>
+      <c r="B124" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="6" t="s">
-        <v>103</v>
+      <c r="B126" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B127" s="6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="3" t="s">
-        <v>107</v>
+      <c r="B131" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B132" s="4" t="s">
-        <v>1</v>
+      <c r="B132" s="5" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B134" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B135" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B136" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B137" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B138" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B140" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B141" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B143" s="6" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B135" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B136" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B137" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B138" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B139" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B140" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B141" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B144" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B155" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B156" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B157" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B159" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B161" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="6" t="s">
+    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B162" s="6" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="6" t="s">
+    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B163" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="6" t="s">
+    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B164" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="6" t="s">
+    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B165" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B158" s="3" t="s">
+    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B167" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B159" s="4" t="s">
+    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B168" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B160" s="7" t="s">
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B169" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B162" s="4" t="s">
+    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B163" s="5" t="s">
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
         <v>131</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B164" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B165" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B166" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B169" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="6" t="s">
-        <v>140</v>
+      <c r="B174" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="3" t="s">
-        <v>142</v>
+      <c r="B177" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="4" t="s">
-        <v>14</v>
+      <c r="B178" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B179" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B180" s="5" t="s">
-        <v>144</v>
+      <c r="B179" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B181" s="5" t="s">
-        <v>145</v>
+      <c r="B181" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B182" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B183" s="5" t="s">
-        <v>147</v>
+      <c r="B183" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B184" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B185" s="5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B186" s="8" t="s">
-        <v>150</v>
+      <c r="B186" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B187" s="5" t="s">
-        <v>151</v>
+      <c r="B187" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B189" s="4" t="s">
-        <v>41</v>
+      <c r="B189" s="5" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B195" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B198" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B193" s="5" t="s">
+    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="194" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B194" s="5" t="s">
+    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="195" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B195" s="5" t="s">
+    <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="196" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="5" t="s">
+    <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="197" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B197" s="5" t="s">
+    <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="199" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="3" t="s">
+    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B208" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="200" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B200" s="4" t="s">
+    <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B209" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B201" s="22" t="s">
+    <row r="210" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B210" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="202" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B202" s="6" t="s">
+    <row r="211" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B211" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="203" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B203" s="5" t="s">
+    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B212" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="204" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B204" s="6" t="s">
+    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B213" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="205" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="5" t="s">
+    <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="206" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B206" s="5" t="s">
+    <row r="215" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="207" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B207" s="6" t="s">
+    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B216" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="208" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B208" s="14" t="s">
+    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B217" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C217" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="209" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="15" t="s">
+    <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B218" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="210" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="22" t="s">
+    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B219" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C210" s="25" t="s">
+      <c r="C219" s="25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="211" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B211" s="5" t="s">
+    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="212" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="17" t="s">
+    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B221" s="17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="213" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="14" t="s">
+    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B222" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C222" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="214" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="5" t="s">
+    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="215" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B215" s="6" t="s">
+    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="216" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="15" t="s">
+    <row r="225" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B225" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="217" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="15" t="s">
+    <row r="226" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B226" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="218" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B218" s="17" t="s">
+    <row r="227" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C218" s="16" t="s">
+      <c r="C227" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="219" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="17" t="s">
+    <row r="228" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C219" s="18" t="s">
+      <c r="C228" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="220" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="17" t="s">
+    <row r="229" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B229" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C220" s="16" t="s">
+      <c r="C229" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="221" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D221" s="16"/>
-    </row>
-    <row r="222" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="4" t="s">
+    <row r="230" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D230" s="16"/>
+    </row>
+    <row r="231" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B233" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="24" t="s">
+    <row r="234" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B234" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="5" t="s">
+    <row r="235" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="22" t="s">
+    <row r="236" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B236" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="14" t="s">
+    <row r="237" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B237" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C228" s="25" t="s">
+      <c r="C237" s="25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B229" s="6" t="s">
+    <row r="238" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B238" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="230" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B230" s="6" t="s">
+    <row r="239" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B239" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="231" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B231" s="6" t="s">
+    <row r="240" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B240" s="6" t="s">
         <v>181</v>
-      </c>
-    </row>
-    <row r="232" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B232" s="6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="235" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B235" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="236" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B236" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="237" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="239" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C239" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="6" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="6" t="s">
-        <v>192</v>
+      <c r="B242" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="244" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C244" s="16" t="s">
-        <v>359</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B244" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>359</v>
+      <c r="B245" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B246" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>365</v>
+      <c r="B246" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B247" s="17" t="s">
-        <v>358</v>
+      <c r="B247" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B248" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C248" s="25" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B249" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
     <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B250" s="4" t="s">
-        <v>41</v>
+      <c r="B250" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B253" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B254" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="6" t="s">
-        <v>198</v>
+      <c r="B255" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="6" t="s">
-        <v>199</v>
+      <c r="B256" s="17" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B257" s="6" t="s">
-        <v>200</v>
+      <c r="B257" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="3" t="s">
-        <v>201</v>
+      <c r="B259" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="4" t="s">
-        <v>1</v>
+      <c r="B260" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="6" t="s">
-        <v>203</v>
+      <c r="B262" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="263" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="9"/>
+      <c r="B263" s="6" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B264" s="4" t="s">
-        <v>14</v>
+      <c r="B264" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B265" s="6" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="6" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -3042,911 +3072,950 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="15" t="s">
+    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B270" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B271" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B272" s="9"/>
+    </row>
+    <row r="273" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B273" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B274" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="275" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B275" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B277" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="278" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B278" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="22" t="s">
+    <row r="280" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B280" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="26" t="s">
+    <row r="281" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B281" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C272" s="25" t="s">
+      <c r="C281" s="25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="273" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="26" t="s">
+    <row r="282" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B282" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C273" s="25" t="s">
+      <c r="C282" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="22" t="s">
+    <row r="283" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B283" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B275" s="28" t="s">
+    <row r="284" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="6"/>
-      <c r="D276" s="34"/>
-    </row>
-    <row r="277" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="4" t="s">
+    <row r="285" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="6"/>
+      <c r="D285" s="33"/>
+    </row>
+    <row r="286" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B287" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="22" t="s">
+    <row r="288" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B288" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C279" s="25" t="s">
+      <c r="C288" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
+    <row r="289" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>374</v>
       </c>
-      <c r="B280" s="27" t="s">
+      <c r="B289" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C280" s="25" t="s">
+      <c r="C289" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="22" t="s">
+    <row r="290" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B290" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="14" t="s">
+    <row r="291" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B291" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C291" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="17" t="s">
+    <row r="292" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="22" t="s">
+    <row r="293" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C293" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="29" t="s">
+    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B294" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="14" t="s">
+    <row r="295" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B295" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C295" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="22" t="s">
+    <row r="296" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="14" t="s">
+    <row r="297" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B297" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C288" s="25" t="s">
+      <c r="C297" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="289" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="17" t="s">
+    <row r="298" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B298" s="17" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="290" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="17" t="s">
+    <row r="299" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B299" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C299" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="21" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="293" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="4" t="s">
+    <row r="300" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="6" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B302" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="294" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="22" t="s">
+    <row r="303" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B303" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C303" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="295" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="31" t="s">
+    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C295" s="25" t="s">
+      <c r="C304" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="296" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="6" t="s">
+    <row r="305" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B305" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C296" s="25" t="s">
+      <c r="C305" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="297" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="22" t="s">
+    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B306" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="298" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="30" t="s">
+    <row r="307" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B307" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C298" s="25" t="s">
+      <c r="C307" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="299" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="3" t="s">
+    <row r="308" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="301" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="4" t="s">
+    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="302" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="6" t="s">
+    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B311" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="303" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="6" t="s">
+    <row r="312" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="304" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="6" t="s">
+    <row r="313" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B313" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="305" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="6" t="s">
+    <row r="314" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B314" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="306" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="5" t="s">
+    <row r="315" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B315" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="307" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="4" t="s">
+    <row r="316" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B317" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="309" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="6" t="s">
+    <row r="318" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B318" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="310" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="6" t="s">
+    <row r="319" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B319" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="311" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="6" t="s">
+    <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B320" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="312" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B312" s="6" t="s">
+    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B321" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="313" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="3" t="s">
+    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B323" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="315" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="4" t="s">
+    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B324" s="4" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="316" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="317" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B317" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="318" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="319" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="320" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B320" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B322" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B324" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B325" s="6" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
     </row>
     <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B326" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B327" s="6" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="6" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B329" s="6" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B331" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B332" s="5" t="s">
-        <v>249</v>
+      <c r="B331" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B332" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="6" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B335" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B337" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B338" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B341" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B342" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B335" s="6" t="s">
+    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B344" s="6" t="s">
         <v>252</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B338" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B339" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C340" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="341" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C343" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B344" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B346" s="4" t="s">
-        <v>14</v>
+      <c r="B346" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="5" t="s">
-        <v>262</v>
+      <c r="B347" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B348" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="6" t="s">
-        <v>264</v>
+        <v>255</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="350" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B350" s="6" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B351" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C352" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B353" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B357" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B358" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B360" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="6" t="s">
+    <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B361" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C361" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B353" s="5" t="s">
+    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B362" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="354" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="3" t="s">
+    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B364" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="4" t="s">
+    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B365" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="5" t="s">
+    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B366" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B358" s="6" t="s">
+    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B367" s="6" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="6" t="s">
+    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B368" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="360" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="6" t="s">
+    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B369" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B361" s="6" t="s">
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B370" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="362" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B362" s="5" t="s">
+    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B371" s="5" t="s">
         <v>277</v>
-      </c>
-    </row>
-    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B363" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="10"/>
-    </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B371" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B372" s="6" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B373" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B374" s="6" t="s">
-        <v>285</v>
+      <c r="B374" s="3" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="6" t="s">
-        <v>286</v>
+      <c r="B375" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="6" t="s">
-        <v>287</v>
+      <c r="B376" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B377" s="6" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="6" t="s">
-        <v>289</v>
-      </c>
+      <c r="B378" s="10"/>
     </row>
     <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="6" t="s">
-        <v>290</v>
+      <c r="B379" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B380" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="6" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="5" t="s">
-        <v>293</v>
+      <c r="B382" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>286</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B385" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
     <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B386" s="3" t="s">
-        <v>296</v>
+      <c r="B386" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B388" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
     <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B389" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B390" s="11" t="s">
-        <v>1</v>
+      <c r="B389" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B390" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B391" s="6" t="s">
-        <v>299</v>
+      <c r="B391" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B393" s="6" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B394" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="6" t="s">
-        <v>303</v>
+      <c r="B395" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B397" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="6" t="s">
-        <v>306</v>
+      <c r="B398" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="6" t="s">
-        <v>307</v>
+      <c r="B399" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="6" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B401" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
     <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="4" t="s">
-        <v>14</v>
+      <c r="B402" s="6" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B407" s="5" t="s">
-        <v>313</v>
+      <c r="B407" s="6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B408" s="5" t="s">
-        <v>314</v>
+      <c r="B408" s="6" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="5" t="s">
-        <v>316</v>
-      </c>
-    </row>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B411" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B411" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="6" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
     </row>
     <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="6" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="6" t="s">
-        <v>321</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B416" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="4" t="s">
-        <v>41</v>
+      <c r="B417" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B418" s="5" t="s">
-        <v>322</v>
+      <c r="B418" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B421" s="3" t="s">
-        <v>324</v>
+      <c r="B419" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B420" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B421" s="6" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B422" s="4" t="s">
-        <v>14</v>
+      <c r="B422" s="6" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B425" s="6" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B426" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="6" t="s">
-        <v>329</v>
+      <c r="B426" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B427" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B428" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B429" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
+        <v>323</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B430" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B431" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="4" t="s">
-        <v>41</v>
+      <c r="B432" s="6" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B436" s="6" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="438" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B440" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B441" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B441" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B442" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
     <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="3" t="s">
-        <v>341</v>
+      <c r="B443" s="6" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="4" t="s">
-        <v>342</v>
+      <c r="B444" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B446" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B447" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B448" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B449" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B450" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B452" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B453" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B454" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B446" s="6" t="s">
+    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B455" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="6" t="s">
+    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B456" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B448" s="12" t="s">
+    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B457" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B449" s="4"/>
-    </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="3" t="s">
+    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B458" s="4"/>
+    </row>
+    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B459" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B451" s="5" t="s">
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B452" s="3" t="s">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B453" s="5" t="s">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B455" s="3"/>
-    </row>
-    <row r="456" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B456" s="19"/>
-    </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B461" s="19"/>
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="3"/>
+    </row>
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="19"/>
+    </row>
+    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B470" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3993,301 +4062,302 @@
     <hyperlink ref="B51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B57" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="B59" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C59" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="B61" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="B68" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="B69" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B70" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B71" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B72" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B73" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B74" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B75" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B76" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B77" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B78" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B79" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B80" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B81" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B82" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B86" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B87" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B88" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B90" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B91" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B92" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B93" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B94" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B95" r:id="rId74" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B96" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B97" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B98" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B99" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B103" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B104" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B107" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B110" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B111" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B112" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B113" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B114" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B115" r:id="rId89" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B116" r:id="rId90" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B117" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B118" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B119" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B120" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B123" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B124" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B125" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B126" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B127" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B128" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B129" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B133" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B134" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B135" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B136" r:id="rId105" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B137" r:id="rId106" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B138" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B139" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B140" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B141" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B144" r:id="rId111" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B145" r:id="rId112" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B146" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B147" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B148" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B149" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B150" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B153" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B154" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B155" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B156" r:id="rId121" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B163" r:id="rId122" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B164" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B165" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B166" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B167" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B168" r:id="rId127" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B169" r:id="rId128" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B170" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B173" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B174" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B175" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B179" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B180" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B181" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B182" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B183" r:id="rId137" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B184" r:id="rId138" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B185" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B186" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B187" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B190" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B191" r:id="rId143" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B192" r:id="rId144" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B193" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B194" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B195" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B196" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B197" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B201" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B202" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B203" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B204" r:id="rId153" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B205" r:id="rId154" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B206" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B207" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B209" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B210" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B211" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B213" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B214" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B215" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B216" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B228" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B229" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B230" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B231" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B232" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B233" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B234" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B235" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B236" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B237" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B238" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B239" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B240" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B241" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B242" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B243" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B251" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B252" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B253" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B254" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B255" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B256" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B257" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B261" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B262" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B265" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B266" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B270" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B271" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B272" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B273" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B279" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B281" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B282" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B284" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B285" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B286" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B287" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B288" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B294" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B295" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B296" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B297" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B298" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B302" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B303" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B304" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B305" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B306" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B309" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B310" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B311" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B312" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B316" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B317" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B318" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B319" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B320" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B324" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B325" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B326" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B327" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B328" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B329" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B332" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B333" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B334" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B335" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B339" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B340" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C340" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B341" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B342" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C343" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B344" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B347" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B348" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B349" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B350" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B351" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B352" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C352" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B353" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B357" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B358" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B359" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B360" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B361" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B362" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B363" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B367" r:id="rId254" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B368" r:id="rId255" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B371" r:id="rId256" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B372" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B373" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B374" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B375" r:id="rId260" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B376" r:id="rId261" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B377" r:id="rId262" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B378" r:id="rId263" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B379" r:id="rId264" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B380" r:id="rId265" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B381" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B382" r:id="rId267" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B383" r:id="rId268" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B384" r:id="rId269" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B387" r:id="rId270" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B391" r:id="rId271" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B392" r:id="rId272" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B393" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B394" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B395" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B396" r:id="rId276" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B397" r:id="rId277" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B398" r:id="rId278" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B399" r:id="rId279" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B400" r:id="rId280" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B403" r:id="rId281" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B404" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B405" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B406" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B407" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B408" r:id="rId286" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B409" r:id="rId287" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B410" r:id="rId288" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B411" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B412" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B413" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B414" r:id="rId292" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B415" r:id="rId293" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B418" r:id="rId294" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B419" r:id="rId295" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B423" r:id="rId296" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B424" r:id="rId297" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B425" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B426" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B427" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B428" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B429" r:id="rId302" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B430" r:id="rId303" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B433" r:id="rId304" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B434" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B435" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B436" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B437" r:id="rId308" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B438" r:id="rId309" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B439" r:id="rId310" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B440" r:id="rId311" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B441" r:id="rId312" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B445" r:id="rId313" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B446" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B447" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B448" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B451" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B453" r:id="rId318" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B218" r:id="rId319" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B220" r:id="rId320" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B244" r:id="rId321" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B245" r:id="rId322" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B246" r:id="rId323" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B247" r:id="rId324" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B217" r:id="rId325" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B226" r:id="rId326" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B227" r:id="rId327" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B212" r:id="rId328" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
-    <hyperlink ref="B283" r:id="rId329" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
-    <hyperlink ref="B280" r:id="rId330" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
-    <hyperlink ref="B289" r:id="rId331" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
-    <hyperlink ref="B290" r:id="rId332" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
-    <hyperlink ref="B64" r:id="rId333" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
-    <hyperlink ref="B66" r:id="rId334" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
-    <hyperlink ref="B65" r:id="rId335" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
-    <hyperlink ref="B60" r:id="rId336" xr:uid="{D1C5FD50-B888-454C-A7C2-CD17B99EF072}"/>
+    <hyperlink ref="B135" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B136" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B137" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B138" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B142" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B143" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B144" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B145" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B146" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B147" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B148" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B149" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B150" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B153" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B154" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B155" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B156" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B157" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B158" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B159" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B162" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B163" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B164" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B165" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B172" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B173" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B174" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B175" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B176" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B177" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B178" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B179" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B182" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B183" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B184" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B188" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B189" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B190" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B191" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B192" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B193" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B194" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B195" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B196" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B199" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B200" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B201" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B202" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B203" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B204" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B205" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B206" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B210" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B211" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B212" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B213" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B214" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B215" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B216" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B218" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B219" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B220" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B222" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B223" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B224" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B225" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B237" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B238" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B239" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B240" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B241" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B242" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B243" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B244" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B245" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B246" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B247" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B248" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B249" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B250" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B251" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B252" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B260" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B261" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B262" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B263" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B264" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B265" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B266" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B270" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B271" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B274" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B275" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B279" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B280" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B281" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B282" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B288" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B290" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B291" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B293" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B294" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B295" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B296" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B297" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B303" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B304" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B305" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B306" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B307" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B311" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B312" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B313" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B314" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B315" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B318" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B319" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B320" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B321" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B325" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B326" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B327" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B328" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B329" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B333" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B334" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B335" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B336" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B337" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B338" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B341" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B342" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B343" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B344" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B348" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B349" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C349" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B350" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B351" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C352" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B353" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B356" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B357" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B358" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B359" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B360" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B361" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C361" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B362" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B366" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B367" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B368" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B369" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B370" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B371" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B372" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B376" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B377" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B380" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B381" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B382" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B383" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B384" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B385" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B386" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B387" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B388" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B389" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B390" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B391" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B392" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B393" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B396" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B400" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B401" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B402" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B403" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B404" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B405" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B406" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B407" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B408" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B409" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B412" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B413" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B414" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B415" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B416" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B417" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B418" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B419" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B420" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B421" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B422" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B423" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B424" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B427" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B428" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B432" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B433" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B434" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B435" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B436" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B437" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B438" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B439" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B442" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B443" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B444" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B445" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B446" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B447" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B448" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B449" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B450" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B454" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B455" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B456" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B457" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B460" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B462" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B227" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B229" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B253" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B254" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B255" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B256" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B226" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B235" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B236" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B221" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
+    <hyperlink ref="B292" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
+    <hyperlink ref="B289" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
+    <hyperlink ref="B298" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
+    <hyperlink ref="B299" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
+    <hyperlink ref="B66" r:id="rId279" xr:uid="{D1C5FD50-B888-454C-A7C2-CD17B99EF072}"/>
+    <hyperlink ref="B76" r:id="rId280" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
+    <hyperlink ref="B75" r:id="rId281" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
+    <hyperlink ref="B73" r:id="rId282" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
+    <hyperlink ref="B134" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B133" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B132" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B129" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B128" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B127" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B126" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B125" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B124" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B123" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B122" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B121" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B120" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B119" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B116" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B115" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B114" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B113" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B112" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B108" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B107" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B106" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B105" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B104" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B103" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B102" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B101" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B100" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B99" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B98" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B97" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B96" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B95" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B94" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B91" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B90" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B89" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B88" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B87" r:id="rId321" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B86" r:id="rId322" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B85" r:id="rId323" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B84" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B83" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B82" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B81" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B80" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B79" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B78" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B77" r:id="rId331" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B67" r:id="rId332" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C68" r:id="rId333" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B68" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="B69" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="B65" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="B300" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId337"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId338"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BCA899C-5B61-4461-9F20-07717895A474}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8350A14-660C-47D5-8D1D-124AEFE79190}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="412">
   <si>
     <t>Arrays</t>
   </si>
@@ -1313,6 +1313,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/count-vowels-permutation/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/coin-change-2/submissions/</t>
+  </si>
+  <si>
+    <t>loved this problem</t>
+  </si>
+  <si>
+    <t>initialisation is a factor</t>
   </si>
 </sst>
 </file>
@@ -1778,10 +1787,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D470"/>
+  <dimension ref="A1:D471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B300" sqref="B300"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2135,1887 +2144,1898 @@
     </row>
     <row r="73" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B73" s="17" t="s">
-        <v>391</v>
+        <v>409</v>
+      </c>
+      <c r="C73" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B74" s="17" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B75" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="C74" s="25"/>
-    </row>
-    <row r="75" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="32" t="s">
+      <c r="C75" s="25"/>
+    </row>
+    <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B76" s="32" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="34" t="s">
+    <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B77" s="34" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="6" t="s">
+    <row r="78" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B78" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="78" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="32" t="s">
+    <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B79" s="32" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="6" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B80" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B81" s="22" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="81" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="6" t="s">
+      <c r="C81" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B82" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
+    <row r="83" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B83" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="s">
+    <row r="84" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B84" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
+    <row r="85" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
+    <row r="86" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="86" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
+    <row r="87" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
+    <row r="88" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="88" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+    <row r="89" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B89" s="6" t="s">
+    <row r="90" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B90" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="90" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B90" s="6" t="s">
+    <row r="91" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B91" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B91" s="6" t="s">
+    <row r="92" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B93" s="4" t="s">
+    <row r="94" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B94" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="94" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B94" s="6" t="s">
+    <row r="95" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
+    <row r="96" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B110" s="3" t="s">
+    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B111" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="4" t="s">
+    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B112" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B112" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B113" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B114" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B118" s="4" t="s">
+    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B119" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B120" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B121" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="5" t="s">
+    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B127" s="5" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="4" t="s">
+    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B132" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B132" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B134" s="5" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B134" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B139" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B140" s="3" t="s">
+    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B141" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B141" s="4" t="s">
+    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B142" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B142" s="5" t="s">
+    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="6" t="s">
+    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B144" s="6" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B144" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B146" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B151" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B152" s="4" t="s">
+    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B153" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B154" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B155" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B160" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B161" s="4" t="s">
+    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B162" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B162" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B163" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B164" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B166" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="3" t="s">
+    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B168" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="4" t="s">
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B169" s="7" t="s">
+    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B170" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="4" t="s">
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B174" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B179" s="6" t="s">
+    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B180" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B181" s="4" t="s">
+    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B182" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B182" s="5" t="s">
+    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B183" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B183" s="6" t="s">
+    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B184" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B184" s="5" t="s">
+    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B185" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B186" s="3" t="s">
+    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B187" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B187" s="4" t="s">
+    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B188" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B188" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B189" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B190" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B195" s="8" t="s">
+    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B196" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="5" t="s">
+    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="4" t="s">
+    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B199" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B208" s="3" t="s">
+    <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B209" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="4" t="s">
+    <row r="210" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B210" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="22" t="s">
+    <row r="211" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B211" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B211" s="6" t="s">
+    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B212" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="5" t="s">
+    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="6" t="s">
+    <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B214" s="6" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="6" t="s">
+    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B217" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="14" t="s">
+    <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B218" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C218" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B218" s="15" t="s">
+    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B219" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="22" t="s">
+    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C219" s="25" t="s">
+      <c r="C220" s="25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="5" t="s">
+    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="17" t="s">
+    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B222" s="17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="14" t="s">
+    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B223" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C223" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="5" t="s">
+    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="6" t="s">
+    <row r="225" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="225" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="226" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B226" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="227" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="227" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="17" t="s">
+    <row r="228" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B228" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C227" s="16" t="s">
+      <c r="C228" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="228" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="17" t="s">
+    <row r="229" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B229" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C228" s="18" t="s">
+      <c r="C229" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="229" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B229" s="17" t="s">
+    <row r="230" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B230" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C229" s="16" t="s">
+      <c r="C230" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="230" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D230" s="16"/>
-    </row>
-    <row r="231" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D231" s="16"/>
+    </row>
     <row r="232" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="4" t="s">
+    <row r="233" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B234" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="234" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="24" t="s">
+    <row r="235" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B235" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="235" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B235" s="5" t="s">
+    <row r="236" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="236" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B236" s="22" t="s">
+    <row r="237" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B237" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="237" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="14" t="s">
+    <row r="238" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B238" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C237" s="25" t="s">
+      <c r="C238" s="25" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="238" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="239" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B239" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="240" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B240" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B242" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="22" t="s">
+    <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B243" s="22" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B245" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B248" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="26" t="s">
+    <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B249" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C248" s="25" t="s">
+      <c r="C249" s="25" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B249" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B253" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="253" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B253" s="21" t="s">
+    <row r="254" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B254" s="21" t="s">
         <v>356</v>
-      </c>
-      <c r="C253" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="21" t="s">
-        <v>357</v>
       </c>
       <c r="C254" s="16" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="23" t="s">
+      <c r="B255" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B256" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C255" s="16" t="s">
+      <c r="C256" s="16" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B258" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C257" s="16" t="s">
+      <c r="C258" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="4" t="s">
+    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B260" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B261" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B262" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="5" t="s">
+    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B263" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="263" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="6" t="s">
+    <row r="264" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="6" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B264" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B265" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B266" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B267" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B268" s="3" t="s">
+    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B269" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B269" s="4" t="s">
+    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B270" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B272" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="272" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="9"/>
-    </row>
-    <row r="273" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="4" t="s">
+    <row r="273" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B273" s="9"/>
+    </row>
+    <row r="274" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B274" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="274" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="275" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B275" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="276" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B276" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="276" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="3" t="s">
+    <row r="277" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B278" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="278" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="4" t="s">
+    <row r="279" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B279" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="15" t="s">
+    <row r="280" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B280" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="280" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B280" s="22" t="s">
+    <row r="281" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B281" s="22" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="281" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C281" s="25" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="282" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C282" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="283" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B283" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C282" s="25" t="s">
+      <c r="C283" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="283" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="22" t="s">
+    <row r="284" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="284" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="28" t="s">
+    <row r="285" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="285" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="6"/>
-      <c r="D285" s="33"/>
-    </row>
-    <row r="286" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="4" t="s">
+    <row r="286" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B286" s="6"/>
+      <c r="D286" s="33"/>
+    </row>
+    <row r="287" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B288" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="288" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="22" t="s">
+    <row r="289" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B289" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C288" s="25" t="s">
+      <c r="C289" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
+    <row r="290" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
         <v>374</v>
       </c>
-      <c r="B289" s="27" t="s">
+      <c r="B290" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C289" s="25" t="s">
+      <c r="C290" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="22" t="s">
+    <row r="291" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B291" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="14" t="s">
+    <row r="292" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C292" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="17" t="s">
+    <row r="293" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="22" t="s">
+    <row r="294" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B294" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C294" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B294" s="29" t="s">
+    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="14" t="s">
+    <row r="296" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C296" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="22" t="s">
+    <row r="297" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B297" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="14" t="s">
+    <row r="298" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B298" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C297" s="25" t="s">
+      <c r="C298" s="25" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="298" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="17" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="299" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C300" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="21" t="s">
+    <row r="301" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="21" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="6" t="s">
+    <row r="302" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B302" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="4" t="s">
+    <row r="303" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B303" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="22" t="s">
+    <row r="304" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B304" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C304" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="31" t="s">
+    <row r="305" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C304" s="25" t="s">
+      <c r="C305" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="305" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="6" t="s">
+    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B306" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C305" s="25" t="s">
+      <c r="C306" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="22" t="s">
+    <row r="307" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B307" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="307" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="30" t="s">
+    <row r="308" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B308" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C307" s="25" t="s">
+      <c r="C308" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="308" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="3" t="s">
+    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="4" t="s">
+    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B311" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="6" t="s">
+    <row r="312" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B312" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="312" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="6" t="s">
+    <row r="313" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="6" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="314" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B314" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B315" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="315" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="5" t="s">
+    <row r="316" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B316" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="316" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="4" t="s">
+    <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="318" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B318" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="318" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B318" s="6" t="s">
+    <row r="319" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B319" s="6" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="319" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B320" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B321" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B322" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="3" t="s">
+    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B324" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B324" s="4" t="s">
+    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B325" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="6" t="s">
+    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B326" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="326" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B326" s="6" t="s">
+    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="6" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B327" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B329" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B330" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B331" s="3" t="s">
+    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B332" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="4" t="s">
+    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B333" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B333" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B334" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B335" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B335" s="6" t="s">
+    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B336" s="6" t="s">
         <v>245</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="6" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B339" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="4" t="s">
+    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B341" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="341" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B341" s="5" t="s">
+    <row r="342" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B342" s="5" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="6" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B343" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B345" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B346" s="3" t="s">
+    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="4" t="s">
+    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B348" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B348" s="6" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B349" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B350" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C349" s="5" t="s">
+      <c r="C350" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B350" s="6" t="s">
+    <row r="351" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="5" t="s">
+    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="20" t="s">
+    <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B353" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C352" s="8" t="s">
+      <c r="C353" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B353" s="5" t="s">
+    <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B354" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="4" t="s">
+    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="5" t="s">
+    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B357" s="5" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B358" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B359" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="359" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="6" t="s">
+    <row r="360" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B360" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="5" t="s">
+    <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B361" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B361" s="6" t="s">
+    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B362" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C361" s="6" t="s">
+      <c r="C362" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B362" s="5" t="s">
+    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B363" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="3" t="s">
+    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B365" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="4" t="s">
+    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B366" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="5" t="s">
+    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B367" s="5" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B368" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B369" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="369" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B369" s="6" t="s">
+    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="6" t="s">
+    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B371" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B371" s="5" t="s">
+    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B372" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B372" s="6" t="s">
+    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B373" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B374" s="3" t="s">
+    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B375" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="4" t="s">
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B376" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="5" t="s">
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B377" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="6" t="s">
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B378" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="10"/>
-    </row>
     <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="4" t="s">
+      <c r="B379" s="10"/>
+    </row>
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B380" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B381" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B382" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B390" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="390" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B390" s="6" t="s">
+    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B391" s="5" t="s">
+    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B392" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B392" s="6" t="s">
+    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B393" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="6" t="s">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="3" t="s">
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B396" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="6" t="s">
+    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B397" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="3" t="s">
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B399" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="11" t="s">
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B400" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B406" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="6" t="s">
+    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B407" s="6" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B407" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B410" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B411" s="4" t="s">
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B412" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B414" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B416" s="6" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B418" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B418" s="6" t="s">
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B419" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="5" t="s">
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B420" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="6" t="s">
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B421" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="421" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B421" s="6" t="s">
+    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B422" s="6" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B422" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B425" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B426" s="4" t="s">
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B427" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B427" s="5" t="s">
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B428" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B428" s="6" t="s">
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B429" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="3" t="s">
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B431" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="4" t="s">
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B432" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B436" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B436" s="6" t="s">
+    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B437" s="6" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B440" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B441" s="4" t="s">
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B442" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B442" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B443" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B444" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B446" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B446" s="5" t="s">
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B447" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B447" s="6" t="s">
+    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B448" s="6" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B448" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B450" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B451" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B452" s="3" t="s">
+    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B453" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B453" s="4" t="s">
+    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B454" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B454" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B457" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B457" s="12" t="s">
+    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B458" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B458" s="4"/>
-    </row>
-    <row r="459" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B459" s="3" t="s">
+    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B459" s="4"/>
+    </row>
+    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B460" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B460" s="5" t="s">
+    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B461" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B461" s="3" t="s">
+    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B462" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="5" t="s">
+    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="3"/>
-    </row>
     <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="19"/>
-    </row>
-    <row r="470" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B470" s="19"/>
+      <c r="B465" s="3"/>
+    </row>
+    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B466" s="19"/>
+    </row>
+    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4062,300 +4082,300 @@
     <hyperlink ref="B51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B135" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B136" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B137" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B138" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B142" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B143" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B144" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B145" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B146" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B147" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B148" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B149" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B150" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B153" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B154" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B155" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B156" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B157" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B158" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B159" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B162" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B163" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B164" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B165" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B172" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B173" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B174" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B175" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B176" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B177" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B178" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B179" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B182" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B183" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B184" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B188" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B189" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B190" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B191" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B192" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B193" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B194" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B195" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B196" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B199" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B200" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B201" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B202" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B203" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B204" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B205" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B206" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B210" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B211" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B212" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B213" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B214" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B215" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B216" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B218" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B219" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B220" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B222" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B223" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B224" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B225" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B237" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B238" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B239" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B240" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B241" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B242" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B243" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B244" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B245" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B246" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B247" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B248" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B249" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B250" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B251" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B252" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B260" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B261" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B262" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B263" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B264" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B265" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B266" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B270" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B271" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B274" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B275" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B279" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B280" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B281" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B282" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B288" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B290" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B291" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B293" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B294" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B295" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B296" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B297" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B303" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B304" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B305" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B306" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B307" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B311" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B312" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B313" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B314" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B315" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B318" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B319" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B320" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B321" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B325" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B326" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B327" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B328" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B329" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B333" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B334" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B335" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B336" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B337" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B338" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B341" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B342" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B343" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B344" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B348" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B349" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C349" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B350" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B351" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C352" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B353" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B356" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B357" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B358" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B359" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B360" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B361" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C361" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B362" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B366" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B367" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B368" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B369" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B370" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B371" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B372" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B376" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B377" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B380" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B381" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B382" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B383" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B384" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B385" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B386" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B387" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B388" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B389" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B390" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B391" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B392" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B393" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B396" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B400" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B401" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B402" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B403" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B404" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B405" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B406" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B407" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B408" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B409" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B412" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B413" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B414" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B415" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B416" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B417" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B418" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B419" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B420" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B421" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B422" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B423" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B424" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B427" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B428" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B432" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B433" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B434" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B435" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B436" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B437" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B438" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B439" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B442" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B443" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B444" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B445" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B446" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B447" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B448" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B449" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B450" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B454" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B455" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B456" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B457" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B460" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B462" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B227" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B229" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B253" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B254" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B255" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B256" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B226" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B235" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B236" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B221" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
-    <hyperlink ref="B292" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
-    <hyperlink ref="B289" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
-    <hyperlink ref="B298" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
-    <hyperlink ref="B299" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
+    <hyperlink ref="B136" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B137" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B138" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B139" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B143" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B144" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B145" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B146" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B147" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B148" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B149" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B150" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B151" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B154" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B155" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B156" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B157" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B158" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B159" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B160" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B163" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B164" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B165" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B166" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B173" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B174" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B175" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B176" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B177" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B178" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B179" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B180" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B183" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B184" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B185" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B189" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B190" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B191" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B192" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B193" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B194" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B195" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B196" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B197" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B200" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B201" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B202" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B203" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B204" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B205" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B206" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B207" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B211" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B212" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B213" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B214" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B215" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B216" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B217" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B219" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B220" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B221" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B223" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B224" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B225" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B226" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B238" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B239" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B240" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B241" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B242" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B243" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B244" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B245" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B246" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B247" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B248" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B249" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B250" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B251" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B252" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B253" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B261" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B262" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B263" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B264" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B265" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B266" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B267" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B271" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B272" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B275" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B276" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B280" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B281" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B282" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B283" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B289" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B291" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B292" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B294" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B295" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B296" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B297" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B298" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B304" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B305" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B306" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B307" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B308" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B312" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B313" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B314" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B315" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B316" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B319" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B320" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B321" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B322" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B326" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B327" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B328" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B329" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B330" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B334" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B335" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B336" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B337" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B338" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B339" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B342" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B343" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B344" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B345" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B349" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B350" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C350" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B351" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B352" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C353" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B354" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B357" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B358" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B359" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B360" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B361" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B362" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C362" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B363" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B367" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B368" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B369" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B370" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B371" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B372" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B373" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B377" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B378" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B381" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B382" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B383" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B384" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B385" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B386" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B387" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B388" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B389" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B390" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B391" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B392" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B393" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B394" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B397" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B401" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B402" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B403" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B404" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B405" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B406" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B407" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B408" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B409" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B410" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B413" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B414" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B415" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B416" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B417" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B418" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B419" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B420" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B421" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B422" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B423" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B424" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B425" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B428" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B429" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B433" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B434" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B435" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B436" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B437" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B438" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B439" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B440" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B443" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B444" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B445" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B446" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B447" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B448" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B449" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B450" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B451" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B455" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B456" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B457" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B458" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B461" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B463" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B228" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B230" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B254" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B255" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B256" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B257" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B227" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B236" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B237" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B222" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
+    <hyperlink ref="B293" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
+    <hyperlink ref="B290" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
+    <hyperlink ref="B299" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
+    <hyperlink ref="B300" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
     <hyperlink ref="B66" r:id="rId279" xr:uid="{D1C5FD50-B888-454C-A7C2-CD17B99EF072}"/>
-    <hyperlink ref="B76" r:id="rId280" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
-    <hyperlink ref="B75" r:id="rId281" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
-    <hyperlink ref="B73" r:id="rId282" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
-    <hyperlink ref="B134" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B133" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B132" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B129" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B128" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B127" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B126" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B125" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B124" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B123" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B122" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B121" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B120" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B119" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B116" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B115" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B114" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B113" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B112" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B108" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B107" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B106" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B105" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B104" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B103" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B102" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B101" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B100" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B99" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B98" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B97" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B96" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B95" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B94" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B91" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B90" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B89" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B88" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B87" r:id="rId321" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B86" r:id="rId322" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B85" r:id="rId323" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B84" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B83" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B82" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B81" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B80" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B79" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B78" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B77" r:id="rId331" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B77" r:id="rId280" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
+    <hyperlink ref="B76" r:id="rId281" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
+    <hyperlink ref="B74" r:id="rId282" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
+    <hyperlink ref="B135" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B134" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B133" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B130" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B129" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B128" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B127" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B126" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B125" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B124" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B123" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B122" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B121" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B120" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B117" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B116" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B115" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B114" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B113" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B109" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B108" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B107" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B106" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B105" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B104" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B103" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B102" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B101" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B100" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B99" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B98" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B97" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B96" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B95" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B92" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B91" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B90" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B89" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B88" r:id="rId321" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B87" r:id="rId322" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B86" r:id="rId323" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B85" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B84" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B83" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B82" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B81" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B80" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B79" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B78" r:id="rId331" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="B67" r:id="rId332" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="C68" r:id="rId333" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="B68" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="B69" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B65" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B300" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
+    <hyperlink ref="B301" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId338"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8350A14-660C-47D5-8D1D-124AEFE79190}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B26838-6EE3-4A03-86F7-124737D28551}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="413">
   <si>
     <t>Arrays</t>
   </si>
@@ -1322,6 +1322,9 @@
   </si>
   <si>
     <t>initialisation is a factor</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-common-subsequence/</t>
   </si>
 </sst>
 </file>
@@ -1789,8 +1792,8 @@
   </sheetPr>
   <dimension ref="A1:D471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2247,6 +2250,11 @@
     <row r="92" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B92" s="6" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9B26838-6EE3-4A03-86F7-124737D28551}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E14BB9A-14DB-4B0E-A7C9-077F1B22890C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="414">
   <si>
     <t>Arrays</t>
   </si>
@@ -1325,6 +1325,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-common-subsequence/</t>
+  </si>
+  <si>
+    <t>similar as max common substring</t>
   </si>
 </sst>
 </file>
@@ -1792,8 +1795,8 @@
   </sheetPr>
   <dimension ref="A1:D471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2203,8 +2206,11 @@
       </c>
     </row>
     <row r="83" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="6" t="s">
+      <c r="B83" s="22" t="s">
         <v>58</v>
+      </c>
+      <c r="C83" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2253,7 +2259,7 @@
       </c>
     </row>
     <row r="93" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="22" t="s">
+      <c r="B93" s="17" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4384,8 +4390,9 @@
     <hyperlink ref="B69" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B65" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
     <hyperlink ref="B301" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
+    <hyperlink ref="B93" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId338"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId339"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E14BB9A-14DB-4B0E-A7C9-077F1B22890C}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF70CAE6-2BFD-48D1-A6D2-814DC7ADF744}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="420">
   <si>
     <t>Arrays</t>
   </si>
@@ -1328,6 +1328,24 @@
   </si>
   <si>
     <t>similar as max common substring</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/shortest-common-supersequence/</t>
+  </si>
+  <si>
+    <t>a form of longest common subsequence</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/shortest-common-supersequence/</t>
+  </si>
+  <si>
+    <t>this is like finding len not actual string</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-deletions-insertions-transform-one-string-another/</t>
+  </si>
+  <si>
+    <t>Solve this using LCS</t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1499,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1512,6 +1530,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1526,7 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1569,11 +1593,13 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1793,10 +1819,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D471"/>
+  <dimension ref="A1:D473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2102,7 +2128,7 @@
       </c>
     </row>
     <row r="65" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="33" t="s">
         <v>48</v>
       </c>
       <c r="C65" t="s">
@@ -2139,7 +2165,7 @@
       </c>
     </row>
     <row r="70" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="34" t="s">
         <v>408</v>
       </c>
     </row>
@@ -2168,22 +2194,22 @@
       <c r="C75" s="25"/>
     </row>
     <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="36" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="34" t="s">
+      <c r="B77" s="37" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="38" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="32" t="s">
+      <c r="B79" s="36" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2201,7 +2227,7 @@
       </c>
     </row>
     <row r="82" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="38" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2224,7 +2250,7 @@
       </c>
     </row>
     <row r="86" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="38" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2234,8 +2260,11 @@
       </c>
     </row>
     <row r="88" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="14" t="s">
         <v>63</v>
+      </c>
+      <c r="C88" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -2254,1802 +2283,1823 @@
       </c>
     </row>
     <row r="92" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="17" t="s">
+    <row r="93" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B93" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B94" s="4" t="s">
+    <row r="95" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B95" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B95" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="96" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B96" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
+    <row r="98" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="98" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
+    <row r="99" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="99" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
+    <row r="100" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="100" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
+    <row r="101" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
+    <row r="102" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B102" s="6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
+    <row r="103" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
+    <row r="104" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
+    <row r="105" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
+    <row r="106" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
+    <row r="107" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B107" s="6" t="s">
+    <row r="108" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
+    <row r="109" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
+    <row r="110" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="3" t="s">
+    <row r="111" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B111" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B113" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B112" s="4" t="s">
+    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B114" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B113" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B114" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B115" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B116" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B117" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B119" s="4" t="s">
+    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B121" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B121" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B122" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B123" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B124" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B125" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B126" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="5" t="s">
-        <v>96</v>
+      <c r="B127" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B128" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="6" t="s">
-        <v>98</v>
+      <c r="B129" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B130" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B132" s="4" t="s">
+    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B134" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B133" s="5" t="s">
+    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B135" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B134" s="5" t="s">
+    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B136" s="5" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B135" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B136" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B137" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B140" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B141" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B141" s="3" t="s">
+    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B143" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B142" s="4" t="s">
+    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B144" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B144" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B145" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B146" s="5" t="s">
-        <v>111</v>
+      <c r="B146" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B147" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B152" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B153" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="4" t="s">
+    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B155" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B156" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B162" s="4" t="s">
+    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B164" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B163" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B164" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B165" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B168" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="3" t="s">
+    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B170" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B169" s="4" t="s">
+    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B171" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="7" t="s">
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B172" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="4" t="s">
+    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B174" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="5" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B180" s="6" t="s">
+    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B182" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B182" s="4" t="s">
+    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B184" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B183" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B184" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B186" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B187" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B187" s="3" t="s">
+    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B189" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B188" s="4" t="s">
+    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B190" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B189" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B190" s="5" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B191" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="8" t="s">
-        <v>150</v>
+      <c r="B196" s="5" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B198" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="4" t="s">
+    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B201" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B200" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B201" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B202" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="3" t="s">
+    <row r="211" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B211" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="4" t="s">
+    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B212" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B211" s="22" t="s">
+    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B213" s="22" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B214" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="215" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B215" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B216" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="5" t="s">
+    <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="6" t="s">
+    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B219" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B218" s="14" t="s">
+    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C220" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="15" t="s">
+    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B221" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="22" t="s">
+    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B222" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C220" s="25" t="s">
+      <c r="C222" s="25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="5" t="s">
+    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="17" t="s">
+    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B224" s="17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="14" t="s">
+    <row r="225" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B225" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C225" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="5" t="s">
+    <row r="226" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="225" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="6" t="s">
+    <row r="227" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="226" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="15" t="s">
+    <row r="228" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B228" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="227" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="15" t="s">
+    <row r="229" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B229" s="15" t="s">
         <v>175</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C228" s="16" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="229" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C229" s="18" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="230" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B230" s="17" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C230" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="231" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D231" s="16"/>
-    </row>
-    <row r="232" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="4" t="s">
+    <row r="231" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C231" s="18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="232" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B232" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="233" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D233" s="16"/>
+    </row>
+    <row r="234" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B236" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B235" s="24" t="s">
+    <row r="237" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B237" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="236" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B236" s="5" t="s">
+    <row r="238" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="237" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="22" t="s">
+    <row r="239" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B239" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="238" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="14" t="s">
+    <row r="240" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B240" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C238" s="25" t="s">
+      <c r="C240" s="25" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="239" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="240" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="22" t="s">
-        <v>183</v>
+      <c r="B243" s="6" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="6" t="s">
-        <v>185</v>
+      <c r="B245" s="22" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B249" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C249" s="25" t="s">
-        <v>370</v>
+      <c r="B249" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="6" t="s">
-        <v>191</v>
+      <c r="B251" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C251" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B254" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B255" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="254" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B254" s="21" t="s">
+    <row r="256" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B256" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="C254" s="16" t="s">
+      <c r="C256" s="16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="21" t="s">
+    <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B257" s="21" t="s">
         <v>357</v>
       </c>
-      <c r="C255" s="16" t="s">
+      <c r="C257" s="16" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="23" t="s">
+    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B258" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C256" s="16" t="s">
+      <c r="C258" s="16" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B257" s="17" t="s">
+    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B259" s="17" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B258" s="17" t="s">
+    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B260" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C258" s="16" t="s">
+      <c r="C260" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="4" t="s">
+    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B262" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B261" s="6" t="s">
+    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B263" s="6" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="6" t="s">
+    <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B264" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="5" t="s">
+    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B265" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="264" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="6" t="s">
+    <row r="266" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="6" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="6" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B268" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B269" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B269" s="3" t="s">
+    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B271" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="4" t="s">
+    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B272" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="6" t="s">
+    <row r="273" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B273" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="6" t="s">
+    <row r="274" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B274" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="273" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="9"/>
-    </row>
-    <row r="274" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="4" t="s">
+    <row r="275" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B275" s="9"/>
+    </row>
+    <row r="276" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B276" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="275" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B275" s="6" t="s">
+    <row r="277" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B277" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="276" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="6" t="s">
+    <row r="278" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B278" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="277" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="3" t="s">
+    <row r="279" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B280" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="279" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="4" t="s">
+    <row r="281" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B281" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="15" t="s">
+    <row r="282" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B282" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="281" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="22" t="s">
+    <row r="283" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B283" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="282" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="26" t="s">
+    <row r="284" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C282" s="25" t="s">
+      <c r="C284" s="25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="283" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="26" t="s">
+    <row r="285" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C283" s="25" t="s">
+      <c r="C285" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="284" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="22" t="s">
+    <row r="286" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B286" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="285" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="28" t="s">
+    <row r="287" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B287" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="286" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="6"/>
-      <c r="D286" s="33"/>
-    </row>
-    <row r="287" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="288" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="4" t="s">
+      <c r="B288" s="6"/>
+      <c r="D288" s="32"/>
+    </row>
+    <row r="289" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B290" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="289" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="C289" s="25" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="290" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>374</v>
-      </c>
-      <c r="B290" s="27" t="s">
-        <v>372</v>
-      </c>
-      <c r="C290" s="25" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="291" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B291" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="C291" s="25" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>374</v>
+      </c>
+      <c r="B292" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="C292" s="25" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="14" t="s">
+    <row r="294" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B294" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C294" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="17" t="s">
+    <row r="295" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B295" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="22" t="s">
+    <row r="296" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C296" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="29" t="s">
+    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="29" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="296" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="C296" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="297" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="22" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="298" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B298" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="C298" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B299" s="22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C298" s="25" t="s">
+      <c r="C300" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="17" t="s">
+    <row r="301" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="17" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="17" t="s">
+    <row r="302" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B302" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C300" t="s">
+      <c r="C302" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="21" t="s">
+    <row r="303" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B303" s="21" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="6" t="s">
+    <row r="304" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B304" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="4" t="s">
+    <row r="305" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B305" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="22" t="s">
+    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B306" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C304" t="s">
+      <c r="C306" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="305" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="31" t="s">
+    <row r="307" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C305" s="25" t="s">
+      <c r="C307" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="6" t="s">
+    <row r="308" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B308" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C306" s="25" t="s">
+      <c r="C308" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="307" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="22" t="s">
+    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="308" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="30" t="s">
+    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="C310" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="3" t="s">
+    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B312" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="4" t="s">
+    <row r="313" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B313" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="312" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B312" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="313" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="6" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="314" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B314" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B316" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="315" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="6" t="s">
+    <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B317" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="316" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="5" t="s">
+    <row r="318" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B318" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="318" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="4" t="s">
+    <row r="319" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B320" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="319" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B319" s="6" t="s">
+    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B321" s="6" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B320" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B321" s="6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B322" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B323" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B324" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B324" s="3" t="s">
+    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B326" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="4" t="s">
+    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B327" s="4" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B326" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="327" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B328" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B331" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B332" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="3" t="s">
+    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B334" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B333" s="4" t="s">
+    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B335" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="6" t="s">
+    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="6" t="s">
         <v>243</v>
-      </c>
-    </row>
-    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B335" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B336" s="6" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B337" s="6" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B339" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B341" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B341" s="4" t="s">
+    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="342" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B342" s="5" t="s">
+    <row r="344" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B344" s="5" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B344" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B346" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="3" t="s">
+    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B349" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B348" s="4" t="s">
+    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B350" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B349" s="6" t="s">
+    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="6" t="s">
+    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C350" s="5" t="s">
+      <c r="C352" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="6" t="s">
+    <row r="353" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B353" s="6" t="s">
         <v>257</v>
-      </c>
-    </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B353" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C353" s="8" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C355" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="4" t="s">
+    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B358" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="5" t="s">
+    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B359" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B358" s="6" t="s">
+    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B360" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="6" t="s">
+    <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B361" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="360" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B360" s="6" t="s">
+    <row r="362" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="6" t="s">
         <v>265</v>
-      </c>
-    </row>
-    <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B361" s="5" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B362" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C362" s="6" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B363" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B364" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C364" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B365" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="3" t="s">
+    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B367" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="4" t="s">
+    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B368" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="5" t="s">
+    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B369" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="6" t="s">
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B370" s="6" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="6" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B372" s="5" t="s">
-        <v>277</v>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B372" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B373" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B374" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B375" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="3" t="s">
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B377" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="4" t="s">
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B378" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="5" t="s">
+    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B379" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="6" t="s">
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B380" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="10"/>
-    </row>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="4" t="s">
+    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B381" s="10"/>
+    </row>
+    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B382" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B383" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="6" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B391" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B392" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="391" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B391" s="6" t="s">
+    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B392" s="5" t="s">
+    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B394" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B393" s="6" t="s">
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B395" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="6" t="s">
+    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="3" t="s">
+    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B398" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B397" s="6" t="s">
+    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B399" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="3" t="s">
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B401" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="11" t="s">
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B402" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B401" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="407" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B409" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B411" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B412" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="4" t="s">
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B414" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B413" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B414" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B415" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B417" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B418" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="5" t="s">
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B419" s="5" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B418" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="422" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B422" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B422" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B426" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B427" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B427" s="4" t="s">
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B429" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B428" s="5" t="s">
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B430" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B429" s="6" t="s">
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B431" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="3" t="s">
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B433" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="4" t="s">
+    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B434" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B433" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B434" s="6" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B441" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B442" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B442" s="4" t="s">
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B444" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B447" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B448" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="5" t="s">
+    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B449" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B448" s="6" t="s">
+    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="6" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B449" s="6" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B450" s="6" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B452" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B453" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B453" s="3" t="s">
+    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B455" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B454" s="4" t="s">
+    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B456" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B455" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B457" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B458" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B459" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B458" s="12" t="s">
+    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B460" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B459" s="4"/>
-    </row>
-    <row r="460" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B460" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="461" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B461" s="5" t="s">
-        <v>348</v>
-      </c>
+    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B461" s="4"/>
     </row>
     <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B462" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B463" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="3"/>
-    </row>
-    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B466" s="19"/>
-    </row>
-    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B471" s="19"/>
+    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B467" s="3"/>
+    </row>
+    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B468" s="19"/>
+    </row>
+    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4096,279 +4146,279 @@
     <hyperlink ref="B51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B136" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B137" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B138" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B139" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B143" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B144" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B145" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B146" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B147" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B148" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B149" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B150" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B151" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B154" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B155" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B156" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B157" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B158" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B159" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B160" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B163" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B164" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B165" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B166" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B173" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B174" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B175" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B176" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B177" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B178" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B179" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B180" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B183" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B184" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B185" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B189" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B190" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B191" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B192" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B193" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B194" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B195" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B196" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B197" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B200" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B201" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B202" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B203" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B204" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B205" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B206" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B207" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B211" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B212" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B213" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B214" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B215" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B216" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B217" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B219" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B220" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B221" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B223" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B224" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B225" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B226" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B238" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B239" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B240" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B241" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B242" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B243" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B244" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B245" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B246" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B247" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B248" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B249" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B250" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B251" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B252" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B253" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B261" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B262" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B263" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B264" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B265" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B266" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B267" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B271" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B272" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B275" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B276" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B280" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B281" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B282" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B283" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B289" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B291" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B292" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B294" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B295" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B296" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B297" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B298" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B304" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B305" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B306" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B307" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B308" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B312" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B313" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B314" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B315" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B316" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B319" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B320" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B321" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B322" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B326" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B327" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B328" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B329" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B330" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B334" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B335" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B336" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B337" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B338" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B339" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B342" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B343" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B344" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B345" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B349" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B350" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C350" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B351" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B352" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C353" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B354" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B357" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B358" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B359" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B360" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B361" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B362" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C362" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B363" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B367" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B368" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B369" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B370" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B371" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B372" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B373" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B377" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B378" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B381" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B382" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B383" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B384" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B385" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B386" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B387" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B388" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B389" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B390" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B391" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B392" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B393" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B394" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B397" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B401" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B402" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B403" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B404" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B405" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B406" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B407" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B408" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B409" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B410" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B413" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B414" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B415" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B416" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B417" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B418" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B419" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B420" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B421" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B422" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B423" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B424" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B425" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B428" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B429" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B433" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B434" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B435" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B436" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B437" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B438" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B439" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B440" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B443" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B444" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B445" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B446" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B447" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B448" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B449" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B450" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B451" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B455" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B456" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B457" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B458" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B461" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B463" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B228" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B230" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B254" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B255" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B256" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B257" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B227" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B236" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B237" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B222" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
-    <hyperlink ref="B293" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
-    <hyperlink ref="B290" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
-    <hyperlink ref="B299" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
-    <hyperlink ref="B300" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
+    <hyperlink ref="B138" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B139" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B140" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B141" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B145" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B146" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B147" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B148" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B149" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B150" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B151" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B152" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B153" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B156" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B157" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B158" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B159" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B160" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B161" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B162" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B165" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B166" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B167" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B168" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B175" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B176" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B177" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B178" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B179" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B180" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B181" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B182" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B185" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B186" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B187" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B191" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B192" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B193" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B194" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B195" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B196" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B197" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B198" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B199" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B202" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B203" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B204" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B205" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B206" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B207" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B208" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B209" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B213" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B215" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B216" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B217" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B218" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B219" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B221" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B222" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B223" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B225" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B226" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B227" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B228" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B240" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B241" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B242" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B243" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B244" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B245" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B246" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B247" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B248" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B249" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B250" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B251" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B252" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B253" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B254" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B255" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B263" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B264" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B265" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B266" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B267" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B268" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B269" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B273" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B274" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B277" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B278" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B282" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B283" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B284" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B285" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B291" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B293" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B294" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B296" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B297" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B298" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B299" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B300" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B306" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B307" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B308" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B309" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B310" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B314" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B315" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B316" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B317" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B318" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B321" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B322" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B323" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B324" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B328" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B329" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B330" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B331" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B332" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B336" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B337" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B338" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B339" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B340" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B341" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B344" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B345" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B346" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B347" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B351" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B352" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C352" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B353" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B354" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C355" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B356" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B359" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B360" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B361" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B362" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B363" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B364" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C364" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B365" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B369" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B370" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B371" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B372" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B373" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B374" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B375" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B379" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B380" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B383" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B384" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B385" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B386" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B387" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B388" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B389" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B390" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B391" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B392" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B393" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B394" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B395" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B396" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B399" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B403" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B404" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B405" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B406" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B407" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B408" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B409" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B410" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B411" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B412" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B415" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B416" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B417" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B418" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B419" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B420" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B421" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B422" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B423" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B424" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B425" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B426" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B427" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B430" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B431" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B435" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B436" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B437" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B438" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B439" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B440" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B441" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B442" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B445" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B446" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B447" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B448" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B449" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B450" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B451" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B452" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B453" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B457" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B458" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B459" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B460" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B463" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B465" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B230" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B232" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B256" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B257" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B258" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B259" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B229" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B238" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B239" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B224" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
+    <hyperlink ref="B295" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
+    <hyperlink ref="B292" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
+    <hyperlink ref="B301" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
+    <hyperlink ref="B302" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
     <hyperlink ref="B66" r:id="rId279" xr:uid="{D1C5FD50-B888-454C-A7C2-CD17B99EF072}"/>
     <hyperlink ref="B77" r:id="rId280" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
     <hyperlink ref="B76" r:id="rId281" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
     <hyperlink ref="B74" r:id="rId282" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
-    <hyperlink ref="B135" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B134" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B133" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B130" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B129" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B128" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B127" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B126" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B125" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B124" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B123" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B122" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B121" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B120" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B117" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B116" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B115" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B114" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B113" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B109" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B108" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B107" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B106" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B105" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B104" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B103" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B102" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B101" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B100" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B99" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B98" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B97" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B96" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B95" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B137" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B136" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B135" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B132" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B131" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B130" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B129" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B128" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B127" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B126" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B125" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B124" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B123" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B122" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B119" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B118" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B117" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B116" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B115" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B110" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B109" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B108" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B107" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B106" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B105" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B104" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B103" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B102" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B101" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B100" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B99" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B98" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B97" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B96" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="B92" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="B91" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="B90" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
@@ -4389,10 +4439,11 @@
     <hyperlink ref="B68" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="B69" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B65" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B301" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
-    <hyperlink ref="B93" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
+    <hyperlink ref="B303" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
+    <hyperlink ref="B94" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
+    <hyperlink ref="B111" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId339"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId340"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FF70CAE6-2BFD-48D1-A6D2-814DC7ADF744}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B60438C4-D2E1-4D8B-9870-206819586383}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="422">
   <si>
     <t>Arrays</t>
   </si>
@@ -1346,6 +1346,12 @@
   </si>
   <si>
     <t>Solve this using LCS</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindromic-subsequence/</t>
+  </si>
+  <si>
+    <t>use lcs only</t>
   </si>
 </sst>
 </file>
@@ -1550,7 +1556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1600,6 +1606,8 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1819,10 +1827,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D473"/>
+  <dimension ref="A1:D474"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B73" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C88" sqref="C88"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2118,7 +2126,7 @@
       </c>
     </row>
     <row r="63" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="26" t="s">
+      <c r="B63" s="17" t="s">
         <v>406</v>
       </c>
     </row>
@@ -2240,7 +2248,7 @@
       </c>
     </row>
     <row r="84" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="40" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2292,1814 +2300,1822 @@
         <v>418</v>
       </c>
     </row>
-    <row r="94" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="17" t="s">
+    <row r="94" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B94" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="C94" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="17" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="95" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B95" s="4" t="s">
+    <row r="96" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B96" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="97" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B97" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="98" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B98" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B99" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B100" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B101" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="102" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B102" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B103" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B104" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="105" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B105" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="106" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B106" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="107" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B107" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B108" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="109" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B109" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B110" s="39" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="110" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B110" s="6" t="s">
+    <row r="111" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B111" s="6" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="111" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="17" t="s">
+    <row r="112" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B112" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="C111" s="25" t="s">
+      <c r="C112" s="25" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="112" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="35" t="s">
+    <row r="113" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="35" t="s">
         <v>414</v>
       </c>
-      <c r="C112" s="25" t="s">
+      <c r="C113" s="25" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B113" s="3" t="s">
+    <row r="114" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B114" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B114" s="4" t="s">
+    <row r="115" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B115" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B115" s="6" t="s">
+    <row r="116" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
+    <row r="117" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B117" s="6" t="s">
+    <row r="118" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B118" s="6" t="s">
+    <row r="119" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
+    <row r="120" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B120" s="6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B121" s="4" t="s">
+    <row r="122" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B122" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B122" s="6" t="s">
+    <row r="123" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B123" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
+    <row r="124" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B124" s="6" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
+    <row r="125" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B125" s="6" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="6" t="s">
+    <row r="126" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B126" s="6" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="6" t="s">
+    <row r="127" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B127" s="6" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="6" t="s">
+    <row r="128" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="6" t="s">
+    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="5" t="s">
+    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B130" s="5" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B134" s="4" t="s">
+    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B135" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B135" s="5" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B136" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B137" s="5" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B137" s="6" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B142" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="3" t="s">
+    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B144" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B144" s="4" t="s">
+    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B145" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B145" s="5" t="s">
+    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B146" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B146" s="6" t="s">
+    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B147" s="6" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B147" s="5" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B148" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B152" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B153" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B154" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="4" t="s">
+    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B156" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B157" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B158" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B160" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B164" s="4" t="s">
+    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B165" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B165" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B166" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B167" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B168" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B169" s="6" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="3" t="s">
+    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B171" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="4" t="s">
+    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B172" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="7" t="s">
+    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B173" s="7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="4" t="s">
+    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B175" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B175" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B178" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B180" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B181" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B182" s="6" t="s">
+    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B183" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="184" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B184" s="4" t="s">
+    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B185" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B185" s="5" t="s">
+    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B186" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B186" s="6" t="s">
+    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B187" s="6" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B187" s="5" t="s">
+    <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B188" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B189" s="3" t="s">
+    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B190" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B190" s="4" t="s">
+    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B191" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B191" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B193" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B196" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B197" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="8" t="s">
+    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B199" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="5" t="s">
+    <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B201" s="4" t="s">
+    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B202" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B202" s="5" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B204" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B209" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B210" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="211" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B211" s="3" t="s">
+    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B212" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="4" t="s">
+    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B213" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="22" t="s">
+    <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B214" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="6" t="s">
+    <row r="215" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B215" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B215" s="5" t="s">
+    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="6" t="s">
+    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B217" s="6" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B218" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="6" t="s">
+    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="14" t="s">
+    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B221" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C221" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="15" t="s">
+    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B222" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="22" t="s">
+    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B223" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C222" s="25" t="s">
+      <c r="C223" s="25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="5" t="s">
+    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="17" t="s">
+    <row r="225" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B225" s="17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="225" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="14" t="s">
+    <row r="226" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B226" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="226" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="5" t="s">
+    <row r="227" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="227" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="6" t="s">
+    <row r="228" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
         <v>173</v>
-      </c>
-    </row>
-    <row r="228" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="15" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="229" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B229" s="15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="230" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B230" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="230" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B230" s="17" t="s">
+    <row r="231" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B231" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C230" s="16" t="s">
+      <c r="C231" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="231" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="17" t="s">
+    <row r="232" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C231" s="18" t="s">
+      <c r="C232" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B232" s="17" t="s">
+    <row r="233" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B233" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C232" s="16" t="s">
+      <c r="C233" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="233" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D233" s="16"/>
-    </row>
-    <row r="234" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D234" s="16"/>
+    </row>
     <row r="235" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B236" s="4" t="s">
+    <row r="236" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B237" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="237" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="24" t="s">
+    <row r="238" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B238" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="238" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="5" t="s">
+    <row r="239" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="22" t="s">
+    <row r="240" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B240" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="14" t="s">
+    <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B241" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C240" s="25" t="s">
+      <c r="C241" s="25" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B245" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="22" t="s">
+    <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B246" s="22" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B246" s="6" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B247" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B248" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B249" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B251" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="26" t="s">
+    <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B252" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C251" s="25" t="s">
+      <c r="C252" s="25" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B252" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B255" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B256" s="6" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="256" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B256" s="21" t="s">
+    <row r="257" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B257" s="21" t="s">
         <v>356</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B257" s="21" t="s">
-        <v>357</v>
       </c>
       <c r="C257" s="16" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B258" s="23" t="s">
+      <c r="B258" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B259" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C258" s="16" t="s">
+      <c r="C259" s="16" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B260" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B261" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C260" s="16" t="s">
+      <c r="C261" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="4" t="s">
+    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B263" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B265" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="5" t="s">
+    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B266" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="266" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="6" t="s">
+    <row r="267" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="6" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B267" s="6" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B270" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="3" t="s">
+    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B272" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="4" t="s">
+    <row r="273" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B273" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="6" t="s">
+    <row r="274" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B274" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="274" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="6" t="s">
+    <row r="275" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B275" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="275" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B275" s="9"/>
-    </row>
-    <row r="276" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="4" t="s">
+    <row r="276" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B276" s="9"/>
+    </row>
+    <row r="277" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B277" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="277" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="6" t="s">
+    <row r="278" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B278" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="278" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="6" t="s">
+    <row r="279" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B279" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="279" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B280" s="3" t="s">
+    <row r="280" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B281" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="281" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="4" t="s">
+    <row r="282" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B282" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="15" t="s">
+    <row r="283" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="283" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="22" t="s">
+    <row r="284" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="284" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="26" t="s">
+    <row r="285" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C284" s="25" t="s">
+      <c r="C285" s="25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="285" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="26" t="s">
+    <row r="286" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B286" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C285" s="25" t="s">
+      <c r="C286" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="286" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="22" t="s">
+    <row r="287" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B287" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="287" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="28" t="s">
+    <row r="288" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B288" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="288" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="6"/>
-      <c r="D288" s="32"/>
-    </row>
-    <row r="289" spans="1:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="4" t="s">
+    <row r="289" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B289" s="6"/>
+      <c r="D289" s="32"/>
+    </row>
+    <row r="290" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B291" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="22" t="s">
+    <row r="292" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C291" s="25" t="s">
+      <c r="C292" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
+    <row r="293" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
         <v>374</v>
       </c>
-      <c r="B292" s="27" t="s">
+      <c r="B293" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C292" s="25" t="s">
+      <c r="C293" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="22" t="s">
+    <row r="294" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B294" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="14" t="s">
+    <row r="295" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B295" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C295" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="17" t="s">
+    <row r="296" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="22" t="s">
+    <row r="297" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B297" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C297" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="29" t="s">
+    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B298" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="14" t="s">
+    <row r="299" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B299" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C299" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="22" t="s">
+    <row r="300" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="14" t="s">
+    <row r="301" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C300" s="25" t="s">
+      <c r="C301" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="17" t="s">
+    <row r="302" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B302" s="17" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="17" t="s">
+    <row r="303" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B303" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C302" t="s">
+      <c r="C303" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="21" t="s">
+    <row r="304" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B304" s="21" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="6" t="s">
+    <row r="305" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B305" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="305" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="4" t="s">
+    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B306" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="22" t="s">
+    <row r="307" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B307" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C306" t="s">
+      <c r="C307" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="307" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="31" t="s">
+    <row r="308" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B308" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C307" s="25" t="s">
+      <c r="C308" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="308" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="6" t="s">
+    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="C309" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="22" t="s">
+    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="30" t="s">
+    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B311" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C310" s="25" t="s">
+      <c r="C311" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="312" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B312" s="3" t="s">
+    <row r="312" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B313" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="313" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="4" t="s">
+    <row r="314" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B314" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="314" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="6" t="s">
+    <row r="315" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B315" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="315" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="6" t="s">
+    <row r="316" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B316" s="6" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="316" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="6" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B317" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B318" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="318" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="5" t="s">
+    <row r="319" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B319" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="319" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B320" s="4" t="s">
+    <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B321" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="321" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B321" s="6" t="s">
+    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B322" s="6" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="322" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B322" s="6" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B323" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B324" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B325" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B326" s="3" t="s">
+    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B327" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B327" s="4" t="s">
+    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B328" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B328" s="6" t="s">
+    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B329" s="6" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B329" s="6" t="s">
+    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="6" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B330" s="6" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B333" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="3" t="s">
+    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B335" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B335" s="4" t="s">
+    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="6" t="s">
+    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B337" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="6" t="s">
+    <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B338" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="338" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B338" s="6" t="s">
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B339" s="6" t="s">
+    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="6" t="s">
+    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B341" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B341" s="6" t="s">
+    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B342" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="4" t="s">
+    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B344" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="344" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B344" s="5" t="s">
+    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B345" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B345" s="6" t="s">
+    <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B346" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B346" s="6" t="s">
+    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="6" t="s">
+    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B348" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B349" s="3" t="s">
+    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B350" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="4" t="s">
+    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="6" t="s">
+    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="6" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="6" t="s">
+    <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B353" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="C352" s="5" t="s">
+      <c r="C353" s="5" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="353" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="6" t="s">
+    <row r="354" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B354" s="5" t="s">
+    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="20" t="s">
+    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C355" s="8" t="s">
+      <c r="C356" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="5" t="s">
+    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B357" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B358" s="4" t="s">
+    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B359" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="5" t="s">
+    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B360" s="5" t="s">
         <v>262</v>
-      </c>
-    </row>
-    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B362" s="6" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="362" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B362" s="6" t="s">
+    <row r="363" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B363" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B363" s="5" t="s">
+    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B364" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="6" t="s">
+    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B365" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C364" s="6" t="s">
+      <c r="C365" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="5" t="s">
+    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B366" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="3" t="s">
+    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B368" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="4" t="s">
+    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B369" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="5" t="s">
+    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B370" s="5" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B371" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B372" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="372" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B372" s="6" t="s">
+    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B373" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="373" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B373" s="6" t="s">
+    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B374" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B374" s="5" t="s">
+    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B375" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="6" t="s">
+    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B376" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="3" t="s">
+    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B378" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="4" t="s">
+    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B379" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="5" t="s">
+    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B380" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="6" t="s">
+    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B381" s="6" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="10"/>
-    </row>
     <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="4" t="s">
+      <c r="B382" s="10"/>
+    </row>
+    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B383" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B383" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B384" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B390" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B392" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B393" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="393" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B393" s="6" t="s">
+    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B394" s="5" t="s">
+    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B395" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="6" t="s">
+    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B396" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="396" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B396" s="6" t="s">
+    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B397" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="3" t="s">
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B399" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="6" t="s">
+    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B400" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B401" s="3" t="s">
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B402" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="11" t="s">
+    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B403" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B403" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B409" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="6" t="s">
+    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B410" s="6" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B412" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B413" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B414" s="4" t="s">
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B415" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B415" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B416" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B419" s="6" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B421" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B421" s="6" t="s">
+    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B422" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B422" s="5" t="s">
+    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B423" s="5" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B423" s="6" t="s">
+    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B424" s="6" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="6" t="s">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="6" t="s">
         <v>318</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B425" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B427" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B428" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B429" s="4" t="s">
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B430" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="5" t="s">
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B431" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="6" t="s">
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B432" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B433" s="3" t="s">
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B434" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B434" s="4" t="s">
+    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B435" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B435" s="6" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="6" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B439" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="6" t="s">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="6" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B440" s="6" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B443" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="4" t="s">
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B445" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B445" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B446" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B447" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B448" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B449" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B449" s="5" t="s">
+    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B450" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="450" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B450" s="6" t="s">
+    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B451" s="6" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B451" s="6" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B454" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B455" s="3" t="s">
+    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B456" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="4" t="s">
+    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B457" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B457" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B458" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B460" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B460" s="12" t="s">
+    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B461" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B461" s="4"/>
-    </row>
-    <row r="462" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B462" s="3" t="s">
+    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B462" s="4"/>
+    </row>
+    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B463" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B463" s="5" t="s">
+    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B464" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="3" t="s">
+    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B465" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="5" t="s">
+    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B466" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B467" s="3"/>
-    </row>
     <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B468" s="19"/>
-    </row>
-    <row r="473" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="19"/>
+      <c r="B468" s="3"/>
+    </row>
+    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="19"/>
+    </row>
+    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4146,279 +4162,279 @@
     <hyperlink ref="B51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B138" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B139" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B140" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B141" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B145" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B146" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B147" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B148" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B149" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B150" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B151" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B152" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B153" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B156" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B157" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B158" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B159" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B160" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B161" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B162" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B165" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B166" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B167" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B168" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B175" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B176" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B177" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B178" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B179" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B180" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B181" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B182" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B185" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B186" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B187" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B191" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B192" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B193" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B194" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B195" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B196" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B197" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B198" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B199" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B202" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B203" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B204" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B205" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B206" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B207" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B208" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B209" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B213" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B214" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B215" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B216" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B217" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B218" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B219" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B221" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B222" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B223" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B225" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B226" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B227" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B228" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B240" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B241" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B242" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B243" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B244" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B245" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B246" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B247" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B248" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B249" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B250" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B251" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B252" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B253" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B254" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B255" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B263" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B264" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B265" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B266" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B267" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B268" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B269" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B273" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B274" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B277" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B278" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B282" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B283" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B284" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B285" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B291" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B293" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B294" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B296" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B297" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B298" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B299" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B300" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B306" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B307" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B308" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B309" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B310" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B314" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B315" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B316" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B317" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B318" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B321" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B322" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B323" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B324" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B328" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B329" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B330" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B331" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B332" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B336" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B337" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B338" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B339" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B340" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B341" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B344" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B345" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B346" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B347" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B351" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B352" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C352" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B353" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B354" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C355" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B356" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B359" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B360" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B361" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B362" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B363" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B364" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C364" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B365" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B369" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B370" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B371" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B372" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B373" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B374" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B375" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B379" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B380" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B383" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B384" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B385" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B386" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B387" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B388" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B389" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B390" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B391" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B392" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B393" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B394" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B395" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B396" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B399" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B403" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B404" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B405" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B406" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B407" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B408" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B409" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B410" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B411" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B412" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B415" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B416" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B417" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B418" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B419" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B420" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B421" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B422" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B423" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B424" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B425" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B426" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B427" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B430" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B431" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B435" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B436" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B437" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B438" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B439" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B440" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B441" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B442" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B445" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B446" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B447" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B448" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B449" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B450" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B451" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B452" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B453" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B457" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B458" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B459" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B460" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B463" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B465" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B230" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B232" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B256" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B257" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B258" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B259" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B229" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B238" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B239" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B224" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
-    <hyperlink ref="B295" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
-    <hyperlink ref="B292" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
-    <hyperlink ref="B301" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
-    <hyperlink ref="B302" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
+    <hyperlink ref="B139" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B140" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B141" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B142" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B146" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B147" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B148" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B149" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B150" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B151" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B152" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B153" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B154" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B157" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B158" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B159" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B160" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B161" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B162" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B163" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B166" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B167" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B168" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B169" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B176" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B177" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B178" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B179" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B180" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B181" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B182" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B183" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B186" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B187" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B188" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B192" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B193" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B194" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B195" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B196" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B197" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B198" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B199" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B200" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B203" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B204" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B205" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B206" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B207" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B208" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B209" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B210" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B214" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B215" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B216" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B217" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B218" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B219" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B220" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B222" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B223" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B224" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B226" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B227" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B228" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B229" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B241" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B242" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B243" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B244" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B245" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B246" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B247" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B248" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B249" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B250" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B251" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B252" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B253" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B254" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B255" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B256" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B264" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B265" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B266" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B267" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B268" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B269" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B270" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B274" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B275" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B278" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B279" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B283" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B284" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B285" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B286" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B292" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B294" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B295" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B297" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B298" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B299" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B300" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B301" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B307" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B308" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B309" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B310" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B311" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B315" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B316" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B317" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B318" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B319" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B322" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B323" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B324" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B325" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B329" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B330" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B331" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B332" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B333" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B337" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B338" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B339" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B340" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B341" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B342" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B345" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B346" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B347" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B348" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B352" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B353" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C353" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B354" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B355" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C356" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B357" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B360" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B361" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B362" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B363" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B364" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B365" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C365" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B366" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B370" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B371" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B372" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B373" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B374" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B375" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B376" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B380" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B381" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B384" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B385" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B386" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B387" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B388" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B389" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B390" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B391" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B392" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B393" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B394" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B395" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B396" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B397" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B400" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B404" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B405" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B406" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B407" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B408" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B409" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B410" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B411" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B412" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B413" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B416" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B417" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B418" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B419" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B420" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B421" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B422" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B423" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B424" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B425" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B426" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B427" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B428" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B431" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B432" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B436" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B437" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B438" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B439" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B440" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B441" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B442" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B443" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B446" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B447" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B448" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B449" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B450" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B451" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B452" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B453" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B454" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B458" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B459" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B460" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B461" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B464" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B466" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B231" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B233" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B257" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B258" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B259" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B260" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B230" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B239" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B240" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B225" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
+    <hyperlink ref="B296" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
+    <hyperlink ref="B293" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
+    <hyperlink ref="B302" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
+    <hyperlink ref="B303" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
     <hyperlink ref="B66" r:id="rId279" xr:uid="{D1C5FD50-B888-454C-A7C2-CD17B99EF072}"/>
     <hyperlink ref="B77" r:id="rId280" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
     <hyperlink ref="B76" r:id="rId281" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
     <hyperlink ref="B74" r:id="rId282" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
-    <hyperlink ref="B137" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B136" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B135" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B132" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B131" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B130" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B129" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B128" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B127" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B126" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B125" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B124" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B123" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B122" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B119" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B118" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B117" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B116" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B115" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B110" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B109" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B108" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B107" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B106" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B105" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B104" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B103" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B102" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B101" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B100" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B99" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B98" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B97" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B96" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B138" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B137" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B136" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B133" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B132" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B131" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B130" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B129" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B128" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B127" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B126" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B125" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B124" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B123" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B120" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B119" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B118" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B117" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B116" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B111" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B110" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B109" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B108" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B107" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B106" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B105" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B104" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B103" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B102" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B101" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B100" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B99" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B98" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B97" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
     <hyperlink ref="B92" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
     <hyperlink ref="B91" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
     <hyperlink ref="B90" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
@@ -4439,11 +4455,12 @@
     <hyperlink ref="B68" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="B69" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B65" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B303" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
-    <hyperlink ref="B94" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
-    <hyperlink ref="B111" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
+    <hyperlink ref="B304" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
+    <hyperlink ref="B95" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
+    <hyperlink ref="B112" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
+    <hyperlink ref="B63" r:id="rId340" xr:uid="{74A357C6-1996-40A9-A1A0-8F4FFC6F43DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId340"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId341"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B60438C4-D2E1-4D8B-9870-206819586383}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47774F6-5554-465D-9FCC-5E0729374429}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="423">
   <si>
     <t>Arrays</t>
   </si>
@@ -1345,13 +1345,16 @@
     <t>https://www.geeksforgeeks.org/minimum-number-deletions-insertions-transform-one-string-another/</t>
   </si>
   <si>
-    <t>Solve this using LCS</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/longest-palindromic-subsequence/</t>
   </si>
   <si>
     <t>use lcs only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TO DO PROBLEMS: </t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/minimum-number-deletions-make-string-palindrome/</t>
   </si>
 </sst>
 </file>
@@ -1556,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1608,6 +1611,8 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1827,10 +1832,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D474"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2202,1921 +2207,1963 @@
       <c r="C75" s="25"/>
     </row>
     <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="36" t="s">
-        <v>393</v>
+      <c r="B76" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="37" t="s">
-        <v>392</v>
+      <c r="B77" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="38" t="s">
-        <v>53</v>
+      <c r="B78" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C78" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="36" t="s">
-        <v>54</v>
+      <c r="B79" s="22" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="6" t="s">
-        <v>55</v>
+      <c r="B80" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="C80" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="C81" t="s">
-        <v>411</v>
+      <c r="B81" s="17" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="C83" t="s">
-        <v>413</v>
-      </c>
-    </row>
+      <c r="B82" s="17" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="84" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="85" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
+      <c r="B84" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="86" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="38" t="s">
-        <v>61</v>
+      <c r="B86" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B87" s="6" t="s">
-        <v>62</v>
+      <c r="B87" s="35" t="s">
+        <v>414</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B88" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C88" t="s">
-        <v>419</v>
+      <c r="B88" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B89" s="6" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B90" s="6" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B91" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B92" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B95" s="42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="39" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="41"/>
+    </row>
+    <row r="104" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B105" s="38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B106" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B107" s="38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B109" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B110" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B92" s="38" t="s">
+    <row r="111" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B111" s="38" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B93" s="22" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="94" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B94" s="22" t="s">
-        <v>420</v>
-      </c>
-      <c r="C94" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="95" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="17" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="96" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="97" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B97" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B98" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B99" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="100" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B100" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="101" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B103" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="104" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B104" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="105" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B105" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="106" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B106" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="107" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B107" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B108" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="109" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B109" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="110" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B110" s="39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="111" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="112" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B112" s="17" t="s">
-        <v>416</v>
-      </c>
-      <c r="C112" s="25" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="113" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="35" t="s">
-        <v>414</v>
-      </c>
-      <c r="C113" s="25" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="114" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B114" s="3" t="s">
+    <row r="112" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B113" s="36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B114" s="37" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B115" s="38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B116" s="36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B118" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B119" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B125" s="41"/>
+    </row>
+    <row r="126" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B127" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="115" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B115" s="4" t="s">
+    <row r="128" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B128" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B116" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="117" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B117" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="118" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B118" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="119" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B119" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="120" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B120" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="122" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B122" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B123" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="124" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="125" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="126" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="127" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="128" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="129" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B129" s="6" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="5" t="s">
-        <v>96</v>
+      <c r="B130" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="131" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B131" s="6" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
     </row>
     <row r="132" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B132" s="6" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="133" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B133" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="135" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B135" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
     </row>
     <row r="136" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B136" s="5" t="s">
-        <v>100</v>
+      <c r="B136" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="137" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B137" s="5" t="s">
-        <v>101</v>
+      <c r="B137" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B138" s="6" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B139" s="6" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B140" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="141" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B141" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B142" s="6" t="s">
-        <v>106</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B144" s="3" t="s">
-        <v>107</v>
+      <c r="B144" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="145" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B145" s="4" t="s">
-        <v>1</v>
+      <c r="B145" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="146" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B146" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B147" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
+      <c r="B146" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="148" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B148" s="5" t="s">
-        <v>110</v>
+      <c r="B148" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="149" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B149" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B150" s="5" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B151" s="5" t="s">
-        <v>113</v>
+      <c r="B151" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="152" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B152" s="5" t="s">
-        <v>114</v>
+      <c r="B152" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="153" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="5" t="s">
-        <v>115</v>
+      <c r="B153" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="154" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="B154" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B155" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="157" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B157" s="5" t="s">
-        <v>117</v>
+      <c r="B157" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="158" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B158" s="5" t="s">
-        <v>118</v>
+      <c r="B158" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B159" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="160" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B160" s="5" t="s">
-        <v>120</v>
+      <c r="B160" s="6" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B161" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B162" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B164" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B165" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B166" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B167" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B169" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B163" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B165" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B166" s="6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B169" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B175" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="178" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="5" t="s">
-        <v>133</v>
+      <c r="B178" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B179" s="5" t="s">
-        <v>134</v>
+      <c r="B179" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="180" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B180" s="5" t="s">
-        <v>135</v>
+      <c r="B180" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="181" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B181" s="5" t="s">
-        <v>136</v>
+      <c r="B181" s="6" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B182" s="5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B183" s="6" t="s">
-        <v>138</v>
+      <c r="B182" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B184" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B185" s="4" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B186" s="5" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B187" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
+      <c r="B186" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="188" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B188" s="5" t="s">
-        <v>141</v>
+      <c r="B188" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B189" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B190" s="3" t="s">
-        <v>142</v>
+      <c r="B190" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B191" s="4" t="s">
-        <v>14</v>
+      <c r="B191" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B192" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B193" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="194" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B194" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="195" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B195" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="196" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B197" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
+      <c r="B196" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="198" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="8" t="s">
-        <v>150</v>
+      <c r="B198" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="200" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B200" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B202" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B203" s="5" t="s">
-        <v>152</v>
+      <c r="B200" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B203" s="3" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="204" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B204" s="5" t="s">
-        <v>153</v>
+      <c r="B204" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="205" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B205" s="5" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="206" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B206" s="5" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="207" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B207" s="5" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="208" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B209" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B210" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B211" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B212" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B213" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B215" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B216" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B217" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B220" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="5" t="s">
+    <row r="222" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B222" s="5" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="210" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="5" t="s">
+    <row r="223" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="3" t="s">
+    <row r="224" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B225" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="4" t="s">
+    <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B226" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="22" t="s">
+    <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B227" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="215" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B215" s="6" t="s">
+    <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="5" t="s">
+    <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="6" t="s">
+    <row r="230" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B218" s="5" t="s">
+    <row r="231" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B231" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="5" t="s">
+    <row r="232" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B232" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="6" t="s">
+    <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B233" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="14" t="s">
+    <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B234" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C234" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="15" t="s">
+    <row r="235" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B235" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="22" t="s">
+    <row r="236" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B236" s="22" t="s">
         <v>169</v>
       </c>
-      <c r="C223" s="25" t="s">
+      <c r="C236" s="25" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="5" t="s">
+    <row r="237" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="225" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="17" t="s">
+    <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B238" s="17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="226" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="14" t="s">
+    <row r="239" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B239" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C239" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="227" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="5" t="s">
+    <row r="240" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B240" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="228" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="6" t="s">
+    <row r="241" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B241" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="229" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B229" s="15" t="s">
+    <row r="242" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B242" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="230" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B230" s="15" t="s">
+    <row r="243" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B243" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="231" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B231" s="17" t="s">
+    <row r="244" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B244" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="C231" s="16" t="s">
+      <c r="C244" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="232" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B232" s="17" t="s">
+    <row r="245" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B245" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="C232" s="18" t="s">
+      <c r="C245" s="18" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="233" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="17" t="s">
+    <row r="246" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B246" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C233" s="16" t="s">
+      <c r="C246" s="16" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="234" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="D234" s="16"/>
-    </row>
-    <row r="235" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="4" t="s">
+    <row r="247" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="D247" s="16"/>
+    </row>
+    <row r="248" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B250" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="238" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="24" t="s">
+    <row r="251" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B251" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="239" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="5" t="s">
+    <row r="252" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B252" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="240" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="22" t="s">
+    <row r="253" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B253" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="14" t="s">
+    <row r="254" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B254" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C241" s="25" t="s">
+      <c r="C254" s="25" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="6" t="s">
+    <row r="255" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B255" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="6" t="s">
+    <row r="256" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B256" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B244" s="6" t="s">
+    <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B257" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="6" t="s">
+    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B258" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B246" s="22" t="s">
+    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B259" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B247" s="6" t="s">
+    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B260" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="6" t="s">
+    <row r="261" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="6" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B249" s="6" t="s">
+    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B262" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B250" s="6" t="s">
+    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B263" s="6" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B252" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="C252" s="25" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="257" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B257" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B258" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="C258" s="16" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="23" t="s">
-        <v>183</v>
-      </c>
-      <c r="C259" s="16" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="17" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B261" s="17" t="s">
-        <v>366</v>
-      </c>
-      <c r="C261" s="16" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="6" t="s">
-        <v>195</v>
+      <c r="B265" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="C265" s="25" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="267" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="6" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
     </row>
     <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="6" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B270" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B271" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
     <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="3" t="s">
-        <v>201</v>
+      <c r="B272" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="273" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="4" t="s">
-        <v>1</v>
+      <c r="B273" s="17" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="274" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="275" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B275" s="6" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="276" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B276" s="9"/>
+      <c r="B274" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B276" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="277" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="4" t="s">
-        <v>14</v>
+      <c r="B277" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="278" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B279" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B280" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B281" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B282" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B283" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B285" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B286" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B287" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B288" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B289" s="9"/>
+    </row>
+    <row r="290" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B290" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="291" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B291" s="6" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="279" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="6" t="s">
+    <row r="292" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B292" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="280" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="3" t="s">
+    <row r="293" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B294" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="282" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="4" t="s">
+    <row r="295" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B295" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="15" t="s">
+    <row r="296" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="284" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="22" t="s">
+    <row r="297" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B297" s="22" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="285" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="26" t="s">
+    <row r="298" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B298" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="C285" s="25" t="s">
+      <c r="C298" s="25" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="286" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="26" t="s">
+    <row r="299" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B299" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C286" s="25" t="s">
+      <c r="C299" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="287" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="22" t="s">
+    <row r="300" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="288" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="28" t="s">
+    <row r="301" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="6"/>
-      <c r="D289" s="32"/>
-    </row>
-    <row r="290" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="291" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="4" t="s">
+    <row r="302" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B302" s="6"/>
+      <c r="D302" s="32"/>
+    </row>
+    <row r="303" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B304" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="22" t="s">
+    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C292" s="25" t="s">
+      <c r="C305" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
+    <row r="306" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
         <v>374</v>
       </c>
-      <c r="B293" s="27" t="s">
+      <c r="B306" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C293" s="25" t="s">
+      <c r="C306" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="22" t="s">
+    <row r="307" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B307" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="14" t="s">
+    <row r="308" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B308" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C308" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="17" t="s">
+    <row r="309" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="22" t="s">
+    <row r="310" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C310" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B298" s="29" t="s">
+    <row r="311" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B311" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="14" t="s">
+    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C299" t="s">
+      <c r="C312" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="22" t="s">
+    <row r="313" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B313" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="14" t="s">
+    <row r="314" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B314" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C301" s="25" t="s">
+      <c r="C314" s="25" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="17" t="s">
+    <row r="315" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B315" s="17" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="17" t="s">
+    <row r="316" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B316" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C303" t="s">
+      <c r="C316" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="21" t="s">
+    <row r="317" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B317" s="21" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="305" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="6" t="s">
+    <row r="318" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B318" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="4" t="s">
+    <row r="319" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B319" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="307" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="22" t="s">
+    <row r="320" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B320" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C307" t="s">
+      <c r="C320" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="308" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="31" t="s">
+    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B321" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C308" s="25" t="s">
+      <c r="C321" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="6" t="s">
+    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B322" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C309" s="25" t="s">
+      <c r="C322" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="22" t="s">
+    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B323" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="30" t="s">
+    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B324" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C311" s="25" t="s">
+      <c r="C324" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="312" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="3" t="s">
+    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B326" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="314" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="4" t="s">
+    <row r="327" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B327" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="315" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="6" t="s">
+    <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B328" s="6" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="316" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B316" s="6" t="s">
+    <row r="329" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B329" s="6" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="6" t="s">
+    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B330" s="6" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="318" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="6" t="s">
+    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B331" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="319" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="5" t="s">
+    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B332" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="321" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B321" s="4" t="s">
+    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B334" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="322" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B322" s="6" t="s">
+    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B335" s="6" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="323" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="6" t="s">
+    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="324" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B324" s="6" t="s">
+    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="6" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="325" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="6" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="326" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="327" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B327" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="328" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B328" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="329" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B329" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="330" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B330" s="6" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="331" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B331" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="332" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="6" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="333" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B333" s="6" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="334" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="335" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B335" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="336" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="6" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="6" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="6" t="s">
-        <v>246</v>
+      <c r="B340" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B341" s="6" t="s">
-        <v>247</v>
+      <c r="B341" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B342" s="6" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
     <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B344" s="4" t="s">
-        <v>41</v>
+      <c r="B344" s="6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B345" s="5" t="s">
-        <v>249</v>
+      <c r="B345" s="6" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="6" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="6" t="s">
-        <v>251</v>
-      </c>
-    </row>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B348" s="6" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B348" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B349" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
     <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="4" t="s">
-        <v>1</v>
+      <c r="B350" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B351" s="6" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B352" s="6" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B353" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C353" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="354" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="6" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="C356" s="8" t="s">
-        <v>260</v>
-      </c>
-    </row>
+      <c r="B355" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="4" t="s">
-        <v>14</v>
+      <c r="B357" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B358" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B359" s="6" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="5" t="s">
-        <v>262</v>
+      <c r="B360" s="6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B361" s="6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B362" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="363" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B363" s="6" t="s">
-        <v>265</v>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B363" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="5" t="s">
-        <v>266</v>
+      <c r="B364" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B365" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B366" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C366" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B367" s="6" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B368" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B369" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C369" s="8" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B370" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="372" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B372" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B373" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B374" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B375" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B376" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B377" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B378" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C365" s="6" t="s">
+      <c r="C378" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="5" t="s">
+    <row r="379" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B379" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="3" t="s">
+    <row r="380" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="381" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B381" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="369" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="4" t="s">
+    <row r="382" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B382" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="370" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="5" t="s">
+    <row r="383" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B383" s="5" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="371" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B371" s="6" t="s">
+    <row r="384" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B384" s="6" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="372" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B372" s="6" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="373" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B373" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="374" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B374" s="6" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="375" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="376" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="6" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="378" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="3" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="5" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="10"/>
-    </row>
-    <row r="383" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B383" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="384" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B384" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="6" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B388" s="6" t="s">
-        <v>286</v>
+      <c r="B388" s="5" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B390" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
+        <v>278</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B391" s="6" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="392" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B392" s="6" t="s">
-        <v>290</v>
+      <c r="B391" s="3" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B392" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B393" s="6" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="394" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B393" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B394" s="6" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
     </row>
     <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="5" t="s">
-        <v>293</v>
-      </c>
+      <c r="B395" s="10"/>
     </row>
     <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="6" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="397" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B396" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B397" s="6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B398" s="6" t="s">
+        <v>283</v>
+      </c>
+    </row>
     <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="3" t="s">
-        <v>296</v>
+      <c r="B399" s="6" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="6" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="3" t="s">
-        <v>298</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B401" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B402" s="6" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B403" s="11" t="s">
-        <v>1</v>
+      <c r="B403" s="6" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="6" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B408" s="6" t="s">
-        <v>303</v>
+      <c r="B408" s="5" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="6" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B411" s="6" t="s">
-        <v>306</v>
-      </c>
-    </row>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="6" t="s">
-        <v>307</v>
+      <c r="B412" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B413" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
     </row>
     <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B415" s="4" t="s">
-        <v>14</v>
+      <c r="B415" s="3" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="6" t="s">
-        <v>309</v>
+      <c r="B416" s="11" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B417" s="6" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="6" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="6" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="5" t="s">
-        <v>313</v>
+      <c r="B420" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B421" s="5" t="s">
-        <v>314</v>
+      <c r="B421" s="6" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B423" s="5" t="s">
-        <v>316</v>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B423" s="6" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B426" s="6" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B427" s="6" t="s">
-        <v>320</v>
-      </c>
-    </row>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B428" s="6" t="s">
-        <v>321</v>
+      <c r="B428" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B429" s="6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="4" t="s">
-        <v>41</v>
+      <c r="B430" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="5" t="s">
-        <v>322</v>
+      <c r="B431" s="6" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="6" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B433" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B434" s="3" t="s">
-        <v>324</v>
+      <c r="B434" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B435" s="4" t="s">
-        <v>14</v>
+      <c r="B435" s="6" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B436" s="6" t="s">
-        <v>325</v>
+      <c r="B436" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B437" s="6" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B439" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B440" s="6" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B442" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B443" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B444" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
     <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B445" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B446" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
+      <c r="B445" s="6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="6" t="s">
-        <v>333</v>
+      <c r="B447" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B448" s="6" t="s">
-        <v>334</v>
+      <c r="B448" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="6" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
     </row>
     <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B450" s="5" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="451" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B450" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="6" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="454" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B455" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
     <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B457" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="458" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B458" s="6" t="s">
-        <v>343</v>
+      <c r="B456" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B458" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="6" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B461" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B462" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B463" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B464" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B465" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B466" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B467" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B470" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B471" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B472" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B473" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B461" s="12" t="s">
+    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B474" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B462" s="4"/>
-    </row>
-    <row r="463" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B463" s="3" t="s">
+    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B475" s="4"/>
+    </row>
+    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B476" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B464" s="5" t="s">
+    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B477" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B465" s="3" t="s">
+    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B478" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B466" s="5" t="s">
+    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B479" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="468" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B468" s="3"/>
-    </row>
-    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="19"/>
-    </row>
-    <row r="474" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="19"/>
-    </row>
+    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B481" s="3"/>
+    </row>
+    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B482" s="19"/>
+    </row>
+    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B487" s="19"/>
+    </row>
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4162,302 +4209,302 @@
     <hyperlink ref="B51" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
     <hyperlink ref="B52" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
     <hyperlink ref="B53" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B139" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="B140" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="B141" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="B142" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="B146" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="B147" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="B148" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="B149" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="B150" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="B151" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="B152" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="B153" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="B154" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="B157" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="B158" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="B159" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="B160" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="B161" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="B162" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="B163" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="B166" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="B167" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="B168" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="B169" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="B176" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="B177" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="B178" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="B179" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="B180" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="B181" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="B182" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="B183" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="B186" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="B187" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="B188" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="B192" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="B193" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="B194" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="B195" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="B196" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="B197" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="B198" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="B199" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="B200" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="B203" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="B204" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="B205" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="B206" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="B207" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="B208" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="B209" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
-    <hyperlink ref="B210" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
-    <hyperlink ref="B214" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
-    <hyperlink ref="B215" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
-    <hyperlink ref="B216" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
-    <hyperlink ref="B217" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
-    <hyperlink ref="B218" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
-    <hyperlink ref="B219" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
-    <hyperlink ref="B220" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
-    <hyperlink ref="B222" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
-    <hyperlink ref="B223" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
-    <hyperlink ref="B224" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
-    <hyperlink ref="B226" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
-    <hyperlink ref="B227" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
-    <hyperlink ref="B228" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
-    <hyperlink ref="B229" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B241" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B242" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B243" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B244" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B245" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B246" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B247" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B248" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B249" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B250" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B251" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B252" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B253" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B254" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B255" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B256" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B264" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B265" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B266" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B267" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B268" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B269" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B270" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B274" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B275" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B278" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B279" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B283" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B284" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B285" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B286" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B292" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B294" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B295" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B297" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B298" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B299" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B300" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B301" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B307" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B308" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B309" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B310" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B311" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B315" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B316" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B317" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B318" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B319" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B322" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B323" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B324" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B325" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B329" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B330" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B331" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B332" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B333" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B337" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B338" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B339" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B340" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B341" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B342" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B345" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B346" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B347" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B348" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B352" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B353" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C353" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B354" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B355" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C356" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B357" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B360" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B361" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B362" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B363" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B364" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B365" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C365" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B366" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B370" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B371" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B372" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B373" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B374" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B375" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B376" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B380" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B381" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B384" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B385" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B386" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B387" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B388" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B389" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B390" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B391" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B392" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B393" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B394" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B395" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B396" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B397" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B400" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B404" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B405" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B406" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B407" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B408" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B409" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B410" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B411" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B412" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B413" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B416" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B417" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B418" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B419" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B420" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B421" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B422" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B423" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B424" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B425" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B426" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B427" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B428" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B431" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B432" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B436" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B437" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B438" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B439" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B440" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B441" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B442" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B443" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B446" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B447" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B448" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B449" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B450" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B451" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B452" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B453" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B454" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B458" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B459" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B460" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B461" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B464" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B466" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
-    <hyperlink ref="B231" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
-    <hyperlink ref="B233" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B257" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B258" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B259" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B260" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
-    <hyperlink ref="B230" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B239" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B240" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
-    <hyperlink ref="B225" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
-    <hyperlink ref="B296" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
-    <hyperlink ref="B293" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
-    <hyperlink ref="B302" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
-    <hyperlink ref="B303" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
+    <hyperlink ref="B152" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="B153" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="B154" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="B155" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="B159" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B160" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="B161" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="B162" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="B163" r:id="rId52" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="B164" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="B165" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="B166" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="B167" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="B170" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="B171" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B172" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="B173" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="B174" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="B175" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="B176" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="B179" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="B180" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="B181" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="B182" r:id="rId67" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="B189" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B190" r:id="rId69" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="B191" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="B192" r:id="rId71" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B193" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="B194" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="B195" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="B196" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="B199" r:id="rId76" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="B200" r:id="rId77" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="B201" r:id="rId78" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="B205" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="B206" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B207" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="B208" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="B209" r:id="rId83" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="B210" r:id="rId84" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="B211" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="B212" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B213" r:id="rId87" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="B216" r:id="rId88" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="B217" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B218" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="B219" r:id="rId91" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="B220" r:id="rId92" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="B221" r:id="rId93" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="B222" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="B223" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B227" r:id="rId96" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="B228" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B229" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="B230" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="B231" r:id="rId100" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B232" r:id="rId101" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="B233" r:id="rId102" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="B235" r:id="rId103" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="B236" r:id="rId104" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="B237" r:id="rId105" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="B239" r:id="rId106" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B240" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="B241" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="B242" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="B254" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B255" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B256" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B257" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B258" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B259" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B260" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B261" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B262" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B263" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B264" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B265" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B266" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B267" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B268" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B269" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B277" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B278" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B279" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B280" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B281" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B282" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B283" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B287" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B288" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B291" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B292" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B296" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B297" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B298" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B299" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B305" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B307" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B308" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B310" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B311" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B312" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B313" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B314" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B320" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B321" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B322" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B323" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B324" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B328" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B329" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B330" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B331" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B332" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B335" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B336" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B337" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B338" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B342" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B343" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B344" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B345" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B346" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B350" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B351" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B352" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B353" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B354" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B355" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B358" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B359" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B360" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B361" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B365" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B366" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C366" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B367" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B368" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C369" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B370" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B373" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B374" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B375" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B376" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B377" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B378" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C378" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B379" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B383" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B384" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B385" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B386" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B387" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B388" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B389" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B393" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B394" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B397" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B398" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B399" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B400" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B401" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B402" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B403" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B404" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B405" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B406" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B407" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B408" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B409" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B410" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B413" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B417" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B418" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B419" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B420" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B421" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B422" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B423" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B424" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B425" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B426" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B429" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B430" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B431" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B432" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B433" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B434" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B435" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B436" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B437" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B438" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B439" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B440" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B441" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B444" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B445" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B449" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B450" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B451" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B452" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B453" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B454" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B455" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B456" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B459" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B460" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B461" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B462" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B463" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B464" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B465" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B466" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B467" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B471" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B472" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B473" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B474" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B477" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B479" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B244" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
+    <hyperlink ref="B246" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
+    <hyperlink ref="B270" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B271" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B272" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B273" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B243" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="B252" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B253" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B238" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
+    <hyperlink ref="B309" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
+    <hyperlink ref="B306" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
+    <hyperlink ref="B315" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
+    <hyperlink ref="B316" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
     <hyperlink ref="B66" r:id="rId279" xr:uid="{D1C5FD50-B888-454C-A7C2-CD17B99EF072}"/>
-    <hyperlink ref="B77" r:id="rId280" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
-    <hyperlink ref="B76" r:id="rId281" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
+    <hyperlink ref="B114" r:id="rId280" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
+    <hyperlink ref="B113" r:id="rId281" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
     <hyperlink ref="B74" r:id="rId282" xr:uid="{F6BD9558-9483-474C-BC3C-1D555BAA16C5}"/>
-    <hyperlink ref="B138" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="B137" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="B136" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="B133" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B132" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="B131" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="B130" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="B129" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="B128" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B127" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B126" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B125" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B124" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="B123" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="B120" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B119" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="B118" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="B117" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="B116" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="B111" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="B110" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="B109" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="B108" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="B107" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="B106" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="B105" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="B104" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="B103" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="B102" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="B101" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="B100" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="B99" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="B98" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="B97" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="B92" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="B91" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="B90" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="B89" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="B88" r:id="rId321" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="B87" r:id="rId322" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="B86" r:id="rId323" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="B85" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="B84" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="B83" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="B82" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="B81" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="B80" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="B79" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="B78" r:id="rId331" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="B151" r:id="rId283" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B150" r:id="rId284" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="B149" r:id="rId285" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="B146" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B145" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="B144" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="B143" r:id="rId289" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="B142" r:id="rId290" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B141" r:id="rId291" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B140" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B139" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B138" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B137" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="B136" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B133" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B132" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="B131" r:id="rId299" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="B130" r:id="rId300" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="B129" r:id="rId301" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="B101" r:id="rId302" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="B102" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B100" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="B99" r:id="rId305" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="B98" r:id="rId306" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B97" r:id="rId307" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="B96" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="B95" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="B94" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="B93" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="B92" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B91" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="B90" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="B89" r:id="rId315" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B88" r:id="rId316" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="B111" r:id="rId317" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="B110" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="B109" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="B108" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="B76" r:id="rId321" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="B118" r:id="rId322" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B107" r:id="rId323" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="B117" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="B106" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B78" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="B105" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B77" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="B119" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="B116" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B115" r:id="rId331" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
     <hyperlink ref="B67" r:id="rId332" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="C68" r:id="rId333" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="B68" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="B69" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B65" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B304" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
-    <hyperlink ref="B95" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
-    <hyperlink ref="B112" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
+    <hyperlink ref="B317" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
+    <hyperlink ref="B81" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
+    <hyperlink ref="B86" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
     <hyperlink ref="B63" r:id="rId340" xr:uid="{74A357C6-1996-40A9-A1A0-8F4FFC6F43DA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B47774F6-5554-465D-9FCC-5E0729374429}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C08C57F-AD0A-4CAB-80F8-0DAC0D1DD043}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="424">
   <si>
     <t>Arrays</t>
   </si>
@@ -1355,6 +1355,9 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/minimum-number-deletions-make-string-palindrome/</t>
+  </si>
+  <si>
+    <t>started with easy</t>
   </si>
 </sst>
 </file>
@@ -1834,8 +1837,8 @@
   </sheetPr>
   <dimension ref="A1:D491"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C439" sqref="C439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4002,78 +4005,81 @@
         <v>14</v>
       </c>
     </row>
-    <row r="449" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B449" s="6" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="450" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B450" s="6" t="s">
+    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B450" s="22" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="451" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C450" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B451" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="452" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B452" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="453" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="454" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B454" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="455" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="456" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="457" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="458" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="458" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B458" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="459" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="460" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="461" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B461" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="462" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="463" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="464" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="6" t="s">
         <v>337</v>
       </c>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1C08C57F-AD0A-4CAB-80F8-0DAC0D1DD043}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60EBBD22-6BCD-4234-9843-A153086E1D2B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="432">
   <si>
     <t>Arrays</t>
   </si>
@@ -1358,6 +1358,30 @@
   </si>
   <si>
     <t>started with easy</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/relative-ranks/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/kth-largest-element-in-a-stream/</t>
+  </si>
+  <si>
+    <t>easy but requires a lil knowledge of function</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/last-stone-weight/</t>
+  </si>
+  <si>
+    <t>nice summmm</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/the-k-weakest-rows-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>a nice matrix question</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/nearly-sorted-algorithm/</t>
   </si>
 </sst>
 </file>
@@ -1835,10 +1859,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D491"/>
+  <dimension ref="A1:D504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A436" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C439" sqref="C439"/>
+    <sheetView tabSelected="1" topLeftCell="A442" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B463" sqref="B463"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3995,181 +4019,237 @@
       </c>
     </row>
     <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="3" t="s">
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B449" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B448" s="4" t="s">
+    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B450" s="3"/>
+    </row>
+    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B451" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B452" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C452" s="25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B453" s="17" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B454" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C454" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B455" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C455" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B459" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B449" s="6" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B450" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C450" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B451" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B452" s="6" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B453" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="454" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B454" s="6" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B455" s="6" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="458" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B458" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B459" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B460" s="6" t="s">
-        <v>333</v>
+        <v>398</v>
       </c>
     </row>
     <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B461" s="6" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B462" s="6" t="s">
-        <v>335</v>
+      <c r="B462" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C462" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B463" s="5" t="s">
-        <v>336</v>
+      <c r="B463" s="22" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="6" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="6" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="6" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="467" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B467" s="6" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="469" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B468" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B469" s="6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B470" s="4" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="471" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B471" s="6" t="s">
-        <v>343</v>
+      <c r="B470" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="6" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B473" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B474" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B475" s="6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B476" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B477" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B478" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B479" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B480" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B482" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B483" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B484" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B485" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B486" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B474" s="12" t="s">
+    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B487" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B475" s="4"/>
-    </row>
-    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B476" s="3" t="s">
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B488" s="4"/>
+    </row>
+    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B489" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B477" s="5" t="s">
+    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B490" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B478" s="3" t="s">
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B491" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B479" s="5" t="s">
+    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B492" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B481" s="3"/>
-    </row>
-    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B482" s="19"/>
-    </row>
-    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B487" s="19"/>
-    </row>
-    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B494" s="3"/>
+    </row>
+    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B495" s="19"/>
+    </row>
+    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B500" s="19"/>
+    </row>
+    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4413,29 +4493,29 @@
     <hyperlink ref="B441" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
     <hyperlink ref="B444" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
     <hyperlink ref="B445" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B449" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B450" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B451" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B452" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B453" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B454" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B455" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B456" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B459" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B460" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B461" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B462" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B463" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B464" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B465" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B466" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B467" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B471" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B472" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B473" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B474" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B477" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B479" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B461" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B462" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B464" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B465" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B466" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B467" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B468" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B469" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B472" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B473" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B474" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B475" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B476" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B477" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B478" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B479" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B480" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B484" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B485" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B486" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B487" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B490" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B492" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
     <hyperlink ref="B244" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
     <hyperlink ref="B246" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
     <hyperlink ref="B270" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
@@ -4512,8 +4592,9 @@
     <hyperlink ref="B81" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
     <hyperlink ref="B86" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
     <hyperlink ref="B63" r:id="rId340" xr:uid="{74A357C6-1996-40A9-A1A0-8F4FFC6F43DA}"/>
+    <hyperlink ref="B453" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId341"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId342"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60EBBD22-6BCD-4234-9843-A153086E1D2B}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06677F55-E2DF-409D-9032-4A58E94AE421}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="443">
   <si>
     <t>Arrays</t>
   </si>
@@ -1382,6 +1382,39 @@
   </si>
   <si>
     <t>https://www.geeksforgeeks.org/nearly-sorted-algorithm/</t>
+  </si>
+  <si>
+    <t>using hashmap for frequency</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-array-by-increasing-frequency/</t>
+  </si>
+  <si>
+    <t>kinda difficult when it comes to sort two same frequency</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/connect-n-ropes-minimum-cost/</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>QUEUE</t>
+  </si>
+  <si>
+    <t>dequeue technique</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-k-th-smallest-pair-distance/</t>
+  </si>
+  <si>
+    <t>very very unintuitive concept</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-k-th-smallest-pair-distance/solution/</t>
+  </si>
+  <si>
+    <t>TLE in case of heap but normally its binary search</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1640,6 +1673,7 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1859,10 +1893,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D504"/>
+  <dimension ref="A1:D507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A442" zoomScale="83" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B463" sqref="B463"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C474" sqref="C474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3458,7 +3492,14 @@
         <v>383</v>
       </c>
     </row>
-    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B325" s="43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C325" s="25" t="s">
+        <v>440</v>
+      </c>
+    </row>
     <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B326" s="3" t="s">
         <v>225</v>
@@ -4063,7 +4104,14 @@
         <v>426</v>
       </c>
     </row>
-    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B456" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="C456" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
     <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -4071,185 +4119,217 @@
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B460" s="6" t="s">
-        <v>398</v>
-      </c>
-    </row>
+    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B461" s="6" t="s">
-        <v>325</v>
+      <c r="B461" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C461" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C462" t="s">
-        <v>423</v>
+        <v>325</v>
       </c>
     </row>
     <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C463" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B464" s="22" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B464" s="6" t="s">
+    <row r="465" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B465" s="22" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B466" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="465" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B465" s="6" t="s">
+    <row r="467" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B467" s="6" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="466" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B466" s="6" t="s">
+    <row r="468" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B468" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="467" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B467" s="6" t="s">
+    <row r="469" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B469" s="6" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="468" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B468" s="6" t="s">
+    <row r="470" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B470" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="469" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B469" s="6" t="s">
+    <row r="471" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B471" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="470" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B470" s="22" t="s">
+    <row r="472" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B472" s="22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="471" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B471" s="4" t="s">
+    <row r="473" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="472" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B472" s="6" t="s">
+    <row r="474" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="14" t="s">
+        <v>441</v>
+      </c>
+      <c r="C474" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="475" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B475" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="473" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B473" s="6" t="s">
+    <row r="476" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B476" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="474" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B474" s="6" t="s">
+    <row r="477" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B477" s="6" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="475" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B475" s="6" t="s">
+    <row r="478" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B478" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="476" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B476" s="5" t="s">
+    <row r="479" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B479" s="5" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="477" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B477" s="6" t="s">
+    <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B480" s="6" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="478" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B478" s="6" t="s">
+    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B481" s="6" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="479" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B479" s="6" t="s">
+    <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B482" s="6" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="480" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B480" s="6" t="s">
+    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B483" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="482" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B482" s="3" t="s">
+    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B485" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B483" s="4" t="s">
+    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B486" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B484" s="6" t="s">
+    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B487" s="6" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B485" s="6" t="s">
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B488" s="6" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B486" s="6" t="s">
+    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B489" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B487" s="12" t="s">
+    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B490" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B488" s="4"/>
-    </row>
-    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B489" s="3" t="s">
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B491" s="4"/>
+    </row>
+    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B492" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B490" s="5" t="s">
+    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B493" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B491" s="3" t="s">
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B494" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B492" s="5" t="s">
+    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B495" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="3"/>
-    </row>
-    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="19"/>
-    </row>
-    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="497" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="498" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="499" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="500" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B500" s="19"/>
-    </row>
-    <row r="501" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="502" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="503" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="504" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="497" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B497" s="3"/>
+    </row>
+    <row r="498" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B498" s="19"/>
+    </row>
+    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="500" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C501" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B502" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B503" s="19"/>
+    </row>
+    <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B504" s="42" t="s">
+        <v>78</v>
+      </c>
+      <c r="C504" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4493,29 +4573,29 @@
     <hyperlink ref="B441" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
     <hyperlink ref="B444" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
     <hyperlink ref="B445" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B461" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B462" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B464" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B465" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B466" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B467" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B468" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B469" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B472" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B473" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B474" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B475" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B476" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B477" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B478" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B479" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B480" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B484" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B485" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B486" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B487" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B490" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B492" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B462" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B463" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B466" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B467" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B468" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B469" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B470" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B471" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B475" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B476" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B477" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B478" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B479" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B480" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B481" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B482" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B483" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B487" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B488" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B489" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B490" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B493" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B495" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
     <hyperlink ref="B244" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
     <hyperlink ref="B246" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
     <hyperlink ref="B270" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
@@ -4593,8 +4673,9 @@
     <hyperlink ref="B86" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
     <hyperlink ref="B63" r:id="rId340" xr:uid="{74A357C6-1996-40A9-A1A0-8F4FFC6F43DA}"/>
     <hyperlink ref="B453" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
+    <hyperlink ref="B504" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId342"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{06677F55-E2DF-409D-9032-4A58E94AE421}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD53B1FD-BB2D-480B-B091-6CE158F94246}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="444">
   <si>
     <t>Arrays</t>
   </si>
@@ -1415,6 +1415,9 @@
   </si>
   <si>
     <t>TLE in case of heap but normally its binary search</t>
+  </si>
+  <si>
+    <t>using hashmap to make queries for id-&gt;emp</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +1896,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D507"/>
+  <dimension ref="A1:D508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C474" sqref="C474"/>
+    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B397" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3776,560 +3779,568 @@
         <v>273</v>
       </c>
     </row>
-    <row r="385" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B385" s="6" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="386" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="387" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="388" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="389" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="390" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="391" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="391" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B391" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="392" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B392" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B393" s="5" t="s">
+    <row r="393" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B393" s="15" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="394" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B394" s="6" t="s">
+      <c r="C393" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B394" s="22" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="395" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B395" s="10"/>
     </row>
-    <row r="396" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B396" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B397" s="6" t="s">
+    <row r="397" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B397" s="42" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B398" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="398" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="6" t="s">
+    <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B399" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="399" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="6" t="s">
+    <row r="400" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B400" s="6" t="s">
         <v>284</v>
-      </c>
-    </row>
-    <row r="400" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="6" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B402" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B402" s="6" t="s">
+    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B403" s="6" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B403" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B408" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B408" s="5" t="s">
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B409" s="5" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B410" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B411" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="3" t="s">
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B413" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B413" s="6" t="s">
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B414" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B415" s="3" t="s">
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B416" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="11" t="s">
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B417" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B418" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B423" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="423" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B423" s="6" t="s">
+    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B424" s="6" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B424" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B426" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="426" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B426" s="6" t="s">
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B428" s="4" t="s">
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B429" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B429" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B430" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B433" s="6" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B433" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B435" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B435" s="6" t="s">
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B436" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B436" s="5" t="s">
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B437" s="5" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="6" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B439" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B439" s="6" t="s">
+    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B440" s="6" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B440" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B441" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B442" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="4" t="s">
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B444" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="5" t="s">
+    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B445" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B445" s="6" t="s">
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B446" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B449" s="3" t="s">
+    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B450" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B450" s="3"/>
-    </row>
     <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B451" s="4" t="s">
+      <c r="B451" s="3"/>
+    </row>
+    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B452" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B452" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="C452" s="25" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B453" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C453" s="25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B454" s="17" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B454" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="C454" s="25" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B455" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C455" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B456" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="C455" s="25" t="s">
+      <c r="C456" s="25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="14" t="s">
+    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B457" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C456" s="25" t="s">
+      <c r="C457" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B459" s="4" t="s">
+    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B460" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B461" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C461" t="s">
-        <v>432</v>
-      </c>
-    </row>
+    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B462" s="22" t="s">
-        <v>325</v>
+        <v>204</v>
+      </c>
+      <c r="C462" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C463" t="s">
-        <v>423</v>
+        <v>325</v>
       </c>
     </row>
     <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="22" t="s">
-        <v>398</v>
+        <v>326</v>
+      </c>
+      <c r="C464" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="465" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="466" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B466" s="22" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="466" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B466" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="467" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="468" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B469" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="469" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B469" s="6" t="s">
+    <row r="470" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B470" s="6" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="470" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B470" s="6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="471" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="472" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B472" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="472" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B472" s="22" t="s">
+    <row r="473" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B473" s="22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="473" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="4" t="s">
+    <row r="474" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="474" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="14" t="s">
+    <row r="475" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C474" t="s">
+      <c r="C475" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="475" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B475" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="476" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B476" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="477" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B477" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="478" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B478" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="479" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B479" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="479" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B479" s="5" t="s">
+    <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B480" s="5" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B480" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B481" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B483" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B484" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B485" s="3" t="s">
+    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B486" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B486" s="4" t="s">
+    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B487" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B487" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B488" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B489" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B490" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B490" s="12" t="s">
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B491" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B491" s="4"/>
-    </row>
     <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B492" s="3" t="s">
+      <c r="B492" s="4"/>
+    </row>
+    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B493" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B493" s="5" t="s">
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B494" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="3" t="s">
+    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B495" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="5" t="s">
+    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B496" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="497" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B497" s="3"/>
-    </row>
     <row r="498" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B498" s="19"/>
-    </row>
-    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B498" s="3"/>
+    </row>
+    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B499" s="19"/>
+    </row>
     <row r="500" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C501" t="s">
+    <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C502" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B502" s="3" t="s">
+    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B503" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B503" s="19"/>
-    </row>
     <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B504" s="42" t="s">
+      <c r="B504" s="19"/>
+    </row>
+    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B505" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C504" t="s">
+      <c r="C505" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="508" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4533,69 +4544,69 @@
     <hyperlink ref="B389" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
     <hyperlink ref="B393" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
     <hyperlink ref="B394" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B397" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B398" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B399" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B400" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B401" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B402" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B403" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B404" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B405" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B406" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B407" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B408" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B409" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B410" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B413" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B417" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B418" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B419" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B420" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B421" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B422" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B423" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B424" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B425" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B426" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B429" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B430" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B431" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B432" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B433" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B434" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B435" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B436" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B437" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B438" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B439" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B440" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B441" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B444" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B445" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B462" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B463" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B466" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B467" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B468" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B469" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B470" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B471" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B475" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B476" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B477" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B478" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B479" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B480" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B481" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B482" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B483" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B487" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B488" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B489" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B490" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B493" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B495" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B398" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B399" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B400" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B401" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B402" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B403" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B404" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B405" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B406" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B407" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B408" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B409" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B410" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B411" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B414" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B418" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B419" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B420" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B421" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B422" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B423" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B424" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B425" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B426" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B427" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B430" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B431" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B432" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B433" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B434" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B435" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B436" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B437" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B438" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B439" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B440" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B441" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B442" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B445" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B446" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B463" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B464" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B467" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B468" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B469" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B470" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B471" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B472" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B476" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B477" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B478" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B479" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B480" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B481" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B482" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B483" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B484" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B488" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B489" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B490" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B491" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B494" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B496" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
     <hyperlink ref="B244" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
     <hyperlink ref="B246" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
     <hyperlink ref="B270" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
@@ -4672,10 +4683,11 @@
     <hyperlink ref="B81" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
     <hyperlink ref="B86" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
     <hyperlink ref="B63" r:id="rId340" xr:uid="{74A357C6-1996-40A9-A1A0-8F4FFC6F43DA}"/>
-    <hyperlink ref="B453" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
-    <hyperlink ref="B504" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
+    <hyperlink ref="B454" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
+    <hyperlink ref="B505" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
+    <hyperlink ref="B397" r:id="rId343" xr:uid="{7F79710E-6CD7-4EF6-9A80-B8578C230F1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId343"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId344"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD53B1FD-BB2D-480B-B091-6CE158F94246}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E615BC81-8A61-4FC7-9847-1CF73D483488}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="444">
   <si>
     <t>Arrays</t>
   </si>
@@ -1622,7 +1622,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1677,6 +1677,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1896,10 +1897,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D508"/>
+  <dimension ref="A1:D509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A386" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B397" sqref="B397"/>
+    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B402" sqref="B402"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3837,510 +3838,515 @@
       </c>
     </row>
     <row r="397" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B397" s="42" t="s">
+      <c r="B397" s="44" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B398" s="42" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B399" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="400" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B400" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B403" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="403" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B403" s="6" t="s">
+    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B404" s="6" t="s">
         <v>287</v>
-      </c>
-    </row>
-    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B404" s="6" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B406" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B409" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="5" t="s">
+    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B410" s="5" t="s">
         <v>293</v>
-      </c>
-    </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="6" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B412" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B413" s="3" t="s">
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B414" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B414" s="6" t="s">
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B415" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="3" t="s">
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B417" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="11" t="s">
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B418" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B418" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B419" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B420" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B424" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="424" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B424" s="6" t="s">
+    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B425" s="6" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B425" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B427" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="6" t="s">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B429" s="4" t="s">
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B430" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B431" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B432" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B434" s="6" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B434" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B436" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B436" s="6" t="s">
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B437" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="5" t="s">
+    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B438" s="5" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B438" s="6" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B440" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B440" s="6" t="s">
+    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B441" s="6" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B441" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B443" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="4" t="s">
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B445" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B445" s="5" t="s">
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B446" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B446" s="6" t="s">
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B447" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B450" s="3" t="s">
+    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B451" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B451" s="3"/>
-    </row>
     <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B452" s="4" t="s">
+      <c r="B452" s="3"/>
+    </row>
+    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B453" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B453" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="C453" s="25" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B454" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C454" s="25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B455" s="17" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B455" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="C455" s="25" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B456" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C456" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B457" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="C456" s="25" t="s">
+      <c r="C457" s="25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B457" s="14" t="s">
+    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B458" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C457" s="25" t="s">
+      <c r="C458" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B460" s="4" t="s">
+    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B461" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B462" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C462" t="s">
-        <v>432</v>
-      </c>
-    </row>
+    <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B463" s="22" t="s">
-        <v>325</v>
+        <v>204</v>
+      </c>
+      <c r="C463" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B464" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C464" t="s">
-        <v>423</v>
+        <v>325</v>
       </c>
     </row>
     <row r="465" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="22" t="s">
-        <v>398</v>
+        <v>326</v>
+      </c>
+      <c r="C465" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="466" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="467" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B467" s="22" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="467" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B467" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="468" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="469" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B469" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B470" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="470" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B470" s="6" t="s">
+    <row r="471" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B471" s="6" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="471" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B471" s="6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="472" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B473" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="473" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B473" s="22" t="s">
+    <row r="474" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B474" s="22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="474" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B474" s="4" t="s">
+    <row r="475" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B475" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="475" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="14" t="s">
+    <row r="476" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B476" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C475" t="s">
+      <c r="C476" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="476" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B476" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="477" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B477" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="478" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B478" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="479" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B479" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B480" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B480" s="5" t="s">
+    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B481" s="5" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B481" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B483" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B484" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B485" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="486" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B486" s="3" t="s">
+    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B487" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B487" s="4" t="s">
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B488" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B488" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B489" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B490" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B491" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B491" s="12" t="s">
+    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B492" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B492" s="4"/>
-    </row>
     <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B493" s="3" t="s">
+      <c r="B493" s="4"/>
+    </row>
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B494" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="5" t="s">
+    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B495" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="3" t="s">
+    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B496" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B496" s="5" t="s">
+    <row r="497" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B497" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="498" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B498" s="3"/>
-    </row>
     <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B499" s="19"/>
-    </row>
-    <row r="500" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B499" s="3"/>
+    </row>
+    <row r="500" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B500" s="19"/>
+    </row>
     <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C502" t="s">
+    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C503" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B503" s="3" t="s">
+    <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B504" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B504" s="19"/>
-    </row>
     <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B505" s="42" t="s">
+      <c r="B505" s="19"/>
+    </row>
+    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B506" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C505" t="s">
+      <c r="C506" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="508" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="509" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4544,69 +4550,69 @@
     <hyperlink ref="B389" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
     <hyperlink ref="B393" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
     <hyperlink ref="B394" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B398" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B399" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B400" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B401" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B402" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B403" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B404" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B405" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B406" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B407" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B408" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B409" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B410" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B411" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B414" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B418" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B419" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B420" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B421" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B422" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B423" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B424" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B425" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B426" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B427" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B430" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B431" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B432" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B433" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B434" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B435" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B436" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B437" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B438" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B439" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B440" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B441" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B442" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B445" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B446" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B463" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B464" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B467" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B468" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B469" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B470" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B471" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B472" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B476" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B477" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B478" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B479" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B480" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B481" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B482" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B483" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B484" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B488" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B489" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B490" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B491" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B494" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B496" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B399" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B400" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B401" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B402" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B403" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B404" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B405" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B406" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B407" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B408" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B409" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B410" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B411" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B412" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B415" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B419" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B420" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B421" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B422" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B423" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B424" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B425" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B426" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B427" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B428" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B431" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B432" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B433" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B434" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B435" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B436" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B437" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B438" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B439" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B440" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B441" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B442" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B443" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B446" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B447" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B464" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B465" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B468" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B469" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B470" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B471" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B472" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B473" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B477" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B478" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B479" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B480" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B481" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B482" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B483" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B484" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B485" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B489" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B490" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B491" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B492" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B495" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B497" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
     <hyperlink ref="B244" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
     <hyperlink ref="B246" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
     <hyperlink ref="B270" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
@@ -4683,9 +4689,9 @@
     <hyperlink ref="B81" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
     <hyperlink ref="B86" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
     <hyperlink ref="B63" r:id="rId340" xr:uid="{74A357C6-1996-40A9-A1A0-8F4FFC6F43DA}"/>
-    <hyperlink ref="B454" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
-    <hyperlink ref="B505" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
-    <hyperlink ref="B397" r:id="rId343" xr:uid="{7F79710E-6CD7-4EF6-9A80-B8578C230F1B}"/>
+    <hyperlink ref="B455" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
+    <hyperlink ref="B506" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
+    <hyperlink ref="B398" r:id="rId343" xr:uid="{7F79710E-6CD7-4EF6-9A80-B8578C230F1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId344"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E615BC81-8A61-4FC7-9847-1CF73D483488}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09209D8B-D465-4C40-8311-0FAE6B38A146}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="445">
   <si>
     <t>Arrays</t>
   </si>
@@ -1418,6 +1418,9 @@
   </si>
   <si>
     <t>using hashmap to make queries for id-&gt;emp</t>
+  </si>
+  <si>
+    <t>using hashmap nd dfs --- imp as tobe done by own</t>
   </si>
 </sst>
 </file>
@@ -1899,8 +1902,8 @@
   </sheetPr>
   <dimension ref="A1:D509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A389" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B402" sqref="B402"/>
+    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C399" sqref="C399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3843,8 +3846,11 @@
       </c>
     </row>
     <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="42" t="s">
+      <c r="B398" s="39" t="s">
         <v>193</v>
+      </c>
+      <c r="C398" s="25" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09209D8B-D465-4C40-8311-0FAE6B38A146}"/>
+  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B5CA54-4923-4D7E-BBEC-7F6B19DBCB2A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="448">
   <si>
     <t>Arrays</t>
   </si>
@@ -1421,6 +1421,15 @@
   </si>
   <si>
     <t>using hashmap nd dfs --- imp as tobe done by own</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/deepest-leaves-sum/</t>
+  </si>
+  <si>
+    <t>using level order traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree/</t>
   </si>
 </sst>
 </file>
@@ -1625,7 +1634,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1681,6 +1690,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1900,10 +1910,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D509"/>
+  <dimension ref="A1:D511"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A392" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C399" sqref="C399"/>
+      <selection activeCell="B407" sqref="B407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3517,842 +3527,855 @@
         <v>14</v>
       </c>
     </row>
-    <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B328" s="6" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="329" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B329" s="6" t="s">
-        <v>227</v>
+    <row r="328" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B329" s="22" t="s">
+        <v>445</v>
+      </c>
+      <c r="C329" s="25" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B330" s="6" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B332" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B333" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="5" t="s">
+    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B334" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="4" t="s">
+    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B336" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B335" s="6" t="s">
+    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B337" s="6" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="6" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B337" s="6" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="3" t="s">
+    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B342" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B341" s="4" t="s">
+    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="4" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="6" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B344" s="6" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="345" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B347" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B348" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B348" s="3" t="s">
+    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B350" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B349" s="4" t="s">
+    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="351" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B351" s="6" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B352" s="6" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B353" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B354" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B355" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B357" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="4" t="s">
+    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B359" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B358" s="5" t="s">
+    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B360" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="359" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B359" s="6" t="s">
+    <row r="361" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B361" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="6" t="s">
+    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B362" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B361" s="6" t="s">
+    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B363" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B363" s="3" t="s">
+    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B365" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="4" t="s">
+    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B366" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="6" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C366" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B367" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B368" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C368" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B369" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="368" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B368" s="5" t="s">
+    <row r="370" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B370" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="369" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="20" t="s">
+    <row r="371" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B371" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C369" s="8" t="s">
+      <c r="C371" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="370" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="5" t="s">
+    <row r="372" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B372" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="371" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="372" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B372" s="4" t="s">
+    <row r="373" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="374" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B374" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="373" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B373" s="5" t="s">
+    <row r="375" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B375" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="374" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B374" s="6" t="s">
+    <row r="376" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B376" s="6" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="375" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="6" t="s">
+    <row r="377" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B377" s="6" t="s">
         <v>264</v>
-      </c>
-    </row>
-    <row r="376" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="378" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="C378" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="379" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B379" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B380" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B381" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="380" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="381" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="3" t="s">
+    <row r="382" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B383" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="382" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="4" t="s">
+    <row r="384" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B384" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="383" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B383" s="5" t="s">
+    <row r="385" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B385" s="5" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="384" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B384" s="6" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="385" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B385" s="6" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="386" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B386" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="387" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="388" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B388" s="5" t="s">
-        <v>277</v>
+      <c r="B388" s="6" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="389" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B390" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B391" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="390" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="391" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B391" s="3" t="s">
+    <row r="392" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="393" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B393" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="392" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B392" s="4" t="s">
+    <row r="394" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B394" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B393" s="15" t="s">
+    <row r="395" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B395" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C393" t="s">
+      <c r="C395" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="394" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B394" s="22" t="s">
+    <row r="396" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B396" s="22" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="395" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="10"/>
-    </row>
-    <row r="396" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="4" t="s">
+    <row r="397" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B397" s="10"/>
+    </row>
+    <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B398" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="397" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B397" s="44" t="s">
+    <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B399" s="44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="39" t="s">
+    <row r="400" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B400" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C398" s="25" t="s">
+      <c r="C400" s="25" t="s">
         <v>444</v>
-      </c>
-    </row>
-    <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="6" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="400" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="6" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B401" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B402" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B403" s="6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="404" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B404" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B405" s="6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="406" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B406" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B407" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B408" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B409" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="5" t="s">
-        <v>293</v>
+      <c r="B410" s="6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B411" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B412" s="5" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B413" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="6" t="s">
+    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B414" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B414" s="3" t="s">
+    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B416" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B415" s="6" t="s">
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B417" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="3" t="s">
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B419" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B418" s="11" t="s">
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B420" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B421" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="425" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="6" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B427" s="6" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B428" s="6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B427" s="6" t="s">
+    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B429" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B428" s="6" t="s">
+    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B430" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="4" t="s">
+    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B432" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="6" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B433" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B435" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B436" s="6" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B435" s="5" t="s">
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B437" s="5" t="s">
         <v>313</v>
-      </c>
-    </row>
-    <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B436" s="5" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="6" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B439" s="6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B440" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B441" s="6" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B440" s="6" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="441" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B441" s="6" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B443" s="6" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B444" s="6" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="6" t="s">
+    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B445" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B445" s="4" t="s">
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B447" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B446" s="5" t="s">
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B448" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="6" t="s">
+    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B449" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B451" s="3" t="s">
+    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B453" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B452" s="3"/>
-    </row>
-    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B453" s="4" t="s">
+    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B454" s="3"/>
+    </row>
+    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B455" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B454" s="17" t="s">
+    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B456" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="C454" s="25" t="s">
+      <c r="C456" s="25" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B455" s="17" t="s">
+    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B457" s="17" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="22" t="s">
+    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B458" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="C456" s="25" t="s">
+      <c r="C458" s="25" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B457" s="22" t="s">
+    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B459" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="C457" s="25" t="s">
+      <c r="C459" s="25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B458" s="14" t="s">
+    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B460" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C458" s="25" t="s">
+      <c r="C460" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B461" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B463" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C463" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B464" s="22" t="s">
-        <v>325</v>
-      </c>
-    </row>
+      <c r="B463" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="465" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B465" s="22" t="s">
-        <v>326</v>
+        <v>204</v>
       </c>
       <c r="C465" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
     </row>
     <row r="466" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="22" t="s">
-        <v>398</v>
+        <v>325</v>
       </c>
     </row>
     <row r="467" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C467" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="468" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B468" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="469" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B469" s="22" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="468" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B468" s="6" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="469" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B469" s="6" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="470" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B470" s="6" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="471" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="471" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="472" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="6" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B473" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="474" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B474" s="6" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="473" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B473" s="6" t="s">
+    <row r="475" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B475" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="474" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B474" s="22" t="s">
+    <row r="476" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B476" s="22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="475" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B475" s="4" t="s">
+    <row r="477" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B477" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="476" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B476" s="14" t="s">
+    <row r="478" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C476" t="s">
+      <c r="C478" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="477" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B477" s="6" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="478" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B478" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="479" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B479" s="6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
     </row>
     <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B480" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B481" s="5" t="s">
-        <v>336</v>
+      <c r="B481" s="6" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B483" s="6" t="s">
-        <v>338</v>
+      <c r="B483" s="5" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B484" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B485" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B486" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B487" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="487" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B487" s="3" t="s">
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B489" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B488" s="4" t="s">
+    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B490" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B489" s="6" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B490" s="6" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B491" s="6" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B492" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B493" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B492" s="12" t="s">
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B494" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B493" s="4"/>
-    </row>
-    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="3" t="s">
-        <v>347</v>
-      </c>
-    </row>
     <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="5" t="s">
-        <v>348</v>
-      </c>
+      <c r="B495" s="4"/>
     </row>
     <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B496" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="497" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B497" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="498" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B498" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B499" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B499" s="3"/>
-    </row>
-    <row r="500" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B500" s="19"/>
-    </row>
-    <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C503" t="s">
+    <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B501" s="3"/>
+    </row>
+    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B502" s="19"/>
+    </row>
+    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C505" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B504" s="3" t="s">
+    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B506" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B505" s="19"/>
-    </row>
-    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B506" s="42" t="s">
+    <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B507" s="19"/>
+    </row>
+    <row r="508" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B508" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C506" t="s">
+      <c r="C508" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="508" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="509" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="510" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="511" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4508,117 +4531,117 @@
     <hyperlink ref="B322" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
     <hyperlink ref="B323" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
     <hyperlink ref="B324" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B328" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B329" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B330" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B331" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B332" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B335" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B336" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B337" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B338" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B342" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B343" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B344" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B345" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B346" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B350" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B351" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B352" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B353" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B354" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B355" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B358" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B359" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B360" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B361" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B365" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B366" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C366" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B367" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B368" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C369" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B370" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B373" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B374" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B375" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B376" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B377" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B378" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C378" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B379" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B383" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B384" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B385" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B386" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B387" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B388" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B389" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B393" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B394" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B399" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B400" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B401" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B402" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B403" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B404" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B405" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B406" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B407" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B408" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B409" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B410" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B411" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B412" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B415" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B419" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B420" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B421" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B422" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B423" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B424" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B425" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B426" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B427" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B428" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B431" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B432" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B433" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B434" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B435" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B436" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B437" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B438" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B439" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B440" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B441" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B442" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B443" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B446" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B447" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B464" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B465" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B468" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B469" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B470" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B471" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B472" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B473" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B477" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B478" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B479" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B480" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B481" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B482" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B483" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B484" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B485" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B489" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B490" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B491" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B492" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B495" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B497" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B330" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B331" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B332" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B333" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B334" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B337" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B338" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B339" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B340" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B344" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B345" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B346" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B347" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B348" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B352" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B353" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B354" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B355" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B356" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B357" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B360" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B361" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B362" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B363" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B367" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B368" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C368" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B369" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B370" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C371" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B372" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B375" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B376" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B377" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B378" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B379" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B380" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C380" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B381" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B385" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B386" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B387" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B388" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B389" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B390" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B391" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B395" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B396" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B401" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B402" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B403" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B404" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B405" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B406" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B407" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B408" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B409" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B410" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B411" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B412" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B413" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B414" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B417" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B421" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B422" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B423" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B424" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B425" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B426" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B427" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B428" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B429" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B430" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B433" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B434" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B435" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B436" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B437" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B438" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B439" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B440" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B441" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B442" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B443" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B444" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B445" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B448" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B449" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B466" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B467" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B470" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B471" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B472" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B473" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B474" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B475" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B479" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B480" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B481" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B482" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B483" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B484" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B485" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B486" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B487" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B491" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B492" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B493" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B494" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B497" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B499" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
     <hyperlink ref="B244" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
     <hyperlink ref="B246" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
     <hyperlink ref="B270" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
@@ -4695,9 +4718,9 @@
     <hyperlink ref="B81" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
     <hyperlink ref="B86" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
     <hyperlink ref="B63" r:id="rId340" xr:uid="{74A357C6-1996-40A9-A1A0-8F4FFC6F43DA}"/>
-    <hyperlink ref="B455" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
-    <hyperlink ref="B506" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
-    <hyperlink ref="B398" r:id="rId343" xr:uid="{7F79710E-6CD7-4EF6-9A80-B8578C230F1B}"/>
+    <hyperlink ref="B457" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
+    <hyperlink ref="B508" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
+    <hyperlink ref="B400" r:id="rId343" xr:uid="{7F79710E-6CD7-4EF6-9A80-B8578C230F1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId344"/>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42B5CA54-4923-4D7E-BBEC-7F6B19DBCB2A}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA16227-BCCB-4F90-A26A-E9A1AF93FA3C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="452">
   <si>
     <t>Arrays</t>
   </si>
@@ -1430,6 +1430,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-a-corresponding-node-of-a-binary-tree-in-a-clone-of-that-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/univalued-binary-tree/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/average-of-levels-in-binary-tree/</t>
+  </si>
+  <si>
+    <t>a lil tricky ones</t>
+  </si>
+  <si>
+    <t>striver's solution is cool</t>
   </si>
 </sst>
 </file>
@@ -1912,8 +1924,8 @@
   </sheetPr>
   <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A392" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B407" sqref="B407"/>
+    <sheetView tabSelected="1" topLeftCell="B224" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C230" sqref="C230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1944,17 +1956,17 @@
       </c>
     </row>
     <row r="7" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="15" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2974,6 +2986,9 @@
       <c r="B227" s="22" t="s">
         <v>161</v>
       </c>
+      <c r="C227" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B228" s="6" t="s">
@@ -3006,7 +3021,7 @@
       </c>
     </row>
     <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="14" t="s">
+      <c r="B234" s="21" t="s">
         <v>361</v>
       </c>
       <c r="C234" t="s">
@@ -3049,22 +3064,22 @@
         <v>172</v>
       </c>
     </row>
-    <row r="241" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B241" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="242" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B242" s="15" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="243" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B243" s="15" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="244" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B244" s="17" t="s">
         <v>352</v>
       </c>
@@ -3072,7 +3087,10 @@
         <v>353</v>
       </c>
     </row>
-    <row r="245" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>450</v>
+      </c>
       <c r="B245" s="17" t="s">
         <v>354</v>
       </c>
@@ -3080,7 +3098,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="246" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B246" s="17" t="s">
         <v>355</v>
       </c>
@@ -3088,32 +3106,39 @@
         <v>353</v>
       </c>
     </row>
-    <row r="247" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B247" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="D247" s="16"/>
     </row>
-    <row r="248" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B248" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B250" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B251" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="252" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B252" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="253" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B253" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="254" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B254" s="14" t="s">
         <v>178</v>
       </c>
@@ -3121,12 +3146,12 @@
         <v>364</v>
       </c>
     </row>
-    <row r="255" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B255" s="6" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="256" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="6" t="s">
         <v>180</v>
       </c>
@@ -4721,8 +4746,10 @@
     <hyperlink ref="B457" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
     <hyperlink ref="B508" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
     <hyperlink ref="B400" r:id="rId343" xr:uid="{7F79710E-6CD7-4EF6-9A80-B8578C230F1B}"/>
+    <hyperlink ref="B245" r:id="rId344" xr:uid="{C0FA6DC5-AC75-4EC6-A83F-2B0DA6FEF8D6}"/>
+    <hyperlink ref="B234" r:id="rId345" xr:uid="{6F0AE3E1-8A25-4491-BB78-B7C39178D672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId344"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId346"/>
 </worksheet>
 </file>
--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8AA16227-BCCB-4F90-A26A-E9A1AF93FA3C}"/>
+  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD434AC7-396A-4AC1-8BCB-9BCFF014F44C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1924,8 +1924,8 @@
   </sheetPr>
   <dimension ref="A1:D511"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B224" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C230" sqref="C230"/>
+    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2991,17 +2991,17 @@
       </c>
     </row>
     <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="6" t="s">
+      <c r="B228" s="22" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B229" s="5" t="s">
+      <c r="B229" s="22" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="230" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="6" t="s">
+      <c r="B230" s="22" t="s">
         <v>164</v>
       </c>
     </row>
@@ -3042,7 +3042,7 @@
       </c>
     </row>
     <row r="237" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="15" t="s">
         <v>170</v>
       </c>
     </row>
@@ -3065,7 +3065,7 @@
       </c>
     </row>
     <row r="241" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="6" t="s">
+      <c r="B241" s="22" t="s">
         <v>173</v>
       </c>
     </row>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="143" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD434AC7-396A-4AC1-8BCB-9BCFF014F44C}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E1302DC-2036-40CC-BD11-D842F5B85B75}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="456">
   <si>
     <t>Arrays</t>
   </si>
@@ -1442,6 +1442,18 @@
   </si>
   <si>
     <t>striver's solution is cool</t>
+  </si>
+  <si>
+    <t>v.v. easy just need to understand its like pre order we solve for root nd its two sides, create a node and call for its left and right.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-n-ary-tree/</t>
+  </si>
+  <si>
+    <t>have to do</t>
+  </si>
+  <si>
+    <t>learn concepts of nary tree</t>
   </si>
 </sst>
 </file>
@@ -1922,10 +1934,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D511"/>
+  <dimension ref="A1:D512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B248" sqref="B248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3016,8 +3028,11 @@
       </c>
     </row>
     <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="6" t="s">
+      <c r="B233" s="14" t="s">
         <v>167</v>
+      </c>
+      <c r="C233" s="25" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
@@ -3113,1294 +3128,1310 @@
       <c r="D247" s="16"/>
     </row>
     <row r="248" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="5" t="s">
+      <c r="B248" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D248" s="16"/>
+    </row>
+    <row r="249" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B249" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="250" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B250" s="4" t="s">
+      <c r="A250" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="B250" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="C250" s="25" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B251" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="24" t="s">
+    <row r="252" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B252" s="24" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B252" s="5" t="s">
+    <row r="253" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B253" s="5" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="22" t="s">
+    <row r="254" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B254" s="22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="14" t="s">
+    <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B255" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="C254" s="25" t="s">
+      <c r="C255" s="25" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="6" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B256" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B257" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B258" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B259" s="6" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="22" t="s">
+    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B260" s="22" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="6" t="s">
+    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B261" s="6" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="261" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B261" s="6" t="s">
+    <row r="262" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="6" t="s">
         <v>185</v>
-      </c>
-    </row>
-    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="6" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B263" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B264" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B265" s="6" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="26" t="s">
+    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B266" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="C265" s="25" t="s">
+      <c r="C266" s="25" t="s">
         <v>370</v>
-      </c>
-    </row>
-    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B267" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B268" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B269" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B270" s="6" t="s">
         <v>193</v>
-      </c>
-    </row>
-    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="C270" s="16" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B271" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C271" s="16" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="23" t="s">
+      <c r="B272" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B273" s="23" t="s">
         <v>183</v>
       </c>
-      <c r="C272" s="16" t="s">
+      <c r="C273" s="16" t="s">
         <v>365</v>
-      </c>
-    </row>
-    <row r="273" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="17" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="274" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B274" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B275" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="C274" s="16" t="s">
+      <c r="C275" s="16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="275" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="4" t="s">
+    <row r="276" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B277" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="277" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="278" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B278" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B279" s="6" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="279" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="5" t="s">
+    <row r="280" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B280" s="5" t="s">
         <v>196</v>
-      </c>
-    </row>
-    <row r="280" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B280" s="6" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="281" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B281" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="282" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B282" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="283" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B283" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B284" s="6" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="284" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="3" t="s">
+    <row r="285" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B286" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="286" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B286" s="4" t="s">
+    <row r="287" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B287" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="287" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="6" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="288" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B288" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="289" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B289" s="6" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="289" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="9"/>
-    </row>
     <row r="290" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="4" t="s">
+      <c r="B290" s="9"/>
+    </row>
+    <row r="291" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B291" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="291" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="6" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="292" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B292" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="293" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B293" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="293" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="3" t="s">
+    <row r="294" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B295" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="295" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="4" t="s">
+    <row r="296" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B296" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B296" s="15" t="s">
+    <row r="297" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="297" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="22" t="s">
+    <row r="298" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B298" s="22" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="298" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C298" s="25" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="299" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B299" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="C299" s="25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="300" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B300" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="C299" s="25" t="s">
+      <c r="C300" s="25" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="300" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="22" t="s">
+    <row r="301" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B301" s="22" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="301" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="28" t="s">
+    <row r="302" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B302" s="28" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="302" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="6"/>
-      <c r="D302" s="32"/>
-    </row>
-    <row r="303" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="4" t="s">
+    <row r="303" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B303" s="6"/>
+      <c r="D303" s="32"/>
+    </row>
+    <row r="304" spans="2:4" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B305" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="22" t="s">
+    <row r="306" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C305" s="25" t="s">
+      <c r="C306" s="25" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
+    <row r="307" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
         <v>374</v>
       </c>
-      <c r="B306" s="27" t="s">
+      <c r="B307" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="C306" s="25" t="s">
+      <c r="C307" s="25" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="22" t="s">
+    <row r="308" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B308" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="14" t="s">
+    <row r="309" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B309" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C308" t="s">
+      <c r="C309" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="17" t="s">
+    <row r="310" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B310" s="17" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="22" t="s">
+    <row r="311" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B311" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="C310" t="s">
+      <c r="C311" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="29" t="s">
+    <row r="312" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B312" s="29" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="14" t="s">
+    <row r="313" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="C312" t="s">
+      <c r="C313" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="22" t="s">
+    <row r="314" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B314" s="22" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="14" t="s">
+    <row r="315" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B315" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="C314" s="25" t="s">
+      <c r="C315" s="25" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="17" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="316" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B316" s="17" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B317" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="C316" t="s">
+      <c r="C317" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="21" t="s">
+    <row r="318" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B318" s="21" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="6" t="s">
+    <row r="319" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B319" s="6" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="4" t="s">
+    <row r="320" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B320" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B320" s="22" t="s">
+    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B321" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="C320" t="s">
+      <c r="C321" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B321" s="31" t="s">
+    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B322" s="31" t="s">
         <v>221</v>
       </c>
-      <c r="C321" s="25" t="s">
+      <c r="C322" s="25" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B322" s="6" t="s">
+    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B323" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C322" s="25" t="s">
+      <c r="C323" s="25" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="22" t="s">
+    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B324" s="22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B324" s="30" t="s">
+    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B325" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C324" s="25" t="s">
+      <c r="C325" s="25" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="43" t="s">
+    <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B326" s="43" t="s">
         <v>439</v>
       </c>
-      <c r="C325" s="25" t="s">
+      <c r="C326" s="25" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B326" s="3" t="s">
+    <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B327" s="3" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="327" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B327" s="4" t="s">
+    <row r="328" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B328" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="328" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B328" s="22" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="329" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B329" s="22" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B330" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C329" s="25" t="s">
+      <c r="C330" s="25" t="s">
         <v>446</v>
-      </c>
-    </row>
-    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B330" s="6" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B331" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B332" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B333" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B334" s="6" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="5" t="s">
+    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B335" s="5" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="4" t="s">
+    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B337" s="4" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="337" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="6" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="338" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B338" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B339" s="6" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="339" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B339" s="6" t="s">
+    <row r="340" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B340" s="6" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="340" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="6" t="s">
+    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B341" s="6" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="341" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="3" t="s">
+    <row r="342" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B343" s="3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="343" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="4" t="s">
+    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B344" s="4" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="344" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B344" s="6" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="345" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B345" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="346" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B346" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B347" s="6" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="347" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B347" s="6" t="s">
+    <row r="348" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B348" s="6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="348" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B348" s="6" t="s">
+    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B349" s="6" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="349" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="3" t="s">
+    <row r="350" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B351" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="351" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="4" t="s">
+    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B352" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="352" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="6" t="s">
+    <row r="353" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B353" s="6" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="353" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B353" s="6" t="s">
+    <row r="354" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B354" s="6" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B354" s="6" t="s">
+    <row r="355" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B355" s="6" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="6" t="s">
+    <row r="356" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B356" s="6" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="6" t="s">
+    <row r="357" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B357" s="6" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="6" t="s">
+    <row r="358" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B358" s="6" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="4" t="s">
+    <row r="359" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="360" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B360" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="5" t="s">
+    <row r="361" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B361" s="5" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="361" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B361" s="6" t="s">
+    <row r="362" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B362" s="6" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B362" s="6" t="s">
+    <row r="363" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B363" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B363" s="6" t="s">
+    <row r="364" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B364" s="6" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="3" t="s">
+    <row r="365" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="366" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B366" s="3" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="4" t="s">
+    <row r="367" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B367" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="6" t="s">
+    <row r="368" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B368" s="6" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="C368" s="5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="369" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B369" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C369" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B370" s="6" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="370" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B370" s="5" t="s">
+    <row r="371" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B371" s="5" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="371" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B371" s="20" t="s">
+    <row r="372" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B372" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="C371" s="8" t="s">
+      <c r="C372" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="372" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B372" s="5" t="s">
+    <row r="373" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B373" s="5" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="373" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="374" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B374" s="4" t="s">
+    <row r="374" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="375" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B375" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="375" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="5" t="s">
+    <row r="376" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B376" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="376" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B376" s="6" t="s">
+    <row r="377" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B377" s="6" t="s">
         <v>263</v>
-      </c>
-    </row>
-    <row r="377" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="6" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="378" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B378" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B379" s="6" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="379" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="5" t="s">
+    <row r="380" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B380" s="5" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="380" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="6" t="s">
+    <row r="381" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B381" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C380" s="6" t="s">
+      <c r="C381" s="6" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="381" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="5" t="s">
+    <row r="382" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B382" s="5" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="382" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B383" s="3" t="s">
+    <row r="383" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="384" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B384" s="3" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="384" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B384" s="4" t="s">
+    <row r="385" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B385" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="385" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B385" s="5" t="s">
+    <row r="386" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B386" s="5" t="s">
         <v>272</v>
-      </c>
-    </row>
-    <row r="386" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B386" s="6" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="387" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B387" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="388" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B388" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="389" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B389" s="6" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B390" s="6" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="390" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B390" s="5" t="s">
+    <row r="391" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B391" s="5" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="391" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B391" s="6" t="s">
+    <row r="392" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B392" s="6" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="392" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="393" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B393" s="3" t="s">
+    <row r="393" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="394" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B394" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="394" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B394" s="4" t="s">
+    <row r="395" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B395" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="15" t="s">
+    <row r="396" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B396" s="15" t="s">
         <v>280</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C396" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="396" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="22" t="s">
+    <row r="397" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B397" s="22" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="397" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B397" s="10"/>
-    </row>
     <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="4" t="s">
+      <c r="B398" s="10"/>
+    </row>
+    <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B399" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="44" t="s">
+    <row r="400" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B400" s="44" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="400" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="45" t="s">
+    <row r="401" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B401" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="C400" s="25" t="s">
+      <c r="C401" s="25" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="401" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B401" s="6" t="s">
+    <row r="402" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B402" s="6" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="402" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="6" t="s">
+    <row r="403" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B403" s="6" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="403" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B403" s="6" t="s">
+    <row r="404" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B404" s="6" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="404" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B404" s="6" t="s">
+    <row r="405" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B405" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="405" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B405" s="6" t="s">
+    <row r="406" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B406" s="6" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="406" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B406" s="6" t="s">
+    <row r="407" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B407" s="6" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="407" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B407" s="6" t="s">
+    <row r="408" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B408" s="6" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="408" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B408" s="6" t="s">
+    <row r="409" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B409" s="6" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="409" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="6" t="s">
+    <row r="410" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B410" s="6" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="410" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="6" t="s">
+    <row r="411" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B411" s="6" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="411" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B411" s="6" t="s">
+    <row r="412" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B412" s="6" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="412" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="5" t="s">
+    <row r="413" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B413" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="413" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B413" s="6" t="s">
+    <row r="414" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B414" s="6" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="414" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B414" s="6" t="s">
+    <row r="415" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B415" s="6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="415" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="416" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="3" t="s">
+    <row r="416" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B417" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="417" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="6" t="s">
+    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B418" s="6" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="418" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="3" t="s">
+    <row r="419" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B420" s="3" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="420" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="11" t="s">
+    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B421" s="11" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="421" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B421" s="6" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="422" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B422" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="423" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B423" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="424" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B424" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="425" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B425" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="426" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B426" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B427" s="6" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="427" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B427" s="6" t="s">
+    <row r="428" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B428" s="6" t="s">
         <v>305</v>
-      </c>
-    </row>
-    <row r="428" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B428" s="6" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="429" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B429" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B430" s="6" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="430" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B430" s="6" t="s">
+    <row r="431" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B431" s="6" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="431" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="4" t="s">
+    <row r="432" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B433" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="433" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B433" s="6" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="434" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B434" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="435" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B435" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="436" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B436" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B437" s="6" t="s">
         <v>312</v>
-      </c>
-    </row>
-    <row r="437" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="5" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="438" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B438" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B439" s="5" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="439" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B439" s="6" t="s">
+    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B440" s="6" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="440" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B440" s="5" t="s">
+    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B441" s="5" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="441" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B441" s="6" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="442" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B442" s="6" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B443" s="6" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B443" s="6" t="s">
+    <row r="444" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B444" s="6" t="s">
         <v>319</v>
-      </c>
-    </row>
-    <row r="444" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="6" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="445" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B445" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B446" s="6" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="446" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="4" t="s">
+    <row r="447" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B448" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="448" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B448" s="5" t="s">
+    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B449" s="5" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B449" s="6" t="s">
+    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B450" s="6" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B453" s="3" t="s">
+    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B454" s="3" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B454" s="3"/>
-    </row>
     <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B455" s="4" t="s">
+      <c r="B455" s="3"/>
+    </row>
+    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B456" s="4" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="C456" s="25" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B457" s="17" t="s">
+        <v>429</v>
+      </c>
+      <c r="C457" s="25" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B458" s="17" t="s">
         <v>424</v>
-      </c>
-    </row>
-    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B458" s="22" t="s">
-        <v>427</v>
-      </c>
-      <c r="C458" s="25" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B459" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="C459" s="25" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B460" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="C459" s="25" t="s">
+      <c r="C460" s="25" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B460" s="14" t="s">
+    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B461" s="14" t="s">
         <v>433</v>
       </c>
-      <c r="C460" s="25" t="s">
+      <c r="C461" s="25" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B463" s="4" t="s">
+    <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B464" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="465" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B465" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="C465" t="s">
-        <v>432</v>
-      </c>
-    </row>
+    <row r="465" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="466" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B466" s="22" t="s">
-        <v>325</v>
+        <v>204</v>
+      </c>
+      <c r="C466" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="467" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B467" s="22" t="s">
-        <v>326</v>
-      </c>
-      <c r="C467" t="s">
-        <v>423</v>
+        <v>325</v>
       </c>
     </row>
     <row r="468" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B468" s="22" t="s">
-        <v>398</v>
+        <v>326</v>
+      </c>
+      <c r="C468" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="469" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B469" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="470" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B470" s="22" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="470" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B470" s="6" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="471" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B471" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="472" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B472" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="473" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B473" s="6" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="473" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B473" s="6" t="s">
+    <row r="474" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B474" s="6" t="s">
         <v>330</v>
-      </c>
-    </row>
-    <row r="474" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B474" s="6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="475" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B475" s="6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="476" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B476" s="6" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="476" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B476" s="22" t="s">
+    <row r="477" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B477" s="22" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="477" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B477" s="4" t="s">
+    <row r="478" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B478" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="478" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B478" s="14" t="s">
+    <row r="479" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B479" s="14" t="s">
         <v>441</v>
       </c>
-      <c r="C478" t="s">
+      <c r="C479" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="479" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B479" s="6" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B480" s="6" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
     </row>
     <row r="481" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B481" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="482" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B482" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B483" s="6" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="483" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B483" s="5" t="s">
+    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B484" s="5" t="s">
         <v>336</v>
-      </c>
-    </row>
-    <row r="484" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B484" s="6" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="485" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B485" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="486" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B486" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="487" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B487" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B488" s="6" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="488" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="489" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B489" s="3" t="s">
+    <row r="489" spans="2:2" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="490" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B490" s="3" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="490" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B490" s="4" t="s">
+    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B491" s="4" t="s">
         <v>342</v>
-      </c>
-    </row>
-    <row r="491" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B491" s="6" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="492" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B492" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="493" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B493" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B494" s="6" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="494" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="12" t="s">
+    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B495" s="12" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="495" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="4"/>
-    </row>
     <row r="496" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B496" s="3" t="s">
+      <c r="B496" s="4"/>
+    </row>
+    <row r="497" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B497" s="3" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="497" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B497" s="5" t="s">
+    <row r="498" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B498" s="5" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="498" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B498" s="3" t="s">
+    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B499" s="3" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B499" s="5" t="s">
+    <row r="500" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B500" s="5" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B501" s="3"/>
-    </row>
     <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B502" s="19"/>
-    </row>
-    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="B502" s="3"/>
+    </row>
+    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B503" s="19"/>
+    </row>
     <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C505" t="s">
+    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="C506" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B506" s="3" t="s">
+    <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B507" s="3" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B507" s="19"/>
-    </row>
     <row r="508" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B508" s="42" t="s">
+      <c r="B508" s="19"/>
+    </row>
+    <row r="509" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B509" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C508" t="s">
+      <c r="C509" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="509" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="510" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="511" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="512" spans="2:3" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
@@ -4512,175 +4543,175 @@
     <hyperlink ref="B240" r:id="rId107" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
     <hyperlink ref="B241" r:id="rId108" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
     <hyperlink ref="B242" r:id="rId109" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
-    <hyperlink ref="B254" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
-    <hyperlink ref="B255" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
-    <hyperlink ref="B256" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
-    <hyperlink ref="B257" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
-    <hyperlink ref="B258" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
-    <hyperlink ref="B259" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
-    <hyperlink ref="B260" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
-    <hyperlink ref="B261" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
-    <hyperlink ref="B262" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
-    <hyperlink ref="B263" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
-    <hyperlink ref="B264" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
-    <hyperlink ref="B265" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
-    <hyperlink ref="B266" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
-    <hyperlink ref="B267" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
-    <hyperlink ref="B268" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
-    <hyperlink ref="B269" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
-    <hyperlink ref="B277" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
-    <hyperlink ref="B278" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
-    <hyperlink ref="B279" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
-    <hyperlink ref="B280" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
-    <hyperlink ref="B281" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
-    <hyperlink ref="B282" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
-    <hyperlink ref="B283" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
-    <hyperlink ref="B287" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
-    <hyperlink ref="B288" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
-    <hyperlink ref="B291" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
-    <hyperlink ref="B292" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
-    <hyperlink ref="B296" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
-    <hyperlink ref="B297" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
-    <hyperlink ref="B298" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
-    <hyperlink ref="B299" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
-    <hyperlink ref="B305" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
-    <hyperlink ref="B307" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
-    <hyperlink ref="B308" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
-    <hyperlink ref="B310" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
-    <hyperlink ref="B311" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
-    <hyperlink ref="B312" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
-    <hyperlink ref="B313" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
-    <hyperlink ref="B314" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
-    <hyperlink ref="B320" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
-    <hyperlink ref="B321" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
-    <hyperlink ref="B322" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
-    <hyperlink ref="B323" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
-    <hyperlink ref="B324" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
-    <hyperlink ref="B330" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
-    <hyperlink ref="B331" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
-    <hyperlink ref="B332" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
-    <hyperlink ref="B333" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
-    <hyperlink ref="B334" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
-    <hyperlink ref="B337" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
-    <hyperlink ref="B338" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
-    <hyperlink ref="B339" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
-    <hyperlink ref="B340" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
-    <hyperlink ref="B344" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
-    <hyperlink ref="B345" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
-    <hyperlink ref="B346" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
-    <hyperlink ref="B347" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
-    <hyperlink ref="B348" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
-    <hyperlink ref="B352" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
-    <hyperlink ref="B353" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
-    <hyperlink ref="B354" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
-    <hyperlink ref="B355" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
-    <hyperlink ref="B356" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
-    <hyperlink ref="B357" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
-    <hyperlink ref="B360" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
-    <hyperlink ref="B361" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
-    <hyperlink ref="B362" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
-    <hyperlink ref="B363" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
-    <hyperlink ref="B367" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
-    <hyperlink ref="B368" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
-    <hyperlink ref="C368" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
-    <hyperlink ref="B369" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
-    <hyperlink ref="B370" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
-    <hyperlink ref="C371" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
-    <hyperlink ref="B372" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
-    <hyperlink ref="B375" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
-    <hyperlink ref="B376" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
-    <hyperlink ref="B377" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
-    <hyperlink ref="B378" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
-    <hyperlink ref="B379" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
-    <hyperlink ref="B380" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
-    <hyperlink ref="C380" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
-    <hyperlink ref="B381" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
-    <hyperlink ref="B385" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
-    <hyperlink ref="B386" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
-    <hyperlink ref="B387" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
-    <hyperlink ref="B388" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
-    <hyperlink ref="B389" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
-    <hyperlink ref="B390" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
-    <hyperlink ref="B391" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
-    <hyperlink ref="B395" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
-    <hyperlink ref="B396" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
-    <hyperlink ref="B401" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
-    <hyperlink ref="B402" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
-    <hyperlink ref="B403" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
-    <hyperlink ref="B404" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
-    <hyperlink ref="B405" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
-    <hyperlink ref="B406" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
-    <hyperlink ref="B407" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
-    <hyperlink ref="B408" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
-    <hyperlink ref="B409" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
-    <hyperlink ref="B410" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
-    <hyperlink ref="B411" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
-    <hyperlink ref="B412" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
-    <hyperlink ref="B413" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
-    <hyperlink ref="B414" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
-    <hyperlink ref="B417" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
-    <hyperlink ref="B421" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
-    <hyperlink ref="B422" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
-    <hyperlink ref="B423" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
-    <hyperlink ref="B424" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
-    <hyperlink ref="B425" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
-    <hyperlink ref="B426" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
-    <hyperlink ref="B427" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
-    <hyperlink ref="B428" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
-    <hyperlink ref="B429" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
-    <hyperlink ref="B430" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
-    <hyperlink ref="B433" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
-    <hyperlink ref="B434" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
-    <hyperlink ref="B435" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
-    <hyperlink ref="B436" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
-    <hyperlink ref="B437" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
-    <hyperlink ref="B438" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
-    <hyperlink ref="B439" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
-    <hyperlink ref="B440" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
-    <hyperlink ref="B441" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
-    <hyperlink ref="B442" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
-    <hyperlink ref="B443" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
-    <hyperlink ref="B444" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
-    <hyperlink ref="B445" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
-    <hyperlink ref="B448" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
-    <hyperlink ref="B449" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
-    <hyperlink ref="B466" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
-    <hyperlink ref="B467" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
-    <hyperlink ref="B470" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
-    <hyperlink ref="B471" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
-    <hyperlink ref="B472" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
-    <hyperlink ref="B473" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
-    <hyperlink ref="B474" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
-    <hyperlink ref="B475" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
-    <hyperlink ref="B479" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
-    <hyperlink ref="B480" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
-    <hyperlink ref="B481" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
-    <hyperlink ref="B482" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
-    <hyperlink ref="B483" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
-    <hyperlink ref="B484" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
-    <hyperlink ref="B485" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
-    <hyperlink ref="B486" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
-    <hyperlink ref="B487" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
-    <hyperlink ref="B491" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
-    <hyperlink ref="B492" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
-    <hyperlink ref="B493" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
-    <hyperlink ref="B494" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
-    <hyperlink ref="B497" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
-    <hyperlink ref="B499" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="B255" r:id="rId110" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="B256" r:id="rId111" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="B257" r:id="rId112" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="B258" r:id="rId113" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="B259" r:id="rId114" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B260" r:id="rId115" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="B261" r:id="rId116" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="B262" r:id="rId117" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="B263" r:id="rId118" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B264" r:id="rId119" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="B265" r:id="rId120" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B266" r:id="rId121" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="B267" r:id="rId122" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="B268" r:id="rId123" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="B269" r:id="rId124" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="B270" r:id="rId125" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="B278" r:id="rId126" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="B279" r:id="rId127" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="B280" r:id="rId128" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="B281" r:id="rId129" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="B282" r:id="rId130" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B283" r:id="rId131" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="B284" r:id="rId132" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="B288" r:id="rId133" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="B289" r:id="rId134" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="B292" r:id="rId135" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="B293" r:id="rId136" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B297" r:id="rId137" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="B298" r:id="rId138" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="B299" r:id="rId139" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="B300" r:id="rId140" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="B306" r:id="rId141" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="B308" r:id="rId142" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="B309" r:id="rId143" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B311" r:id="rId144" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="B312" r:id="rId145" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="B313" r:id="rId146" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B314" r:id="rId147" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="B315" r:id="rId148" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="B321" r:id="rId149" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B322" r:id="rId150" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="B323" r:id="rId151" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="B324" r:id="rId152" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="B325" r:id="rId153" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="B331" r:id="rId154" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="B332" r:id="rId155" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="B333" r:id="rId156" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="B334" r:id="rId157" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="B335" r:id="rId158" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="B338" r:id="rId159" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="B339" r:id="rId160" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="B340" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B341" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="B345" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="B346" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B347" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="B348" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="B349" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B353" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="B354" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="B355" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B356" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="B357" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="B358" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B361" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="B362" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="B363" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="B364" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="B368" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B369" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="C369" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="B370" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B371" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="C372" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="B373" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="B376" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="B377" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="B378" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="B379" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B380" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="B381" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="C381" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B382" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="B386" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="B387" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="B388" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="B389" r:id="rId196" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B390" r:id="rId197" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="B391" r:id="rId198" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="B392" r:id="rId199" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="B396" r:id="rId200" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="B397" r:id="rId201" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B402" r:id="rId202" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="B403" r:id="rId203" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="B404" r:id="rId204" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="B405" r:id="rId205" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="B406" r:id="rId206" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="B407" r:id="rId207" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="B408" r:id="rId208" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="B409" r:id="rId209" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="B410" r:id="rId210" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="B411" r:id="rId211" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="B412" r:id="rId212" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="B413" r:id="rId213" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="B414" r:id="rId214" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="B415" r:id="rId215" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="B418" r:id="rId216" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="B422" r:id="rId217" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="B423" r:id="rId218" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="B424" r:id="rId219" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="B425" r:id="rId220" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="B426" r:id="rId221" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="B427" r:id="rId222" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="B428" r:id="rId223" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="B429" r:id="rId224" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="B430" r:id="rId225" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="B431" r:id="rId226" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="B434" r:id="rId227" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="B435" r:id="rId228" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="B436" r:id="rId229" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="B437" r:id="rId230" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="B438" r:id="rId231" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="B439" r:id="rId232" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="B440" r:id="rId233" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="B441" r:id="rId234" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="B442" r:id="rId235" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="B443" r:id="rId236" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="B444" r:id="rId237" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="B445" r:id="rId238" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="B446" r:id="rId239" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="B449" r:id="rId240" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="B450" r:id="rId241" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="B467" r:id="rId242" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="B468" r:id="rId243" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="B471" r:id="rId244" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="B472" r:id="rId245" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="B473" r:id="rId246" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="B474" r:id="rId247" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="B475" r:id="rId248" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="B476" r:id="rId249" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="B480" r:id="rId250" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="B481" r:id="rId251" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="B482" r:id="rId252" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="B483" r:id="rId253" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="B484" r:id="rId254" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="B485" r:id="rId255" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="B486" r:id="rId256" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="B487" r:id="rId257" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="B488" r:id="rId258" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="B492" r:id="rId259" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="B493" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="B494" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="B495" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="B498" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="B500" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
     <hyperlink ref="B244" r:id="rId265" xr:uid="{74B2161E-06D4-4B8A-9584-0E2CBADC274E}"/>
     <hyperlink ref="B246" r:id="rId266" xr:uid="{1608CB90-B10C-47C4-93D4-59AEE1446147}"/>
-    <hyperlink ref="B270" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
-    <hyperlink ref="B271" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
-    <hyperlink ref="B272" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
-    <hyperlink ref="B273" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
+    <hyperlink ref="B271" r:id="rId267" xr:uid="{968F4BF9-FCA3-411D-B359-F57C0021CF6D}"/>
+    <hyperlink ref="B272" r:id="rId268" xr:uid="{3F6B4E87-4E97-43A0-926D-9BFAA64415F9}"/>
+    <hyperlink ref="B273" r:id="rId269" xr:uid="{06E52597-6E05-40D9-8554-1823C19D12DF}"/>
+    <hyperlink ref="B274" r:id="rId270" xr:uid="{986E706F-2DF0-485D-8DFF-AAF7D9593A61}"/>
     <hyperlink ref="B243" r:id="rId271" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
-    <hyperlink ref="B252" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
-    <hyperlink ref="B253" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="B253" r:id="rId272" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="B254" r:id="rId273" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
     <hyperlink ref="B238" r:id="rId274" xr:uid="{4F5D2989-A407-4666-9C15-2E56FFB04CB9}"/>
-    <hyperlink ref="B309" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
-    <hyperlink ref="B306" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
-    <hyperlink ref="B315" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
-    <hyperlink ref="B316" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
+    <hyperlink ref="B310" r:id="rId275" xr:uid="{75AF2DA5-CF21-4E60-9996-AB053317FCD9}"/>
+    <hyperlink ref="B307" r:id="rId276" xr:uid="{78371077-6F60-4589-9248-A2A0CC2BB6FF}"/>
+    <hyperlink ref="B316" r:id="rId277" xr:uid="{551F7908-8ED4-4567-ACB7-9587817B333B}"/>
+    <hyperlink ref="B317" r:id="rId278" xr:uid="{8D443D6C-2BB4-4B14-98C0-8DB9BF3A33C1}"/>
     <hyperlink ref="B66" r:id="rId279" xr:uid="{D1C5FD50-B888-454C-A7C2-CD17B99EF072}"/>
     <hyperlink ref="B114" r:id="rId280" xr:uid="{9CDF4FEB-14A7-4463-BB13-86C2DD99127D}"/>
     <hyperlink ref="B113" r:id="rId281" xr:uid="{A116B2A3-DEFE-42C9-AC0E-386AFEE56944}"/>
@@ -4739,13 +4770,13 @@
     <hyperlink ref="B68" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
     <hyperlink ref="B69" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
     <hyperlink ref="B65" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="B317" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
+    <hyperlink ref="B318" r:id="rId337" xr:uid="{B07E888D-CC25-4FB2-8100-D737CDDE2AE6}"/>
     <hyperlink ref="B81" r:id="rId338" xr:uid="{8ED0000A-50AE-4CD4-8333-C135BC7CAA86}"/>
     <hyperlink ref="B86" r:id="rId339" xr:uid="{EB551A3E-779F-43F1-BE5F-BE3382AB3ADF}"/>
     <hyperlink ref="B63" r:id="rId340" xr:uid="{74A357C6-1996-40A9-A1A0-8F4FFC6F43DA}"/>
-    <hyperlink ref="B457" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
-    <hyperlink ref="B508" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
-    <hyperlink ref="B400" r:id="rId343" xr:uid="{7F79710E-6CD7-4EF6-9A80-B8578C230F1B}"/>
+    <hyperlink ref="B458" r:id="rId341" xr:uid="{884B8A48-BF54-453B-AFD0-71384A8E4670}"/>
+    <hyperlink ref="B509" r:id="rId342" xr:uid="{632C56C6-AA7B-4927-8DC4-7D17ED02C3C2}"/>
+    <hyperlink ref="B401" r:id="rId343" xr:uid="{7F79710E-6CD7-4EF6-9A80-B8578C230F1B}"/>
     <hyperlink ref="B245" r:id="rId344" xr:uid="{C0FA6DC5-AC75-4EC6-A83F-2B0DA6FEF8D6}"/>
     <hyperlink ref="B234" r:id="rId345" xr:uid="{6F0AE3E1-8A25-4491-BB78-B7C39178D672}"/>
   </hyperlinks>

--- a/DSA Sheet.xlsx
+++ b/DSA Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d8cfd04c6706e178/Desktop/myDSA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="155" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E1302DC-2036-40CC-BD11-D842F5B85B75}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{CCE37EA7-A2E4-4FF7-9902-EC3DA1D988F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEDA7DC8-B3DB-44A1-AE09-F3C9BC6BE3D0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1936,8 +1936,8 @@
   </sheetPr>
   <dimension ref="A1:D512"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+    <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1983,12 +1983,12 @@
       </c>
     </row>
     <row r="10" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="15" t="s">
         <v>6</v>
       </c>
     </row>
